--- a/ADS.xlsx
+++ b/ADS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEBF6A7-A32E-44DA-B37F-ED062FF4C64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7977CCD-06E7-4D56-9A8C-19733F09743F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{5CA27069-BA8E-4704-98A3-1B68BB8C6A2D}"/>
+    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{5CA27069-BA8E-4704-98A3-1B68BB8C6A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>Adidas</t>
   </si>
@@ -257,6 +257,9 @@
   <si>
     <t>Accessoires Growth</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
 </sst>
 </file>
 
@@ -329,7 +332,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -342,7 +345,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -682,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010FB125-5721-48E0-B2EE-531517EC3DD6}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -705,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>238.7</v>
+        <v>214.9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -716,7 +718,7 @@
         <v>178.54908399999999</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -728,7 +730,7 @@
       </c>
       <c r="I4" s="6">
         <f>I2*I3</f>
-        <v>42619.666350799998</v>
+        <v>38370.198151600001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -742,7 +744,7 @@
         <v>2455</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -754,7 +756,7 @@
         <v>2485</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -763,7 +765,7 @@
       </c>
       <c r="I7" s="6">
         <f>I4-I5+I6</f>
-        <v>42649.666350799998</v>
+        <v>38400.198151600001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -791,7 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8AFDA6-8DF7-49F6-9902-DB49A0E15CEA}">
   <dimension ref="A1:Y267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -954,64 +956,64 @@
         <v>53</v>
       </c>
       <c r="C5" s="9">
-        <f>+C3+C4</f>
+        <f t="shared" ref="C5:J5" si="0">+C3+C4</f>
         <v>1806</v>
       </c>
       <c r="D5" s="9">
-        <f>+D3+D4</f>
+        <f t="shared" si="0"/>
         <v>1868</v>
       </c>
       <c r="E5" s="9">
-        <f>+E3+E4</f>
+        <f t="shared" si="0"/>
         <v>1890</v>
       </c>
       <c r="F5" s="9">
-        <f>+F3+F4</f>
+        <f t="shared" si="0"/>
         <v>1863</v>
       </c>
       <c r="G5" s="9">
-        <f>+G3+G4</f>
+        <f t="shared" si="0"/>
         <v>1867</v>
       </c>
       <c r="H5" s="9">
-        <f>+H3+H4</f>
+        <f t="shared" si="0"/>
         <v>1868</v>
       </c>
       <c r="I5" s="9">
-        <f>+I3+I4</f>
+        <f t="shared" si="0"/>
         <v>1901</v>
       </c>
       <c r="J5" s="9">
-        <f>+J3+J4</f>
+        <f t="shared" si="0"/>
         <v>1933</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9">
-        <f t="shared" ref="L5:R5" si="0">+L3+L4</f>
+        <f t="shared" ref="L5:R5" si="1">+L3+L4</f>
         <v>0</v>
       </c>
       <c r="M5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1863</v>
       </c>
       <c r="R5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1933</v>
       </c>
       <c r="S5" s="9"/>
@@ -1500,56 +1502,56 @@
         <v>25</v>
       </c>
       <c r="C16" s="9">
-        <f t="shared" ref="C16" si="1">C14-C15</f>
+        <f t="shared" ref="C16" si="2">C14-C15</f>
         <v>2363</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" ref="D16" si="2">D14-D15</f>
+        <f t="shared" ref="D16" si="3">D14-D15</f>
         <v>2718</v>
       </c>
       <c r="E16" s="9">
-        <f t="shared" ref="E16" si="3">E14-E15</f>
+        <f t="shared" ref="E16" si="4">E14-E15</f>
         <v>2955</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" ref="F16" si="4">F14-F15</f>
+        <f t="shared" ref="F16" si="5">F14-F15</f>
         <v>2148</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" ref="G16" si="5">G14-G15</f>
+        <f t="shared" ref="G16" si="6">G14-G15</f>
         <v>2796</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" ref="H16" si="6">H14-H15</f>
+        <f t="shared" ref="H16" si="7">H14-H15</f>
         <v>2959</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" ref="I16" si="7">I14-I15</f>
+        <f t="shared" ref="I16" si="8">I14-I15</f>
         <v>3301</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" ref="J16" si="8">J14-J15</f>
+        <f t="shared" ref="J16" si="9">J14-J15</f>
         <v>2970</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9">
-        <f t="shared" ref="L16:P16" si="9">L14-L15</f>
+        <f t="shared" ref="L16:P16" si="10">L14-L15</f>
         <v>11363</v>
       </c>
       <c r="M16" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12293</v>
       </c>
       <c r="N16" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9222</v>
       </c>
       <c r="O16" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10765</v>
       </c>
       <c r="P16" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10644</v>
       </c>
       <c r="Q16" s="9">
@@ -1671,7 +1673,7 @@
       <c r="Q18" s="9">
         <v>71</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R18" s="9">
         <v>174</v>
       </c>
       <c r="S18" s="9"/>
@@ -1728,7 +1730,7 @@
       <c r="Q19" s="9">
         <v>2528</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="9">
         <f>+SUM(G19:J19)</f>
         <v>2088</v>
       </c>
@@ -1786,7 +1788,7 @@
       <c r="Q20" s="9">
         <v>5547</v>
       </c>
-      <c r="R20" s="10">
+      <c r="R20" s="9">
         <f>+SUM(G20:J20)</f>
         <v>8858</v>
       </c>
@@ -1844,7 +1846,7 @@
       <c r="Q21" s="9">
         <v>1839</v>
       </c>
-      <c r="R21" s="10">
+      <c r="R21" s="9">
         <f>+SUM(G21:J21)</f>
         <v>0</v>
       </c>
@@ -1908,7 +1910,7 @@
         <f>137+19</f>
         <v>156</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="9">
         <f>+SUM(G22:J22)</f>
         <v>0</v>
       </c>
@@ -1924,19 +1926,19 @@
         <v>31</v>
       </c>
       <c r="C23" s="9">
-        <f t="shared" ref="C23:F23" si="10">C16+C17+C18-C19-C20</f>
+        <f t="shared" ref="C23:F23" si="11">C16+C17+C18-C19-C20</f>
         <v>60</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>175</v>
       </c>
       <c r="E23" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>410</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-376</v>
       </c>
       <c r="G23" s="9">
@@ -1944,36 +1946,36 @@
         <v>336</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" ref="H23:J23" si="11">H16+H17+H18-H19-H20</f>
+        <f t="shared" ref="H23:J23" si="12">H16+H17+H18-H19-H20</f>
         <v>347</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>596</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9">
-        <f t="shared" ref="L23:P23" si="12">L16+L17+L18-SUM(L19:L22)</f>
+        <f t="shared" ref="L23:P23" si="13">L16+L17+L18-SUM(L19:L22)</f>
         <v>2367</v>
       </c>
       <c r="M23" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2660</v>
       </c>
       <c r="N23" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>745</v>
       </c>
       <c r="O23" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1987</v>
       </c>
       <c r="P23" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>669</v>
       </c>
       <c r="Q23" s="9">
@@ -2038,7 +2040,7 @@
       <c r="Q24" s="9">
         <v>79</v>
       </c>
-      <c r="R24" s="10">
+      <c r="R24" s="9">
         <v>101</v>
       </c>
       <c r="S24" s="9"/>
@@ -2095,7 +2097,7 @@
       <c r="Q25" s="9">
         <v>282</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R25" s="9">
         <v>317</v>
       </c>
       <c r="S25" s="9"/>
@@ -2110,63 +2112,63 @@
         <v>35</v>
       </c>
       <c r="C26" s="9">
-        <f t="shared" ref="C26" si="13">C23+C24-C25</f>
+        <f t="shared" ref="C26" si="14">C23+C24-C25</f>
         <v>32</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" ref="D26" si="14">D23+D24-D25</f>
+        <f t="shared" ref="D26" si="15">D23+D24-D25</f>
         <v>123</v>
       </c>
       <c r="E26" s="9">
-        <f t="shared" ref="E26" si="15">E23+E24-E25</f>
+        <f t="shared" ref="E26" si="16">E23+E24-E25</f>
         <v>326</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" ref="F26" si="16">F23+F24-F25</f>
+        <f t="shared" ref="F26" si="17">F23+F24-F25</f>
         <v>-414</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" ref="G26" si="17">G23+G24-G25</f>
+        <f t="shared" ref="G26" si="18">G23+G24-G25</f>
         <v>245</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" ref="H26" si="18">H23+H24-H25</f>
+        <f t="shared" ref="H26" si="19">H23+H24-H25</f>
         <v>305</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" ref="I26" si="19">I23+I24-I25</f>
+        <f t="shared" ref="I26" si="20">I23+I24-I25</f>
         <v>600</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" ref="J26" si="20">J23+J24-J25</f>
+        <f t="shared" ref="J26" si="21">J23+J24-J25</f>
         <v>-28</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9">
-        <f t="shared" ref="L26:P26" si="21">L23+L24-L25</f>
+        <f t="shared" ref="L26:P26" si="22">L23+L24-L25</f>
         <v>2377</v>
       </c>
       <c r="M26" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2558</v>
       </c>
       <c r="N26" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>578</v>
       </c>
       <c r="O26" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1853</v>
       </c>
       <c r="P26" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>388</v>
       </c>
       <c r="Q26" s="9">
         <f>Q23+Q24-Q25</f>
         <v>64</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R26" s="9">
         <f>+SUM(G26:J26)</f>
         <v>1122</v>
       </c>
@@ -2224,7 +2226,7 @@
       <c r="Q27" s="9">
         <v>124</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27" s="9">
         <v>297</v>
       </c>
       <c r="S27" s="9"/>
@@ -2239,56 +2241,56 @@
         <v>38</v>
       </c>
       <c r="C28" s="9">
-        <f t="shared" ref="C28" si="22">C26-C27</f>
+        <f t="shared" ref="C28" si="23">C26-C27</f>
         <v>-23</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" ref="D28" si="23">D26-D27</f>
+        <f t="shared" ref="D28" si="24">D26-D27</f>
         <v>96</v>
       </c>
       <c r="E28" s="9">
-        <f t="shared" ref="E28" si="24">E26-E27</f>
+        <f t="shared" ref="E28" si="25">E26-E27</f>
         <v>271</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" ref="F28" si="25">F26-F27</f>
+        <f t="shared" ref="F28" si="26">F26-F27</f>
         <v>-400</v>
       </c>
       <c r="G28" s="9">
-        <f t="shared" ref="G28" si="26">G26-G27</f>
+        <f t="shared" ref="G28" si="27">G26-G27</f>
         <v>171</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" ref="H28" si="27">H26-H27</f>
+        <f t="shared" ref="H28" si="28">H26-H27</f>
         <v>212</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" ref="I28" si="28">I26-I27</f>
+        <f t="shared" ref="I28" si="29">I26-I27</f>
         <v>467</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" ref="J28" si="29">J26-J27</f>
+        <f t="shared" ref="J28" si="30">J26-J27</f>
         <v>-26</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9">
-        <f t="shared" ref="L28:P28" si="30">L26-L27</f>
+        <f t="shared" ref="L28:P28" si="31">L26-L27</f>
         <v>1708</v>
       </c>
       <c r="M28" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1918</v>
       </c>
       <c r="N28" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>461</v>
       </c>
       <c r="O28" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1493</v>
       </c>
       <c r="P28" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>254</v>
       </c>
       <c r="Q28" s="9">
@@ -2353,7 +2355,7 @@
       <c r="Q29" s="9">
         <v>44</v>
       </c>
-      <c r="R29" s="10">
+      <c r="R29" s="9">
         <v>8</v>
       </c>
       <c r="S29" s="9"/>
@@ -2368,56 +2370,56 @@
         <v>37</v>
       </c>
       <c r="C30" s="9">
-        <f t="shared" ref="C30" si="31">C28+C29</f>
+        <f t="shared" ref="C30" si="32">C28+C29</f>
         <v>-29</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" ref="D30" si="32">D28+D29</f>
+        <f t="shared" ref="D30" si="33">D28+D29</f>
         <v>95</v>
       </c>
       <c r="E30" s="9">
-        <f t="shared" ref="E30" si="33">E28+E29</f>
+        <f t="shared" ref="E30" si="34">E28+E29</f>
         <v>281</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" ref="F30" si="34">F28+F29</f>
+        <f t="shared" ref="F30" si="35">F28+F29</f>
         <v>-358</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" ref="G30" si="35">G28+G29</f>
+        <f t="shared" ref="G30" si="36">G28+G29</f>
         <v>170</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" ref="H30" si="36">H28+H29</f>
+        <f t="shared" ref="H30" si="37">H28+H29</f>
         <v>206</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" ref="I30" si="37">I28+I29</f>
+        <f t="shared" ref="I30" si="38">I28+I29</f>
         <v>474</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" ref="J30" si="38">J28+J29</f>
+        <f t="shared" ref="J30" si="39">J28+J29</f>
         <v>-19</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9">
-        <f t="shared" ref="L30:P30" si="39">L28+L29</f>
+        <f t="shared" ref="L30:P30" si="40">L28+L29</f>
         <v>1703</v>
       </c>
       <c r="M30" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1977</v>
       </c>
       <c r="N30" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>442</v>
       </c>
       <c r="O30" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2159</v>
       </c>
       <c r="P30" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>638</v>
       </c>
       <c r="Q30" s="9">
@@ -2482,7 +2484,7 @@
       <c r="Q31" s="9">
         <v>61</v>
       </c>
-      <c r="R31" s="10">
+      <c r="R31" s="9">
         <v>764</v>
       </c>
       <c r="S31" s="9"/>
@@ -2497,23 +2499,23 @@
         <v>41</v>
       </c>
       <c r="C32" s="9">
-        <f t="shared" ref="C32" si="40">C30-C31</f>
+        <f t="shared" ref="C32" si="41">C30-C31</f>
         <v>-38</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" ref="D32" si="41">D30-D31</f>
+        <f t="shared" ref="D32" si="42">D30-D31</f>
         <v>84</v>
       </c>
       <c r="E32" s="9">
-        <f t="shared" ref="E32" si="42">E30-E31</f>
+        <f t="shared" ref="E32" si="43">E30-E31</f>
         <v>260</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" ref="F32" si="43">F30-F31</f>
+        <f t="shared" ref="F32" si="44">F30-F31</f>
         <v>21</v>
       </c>
       <c r="G32" s="9">
-        <f t="shared" ref="G32" si="44">G30-G31</f>
+        <f t="shared" ref="G32" si="45">G30-G31</f>
         <v>170</v>
       </c>
       <c r="H32" s="9">
@@ -2521,32 +2523,32 @@
         <v>190</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" ref="I32:J32" si="45">I30-I31</f>
+        <f t="shared" ref="I32:J32" si="46">I30-I31</f>
         <v>441</v>
       </c>
       <c r="J32" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>20</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9">
-        <f t="shared" ref="L32:P32" si="46">L30-L31</f>
+        <f t="shared" ref="L32:P32" si="47">L30-L31</f>
         <v>1700</v>
       </c>
       <c r="M32" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1975</v>
       </c>
       <c r="N32" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>431</v>
       </c>
       <c r="O32" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2117</v>
       </c>
       <c r="P32" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>612</v>
       </c>
       <c r="Q32" s="9">
@@ -2617,26 +2619,26 @@
         <v>0.11201401626905014</v>
       </c>
       <c r="K34" s="4"/>
-      <c r="L34" s="11">
+      <c r="L34" s="10">
         <v>8.44</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M34" s="10">
         <v>10</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N34" s="10">
         <v>2.31</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O34" s="10">
         <v>7.47</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P34" s="10">
         <v>1.25</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="Q34" s="10">
         <f>+Q32/Q35</f>
         <v>-0.43125396263584304</v>
       </c>
-      <c r="R34" s="11">
+      <c r="R34" s="10">
         <f>+R32/R35</f>
         <v>0.38644835612822298</v>
       </c>
@@ -2646,31 +2648,31 @@
         <v>47</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" ref="C35:I35" si="47">C32/C34</f>
+        <f t="shared" ref="C35:I35" si="48">C32/C34</f>
         <v>172.72727272727272</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>178.72340425531917</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>185.71428571428572</v>
       </c>
       <c r="F35" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>177.08333333333334</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>174.31192660550457</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>177.82258064516128</v>
       </c>
       <c r="J35" s="4">
@@ -2678,23 +2680,23 @@
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4">
-        <f t="shared" ref="L35:P35" si="48">L32/L34</f>
+        <f t="shared" ref="L35:P35" si="49">L32/L34</f>
         <v>201.4218009478673</v>
       </c>
       <c r="M35" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>197.5</v>
       </c>
       <c r="N35" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>186.58008658008657</v>
       </c>
       <c r="O35" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>283.40026773761713</v>
       </c>
       <c r="P35" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>489.6</v>
       </c>
       <c r="Q35" s="4">
@@ -2731,15 +2733,15 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="5">
-        <f t="shared" ref="G37:I38" si="49">+G3/C3-1</f>
+        <f t="shared" ref="G37:I38" si="50">+G3/C3-1</f>
         <v>1.4833127317676054E-2</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>3.5220125786163514E-2</v>
       </c>
       <c r="J37" s="5">
@@ -2749,23 +2751,23 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="5" t="e">
-        <f t="shared" ref="M37:R37" si="50">+M3/L3-1</f>
+        <f t="shared" ref="M37:Q37" si="51">+M3/L3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N37" s="5" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O37" s="5" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P37" s="5" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="5" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R37" s="5">
@@ -2782,41 +2784,41 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4.9147442326980872E-2</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-1.5525114155251152E-2</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" ref="J38" si="51">+J4/F4-1</f>
+        <f t="shared" ref="J38" si="52">+J4/F4-1</f>
         <v>6.2075654704170757E-2</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="5" t="e">
-        <f t="shared" ref="M38:R38" si="52">+M4/L4-1</f>
+        <f t="shared" ref="M38:Q38" si="53">+M4/L4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="5" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O38" s="5" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P38" s="5" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="5" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R38" s="5">
@@ -2833,15 +2835,15 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="5">
-        <f t="shared" ref="G39:I45" si="53">+G7/C7-1</f>
+        <f t="shared" ref="G39:I45" si="54">+G7/C7-1</f>
         <v>0.14844267726971494</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.20100502512562812</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.18763796909492281</v>
       </c>
       <c r="J39" s="5">
@@ -2851,23 +2853,23 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="5" t="e">
-        <f t="shared" ref="M39:R45" si="54">+M7/L7-1</f>
+        <f t="shared" ref="M39:Q45" si="55">+M7/L7-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N39" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O39" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P39" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R39" s="5">
@@ -2884,45 +2886,45 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-4.6728971962616828E-2</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-6.9335239456754794E-2</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-8.2210242587601123E-2</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" ref="J40:J45" si="55">+J8/F8-1</f>
+        <f t="shared" ref="J40:J45" si="56">+J8/F8-1</f>
         <v>0.15789473684210531</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N40" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O40" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P40" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q40" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" ref="R40:R45" si="56">+R8/Q8-1</f>
+        <f t="shared" ref="R40:R45" si="57">+R8/Q8-1</f>
         <v>-1.7436290477102934E-2</v>
       </c>
     </row>
@@ -2935,45 +2937,45 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>1.4705882352941124E-2</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>7.3107049608355013E-2</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>8.7356321839080486E-2</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.18507462686567155</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N41" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O41" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P41" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R41" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>8.4326018808777325E-2</v>
       </c>
     </row>
@@ -2986,45 +2988,45 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>5.9523809523809534E-2</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.24833333333333329</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>9.1127098321343025E-2</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.26344086021505375</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N42" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O42" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P42" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q42" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.16140350877192988</v>
       </c>
     </row>
@@ -3037,45 +3039,45 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>7.1452199801521621E-2</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.15183752417794971</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.10289389067524124</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.3356973995271868</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N43" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O43" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P43" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q43" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R43" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.15658362989323837</v>
       </c>
     </row>
@@ -3088,45 +3090,45 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-1.3605442176870763E-2</v>
       </c>
       <c r="H44" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.0501089324618702E-2</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>2.6051188299817118E-2</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.10140562248995977</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N44" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O44" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P44" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q44" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>4.5824847250509171E-2</v>
       </c>
     </row>
@@ -3139,45 +3141,45 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-3.5294117647058809E-2</v>
       </c>
       <c r="H45" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-8.6419753086419804E-2</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>7.9487179487179427E-2</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>7.9545454545454586E-2</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N45" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O45" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P45" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q45" s="5" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R45" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>7.3924731182795078E-3</v>
       </c>
     </row>
@@ -3194,33 +3196,33 @@
         <v>3.4888130451270483E-2</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" ref="H46:J46" si="57">H14/D14-1</f>
+        <f t="shared" ref="H46:J46" si="58">H14/D14-1</f>
         <v>8.9650009358038574E-2</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>7.3178863143857242E-2</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.23960931005818797</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5">
-        <f t="shared" ref="M46:P46" si="58">M14/L14-1</f>
+        <f t="shared" ref="M46:P46" si="59">M14/L14-1</f>
         <v>7.8713210130047839E-2</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-0.22017766497461932</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0.15183075671277457</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>6.0139399076952094E-2</v>
       </c>
       <c r="Q46" s="5">
@@ -3237,23 +3239,23 @@
         <v>43</v>
       </c>
       <c r="C47" s="5">
-        <f t="shared" ref="C47:G47" si="59">C16/C14</f>
+        <f t="shared" ref="C47:G47" si="60">C16/C14</f>
         <v>0.44804702313234734</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.50870297585626056</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.49258209701616934</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.44638403990024939</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.51227555881275189</v>
       </c>
       <c r="H47" s="5">
@@ -3261,32 +3263,32 @@
         <v>0.50824458948814843</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" ref="I47:J47" si="60">I16/I14</f>
+        <f t="shared" ref="I47:J47" si="61">I16/I14</f>
         <v>0.51273687480584029</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.49790444258172672</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="5">
-        <f t="shared" ref="L47:P47" si="61">L16/L14</f>
+        <f t="shared" ref="L47:P47" si="62">L16/L14</f>
         <v>0.51850330823636781</v>
       </c>
       <c r="M47" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.52000846023688663</v>
       </c>
       <c r="N47" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.50024410089503657</v>
       </c>
       <c r="O47" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.50696995384760291</v>
       </c>
       <c r="P47" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.47283550264315222</v>
       </c>
       <c r="Q47" s="5">
@@ -3303,23 +3305,23 @@
         <v>44</v>
       </c>
       <c r="C48" s="5">
-        <f t="shared" ref="C48:G48" si="62">C23/C14</f>
+        <f t="shared" ref="C48:G48" si="63">C23/C14</f>
         <v>1.1376564277588168E-2</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>3.2753134942915964E-2</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>6.8344724120686776E-2</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-7.813798836242726E-2</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>6.1561011359472333E-2</v>
       </c>
       <c r="H48" s="5">
@@ -3327,32 +3329,32 @@
         <v>5.960151150807283E-2</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" ref="I48:J48" si="63">I23/I14</f>
+        <f t="shared" ref="I48:J48" si="64">I23/I14</f>
         <v>9.2575333954644304E-2</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>9.5557418273260683E-3</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="5">
-        <f t="shared" ref="L48:P48" si="64">L23/L14</f>
+        <f t="shared" ref="L48:P48" si="65">L23/L14</f>
         <v>0.1080082135523614</v>
       </c>
       <c r="M48" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.11252115059221658</v>
       </c>
       <c r="N48" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>4.0412259289395173E-2</v>
       </c>
       <c r="O48" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>9.3576339832344355E-2</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>2.9718804140198125E-2</v>
       </c>
       <c r="Q48" s="5">
@@ -3369,23 +3371,23 @@
         <v>46</v>
       </c>
       <c r="C49" s="5">
-        <f t="shared" ref="C49:G49" si="65">C32/C14</f>
+        <f t="shared" ref="C49:G49" si="66">C32/C14</f>
         <v>-7.2051573758058398E-3</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>1.5721504772599662E-2</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>4.3340556759459907E-2</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>4.3640897755610969E-3</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>3.1146940271161598E-2</v>
       </c>
       <c r="H49" s="5">
@@ -3393,32 +3395,32 @@
         <v>3.2634833390587425E-2</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" ref="I49:J49" si="66">I32/I14</f>
+        <f t="shared" ref="I49:J49" si="67">I32/I14</f>
         <v>6.8499534016775401E-2</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>3.3528918692372171E-3</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="5">
-        <f t="shared" ref="L49:P49" si="67">L32/L14</f>
+        <f t="shared" ref="L49:P49" si="68">L32/L14</f>
         <v>7.7572438968742871E-2</v>
       </c>
       <c r="M49" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>8.3544839255499159E-2</v>
       </c>
       <c r="N49" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>2.3379441280173583E-2</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>9.9698596590373931E-2</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>2.7186708720181245E-2</v>
       </c>
       <c r="Q49" s="5">
@@ -3435,23 +3437,23 @@
         <v>45</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" ref="C50:G50" si="68">C27/C26</f>
+        <f t="shared" ref="C50:G50" si="69">C27/C26</f>
         <v>1.71875</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.21951219512195122</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.16871165644171779</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>3.3816425120772944E-2</v>
       </c>
       <c r="G50" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.30204081632653063</v>
       </c>
       <c r="H50" s="5">
@@ -3459,32 +3461,32 @@
         <v>0.30491803278688523</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" ref="I50:J50" si="69">I27/I26</f>
+        <f t="shared" ref="I50:J50" si="70">I27/I26</f>
         <v>0.22166666666666668</v>
       </c>
       <c r="J50" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="5">
-        <f t="shared" ref="L50:P50" si="70">L27/L26</f>
+        <f t="shared" ref="L50:P50" si="71">L27/L26</f>
         <v>0.28144720235591081</v>
       </c>
       <c r="M50" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.2501954652071931</v>
       </c>
       <c r="N50" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.20242214532871972</v>
       </c>
       <c r="O50" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.19427954668105774</v>
       </c>
       <c r="P50" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.34536082474226804</v>
       </c>
       <c r="Q50" s="5">

--- a/ADS.xlsx
+++ b/ADS.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7977CCD-06E7-4D56-9A8C-19733F09743F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A42CF14-2DDB-4470-BD46-3E3013F26700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{5CA27069-BA8E-4704-98A3-1B68BB8C6A2D}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{5CA27069-BA8E-4704-98A3-1B68BB8C6A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Financials" sheetId="2" r:id="rId2"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>Adidas</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -684,13 +693,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010FB125-5721-48E0-B2EE-531517EC3DD6}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="7"/>
   </cols>
   <sheetData>
@@ -707,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>214.9</v>
+        <v>201.7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -730,7 +739,7 @@
       </c>
       <c r="I4" s="6">
         <f>I2*I3</f>
-        <v>38370.198151600001</v>
+        <v>36013.350242799999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -765,7 +774,7 @@
       </c>
       <c r="I7" s="6">
         <f>I4-I5+I6</f>
-        <v>38400.198151600001</v>
+        <v>36043.350242799999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -791,13 +800,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8AFDA6-8DF7-49F6-9902-DB49A0E15CEA}">
-  <dimension ref="A1:Y267"/>
+  <dimension ref="A1:AC267"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,12 +815,12 @@
     <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
@@ -836,30 +845,42 @@
       <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="L2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>51</v>
       </c>
@@ -893,19 +914,23 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="9">
-        <v>832</v>
-      </c>
-      <c r="R3" s="9">
-        <v>838</v>
-      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
+      <c r="U3" s="9">
+        <v>832</v>
+      </c>
+      <c r="V3" s="9">
+        <v>838</v>
+      </c>
       <c r="W3" s="9"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>52</v>
       </c>
@@ -939,19 +964,23 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="9">
-        <v>1031</v>
-      </c>
-      <c r="R4" s="9">
-        <v>1095</v>
-      </c>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
+      <c r="U4" s="9">
+        <v>1031</v>
+      </c>
+      <c r="V4" s="9">
+        <v>1095</v>
+      </c>
       <c r="W4" s="9"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>53</v>
       </c>
@@ -988,41 +1017,45 @@
         <v>1933</v>
       </c>
       <c r="K5" s="9"/>
-      <c r="L5" s="9">
-        <f t="shared" ref="L5:R5" si="1">+L3+L4</f>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9">
+        <f t="shared" ref="P5:V5" si="1">+P3+P4</f>
         <v>0</v>
       </c>
-      <c r="M5" s="9">
+      <c r="Q5" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="9">
+      <c r="R5" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O5" s="9">
+      <c r="S5" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P5" s="9">
+      <c r="T5" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="U5" s="9">
         <f t="shared" si="1"/>
         <v>1863</v>
       </c>
-      <c r="R5" s="9">
+      <c r="V5" s="9">
         <f t="shared" si="1"/>
         <v>1933</v>
       </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
       <c r="W5" s="9"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -1046,8 +1079,12 @@
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>57</v>
       </c>
@@ -1081,21 +1118,25 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="9">
-        <v>6302</v>
-      </c>
-      <c r="R7" s="9">
-        <v>7551</v>
-      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
+      <c r="U7" s="9">
+        <v>6302</v>
+      </c>
+      <c r="V7" s="9">
+        <v>7551</v>
+      </c>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>58</v>
       </c>
@@ -1129,21 +1170,25 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="9">
-        <v>5219</v>
-      </c>
-      <c r="R8" s="9">
-        <v>5128</v>
-      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
+      <c r="U8" s="9">
+        <v>5219</v>
+      </c>
+      <c r="V8" s="9">
+        <v>5128</v>
+      </c>
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>59</v>
       </c>
@@ -1177,21 +1222,25 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="9">
-        <v>3190</v>
-      </c>
-      <c r="R9" s="9">
-        <v>3459</v>
-      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
+      <c r="U9" s="9">
+        <v>3190</v>
+      </c>
+      <c r="V9" s="9">
+        <v>3459</v>
+      </c>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>66</v>
       </c>
@@ -1225,21 +1274,25 @@
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
-      <c r="Q10" s="9">
-        <v>2850</v>
-      </c>
-      <c r="R10" s="9">
-        <v>3310</v>
-      </c>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
+      <c r="U10" s="9">
+        <v>2850</v>
+      </c>
+      <c r="V10" s="9">
+        <v>3310</v>
+      </c>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>67</v>
       </c>
@@ -1273,21 +1326,25 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
-      <c r="Q11" s="9">
-        <v>12083</v>
-      </c>
-      <c r="R11" s="9">
-        <v>13975</v>
-      </c>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
+      <c r="U11" s="9">
+        <v>12083</v>
+      </c>
+      <c r="V11" s="9">
+        <v>13975</v>
+      </c>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>68</v>
       </c>
@@ -1321,21 +1378,25 @@
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="9">
-        <v>7856</v>
-      </c>
-      <c r="R12" s="9">
-        <v>8216</v>
-      </c>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
+      <c r="U12" s="9">
+        <v>7856</v>
+      </c>
+      <c r="V12" s="9">
+        <v>8216</v>
+      </c>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>69</v>
       </c>
@@ -1369,78 +1430,88 @@
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
-      <c r="Q13" s="9">
-        <v>1488</v>
-      </c>
-      <c r="R13" s="9">
-        <v>1499</v>
-      </c>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
+      <c r="U13" s="9">
+        <v>1488</v>
+      </c>
+      <c r="V13" s="9">
+        <v>1499</v>
+      </c>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>5274</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>5343</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>5999</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>4812</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>5458</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>5822</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>6438</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>5965</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9">
+      <c r="K14" s="8">
+        <v>6153</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8">
         <v>21915</v>
       </c>
-      <c r="M14" s="9">
+      <c r="Q14" s="8">
         <v>23640</v>
       </c>
-      <c r="N14" s="9">
+      <c r="R14" s="8">
         <v>18435</v>
       </c>
-      <c r="O14" s="9">
+      <c r="S14" s="8">
         <v>21234</v>
       </c>
-      <c r="P14" s="9">
+      <c r="T14" s="8">
         <v>22511</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="U14" s="8">
         <v>21427</v>
       </c>
-      <c r="R14" s="9">
+      <c r="V14" s="8">
         <v>23683</v>
       </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
@@ -1468,36 +1539,42 @@
       <c r="J15" s="9">
         <v>2995</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9">
+      <c r="K15" s="9">
+        <v>2948</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9">
         <v>10552</v>
       </c>
-      <c r="M15" s="9">
+      <c r="Q15" s="9">
         <v>11347</v>
       </c>
-      <c r="N15" s="9">
+      <c r="R15" s="9">
         <v>9213</v>
       </c>
-      <c r="O15" s="9">
+      <c r="S15" s="9">
         <v>10469</v>
       </c>
-      <c r="P15" s="9">
+      <c r="T15" s="9">
         <v>11867</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="U15" s="9">
         <v>11244</v>
       </c>
-      <c r="R15" s="9">
+      <c r="V15" s="9">
         <v>11658</v>
       </c>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>25</v>
       </c>
@@ -1530,46 +1607,53 @@
         <v>3301</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" ref="J16" si="9">J14-J15</f>
+        <f t="shared" ref="J16:K16" si="9">J14-J15</f>
         <v>2970</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9">
-        <f t="shared" ref="L16:P16" si="10">L14-L15</f>
+      <c r="K16" s="9">
+        <f t="shared" si="9"/>
+        <v>3205</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9">
+        <f t="shared" ref="P16:T16" si="10">P14-P15</f>
         <v>11363</v>
       </c>
-      <c r="M16" s="9">
+      <c r="Q16" s="9">
         <f t="shared" si="10"/>
         <v>12293</v>
       </c>
-      <c r="N16" s="9">
+      <c r="R16" s="9">
         <f t="shared" si="10"/>
         <v>9222</v>
       </c>
-      <c r="O16" s="9">
+      <c r="S16" s="9">
         <f t="shared" si="10"/>
         <v>10765</v>
       </c>
-      <c r="P16" s="9">
+      <c r="T16" s="9">
         <f t="shared" si="10"/>
         <v>10644</v>
       </c>
-      <c r="Q16" s="9">
-        <f>Q14-Q15</f>
+      <c r="U16" s="9">
+        <f>U14-U15</f>
         <v>10183</v>
       </c>
-      <c r="R16" s="9">
-        <f>R14-R15</f>
+      <c r="V16" s="9">
+        <f>V14-V15</f>
         <v>12025</v>
       </c>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>26</v>
       </c>
@@ -1597,36 +1681,42 @@
       <c r="J17" s="9">
         <v>26</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9">
+      <c r="K17" s="9">
+        <v>19</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9">
         <v>129</v>
       </c>
-      <c r="M17" s="9">
+      <c r="Q17" s="9">
         <v>154</v>
       </c>
-      <c r="N17" s="9">
+      <c r="R17" s="9">
         <v>61</v>
       </c>
-      <c r="O17" s="9">
+      <c r="S17" s="9">
         <v>86</v>
       </c>
-      <c r="P17" s="9">
+      <c r="T17" s="9">
         <v>112</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="U17" s="9">
         <v>83</v>
       </c>
-      <c r="R17" s="9">
+      <c r="V17" s="9">
         <v>81</v>
       </c>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>32</v>
       </c>
@@ -1654,36 +1744,42 @@
       <c r="J18" s="9">
         <v>53</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9">
+      <c r="K18" s="9">
+        <v>1</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9">
         <v>48</v>
       </c>
-      <c r="M18" s="9">
+      <c r="Q18" s="9">
         <v>56</v>
       </c>
-      <c r="N18" s="9">
+      <c r="R18" s="9">
         <v>42</v>
       </c>
-      <c r="O18" s="9">
+      <c r="S18" s="9">
         <v>28</v>
       </c>
-      <c r="P18" s="9">
+      <c r="T18" s="9">
         <v>173</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="U18" s="9">
         <v>71</v>
       </c>
-      <c r="R18" s="9">
+      <c r="V18" s="9">
         <v>174</v>
       </c>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
@@ -1711,37 +1807,43 @@
       <c r="J19" s="9">
         <v>0</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9">
+      <c r="K19" s="9">
+        <v>746</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9">
         <v>3001</v>
       </c>
-      <c r="M19" s="9">
+      <c r="Q19" s="9">
         <v>3042</v>
       </c>
-      <c r="N19" s="9">
+      <c r="R19" s="9">
         <v>2373</v>
       </c>
-      <c r="O19" s="9">
+      <c r="S19" s="9">
         <v>2547</v>
       </c>
-      <c r="P19" s="9">
+      <c r="T19" s="9">
         <v>2763</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="U19" s="9">
         <v>2528</v>
       </c>
-      <c r="R19" s="9">
+      <c r="V19" s="9">
         <f>+SUM(G19:J19)</f>
         <v>2088</v>
       </c>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>30</v>
       </c>
@@ -1770,36 +1872,40 @@
         <v>2992</v>
       </c>
       <c r="K20" s="9"/>
-      <c r="L20" s="9">
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9">
         <v>4450</v>
       </c>
-      <c r="M20" s="9">
+      <c r="Q20" s="9">
         <v>4997</v>
       </c>
-      <c r="N20" s="9">
+      <c r="R20" s="9">
         <v>4601</v>
       </c>
-      <c r="O20" s="9">
+      <c r="S20" s="9">
         <v>4782</v>
       </c>
-      <c r="P20" s="9">
+      <c r="T20" s="9">
         <v>5601</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="U20" s="9">
         <v>5547</v>
       </c>
-      <c r="R20" s="9">
+      <c r="V20" s="9">
         <f>+SUM(G20:J20)</f>
         <v>8858</v>
       </c>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
@@ -1828,36 +1934,40 @@
         <v>0</v>
       </c>
       <c r="K21" s="9"/>
-      <c r="L21" s="9">
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9">
         <v>1576</v>
       </c>
-      <c r="M21" s="9">
+      <c r="Q21" s="9">
         <v>1652</v>
       </c>
-      <c r="N21" s="9">
+      <c r="R21" s="9">
         <v>1379</v>
       </c>
-      <c r="O21" s="9">
+      <c r="S21" s="9">
         <v>1481</v>
       </c>
-      <c r="P21" s="9">
+      <c r="T21" s="9">
         <v>1651</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="U21" s="9">
         <v>1839</v>
       </c>
-      <c r="R21" s="9">
+      <c r="V21" s="9">
         <f>+SUM(G21:J21)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>27</v>
       </c>
@@ -1886,42 +1996,46 @@
         <v>0</v>
       </c>
       <c r="K22" s="9"/>
-      <c r="L22" s="9">
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9">
         <f>105+41</f>
         <v>146</v>
       </c>
-      <c r="M22" s="9">
+      <c r="Q22" s="9">
         <f>134+18</f>
         <v>152</v>
       </c>
-      <c r="N22" s="9">
+      <c r="R22" s="9">
         <f>116+111</f>
         <v>227</v>
       </c>
-      <c r="O22" s="9">
+      <c r="S22" s="9">
         <f>76+6</f>
         <v>82</v>
       </c>
-      <c r="P22" s="9">
+      <c r="T22" s="9">
         <f>182+63</f>
         <v>245</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="U22" s="9">
         <f>137+19</f>
         <v>156</v>
       </c>
-      <c r="R22" s="9">
+      <c r="V22" s="9">
         <f>+SUM(G22:J22)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>31</v>
       </c>
@@ -1958,42 +2072,46 @@
         <v>57</v>
       </c>
       <c r="K23" s="9"/>
-      <c r="L23" s="9">
-        <f t="shared" ref="L23:P23" si="13">L16+L17+L18-SUM(L19:L22)</f>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9">
+        <f t="shared" ref="P23:T23" si="13">P16+P17+P18-SUM(P19:P22)</f>
         <v>2367</v>
       </c>
-      <c r="M23" s="9">
+      <c r="Q23" s="9">
         <f t="shared" si="13"/>
         <v>2660</v>
       </c>
-      <c r="N23" s="9">
+      <c r="R23" s="9">
         <f t="shared" si="13"/>
         <v>745</v>
       </c>
-      <c r="O23" s="9">
+      <c r="S23" s="9">
         <f t="shared" si="13"/>
         <v>1987</v>
       </c>
-      <c r="P23" s="9">
+      <c r="T23" s="9">
         <f t="shared" si="13"/>
         <v>669</v>
       </c>
-      <c r="Q23" s="9">
-        <f>Q16+Q17+Q18-SUM(Q19:Q22)</f>
+      <c r="U23" s="9">
+        <f>U16+U17+U18-SUM(U19:U22)</f>
         <v>267</v>
       </c>
-      <c r="R23" s="9">
-        <f>R16+R17+R18-SUM(R19:R22)</f>
+      <c r="V23" s="9">
+        <f>V16+V17+V18-SUM(V19:V22)</f>
         <v>1334</v>
       </c>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>33</v>
       </c>
@@ -2022,35 +2140,39 @@
         <v>30</v>
       </c>
       <c r="K24" s="9"/>
-      <c r="L24" s="9">
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9">
         <v>57</v>
       </c>
-      <c r="M24" s="9">
+      <c r="Q24" s="9">
         <v>64</v>
       </c>
-      <c r="N24" s="9">
+      <c r="R24" s="9">
         <v>29</v>
       </c>
-      <c r="O24" s="9">
+      <c r="S24" s="9">
         <v>19</v>
       </c>
-      <c r="P24" s="9">
+      <c r="T24" s="9">
         <v>39</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="U24" s="9">
         <v>79</v>
       </c>
-      <c r="R24" s="9">
+      <c r="V24" s="9">
         <v>101</v>
       </c>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>34</v>
       </c>
@@ -2079,35 +2201,39 @@
         <v>115</v>
       </c>
       <c r="K25" s="9"/>
-      <c r="L25" s="9">
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9">
         <v>47</v>
       </c>
-      <c r="M25" s="9">
+      <c r="Q25" s="9">
         <v>166</v>
       </c>
-      <c r="N25" s="9">
+      <c r="R25" s="9">
         <v>196</v>
       </c>
-      <c r="O25" s="9">
+      <c r="S25" s="9">
         <v>153</v>
       </c>
-      <c r="P25" s="9">
+      <c r="T25" s="9">
         <v>320</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="U25" s="9">
         <v>282</v>
       </c>
-      <c r="R25" s="9">
+      <c r="V25" s="9">
         <v>317</v>
       </c>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>35</v>
       </c>
@@ -2144,42 +2270,46 @@
         <v>-28</v>
       </c>
       <c r="K26" s="9"/>
-      <c r="L26" s="9">
-        <f t="shared" ref="L26:P26" si="22">L23+L24-L25</f>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9">
+        <f t="shared" ref="P26:T26" si="22">P23+P24-P25</f>
         <v>2377</v>
       </c>
-      <c r="M26" s="9">
+      <c r="Q26" s="9">
         <f t="shared" si="22"/>
         <v>2558</v>
       </c>
-      <c r="N26" s="9">
+      <c r="R26" s="9">
         <f t="shared" si="22"/>
         <v>578</v>
       </c>
-      <c r="O26" s="9">
+      <c r="S26" s="9">
         <f t="shared" si="22"/>
         <v>1853</v>
       </c>
-      <c r="P26" s="9">
+      <c r="T26" s="9">
         <f t="shared" si="22"/>
         <v>388</v>
       </c>
-      <c r="Q26" s="9">
-        <f>Q23+Q24-Q25</f>
+      <c r="U26" s="9">
+        <f>U23+U24-U25</f>
         <v>64</v>
       </c>
-      <c r="R26" s="9">
+      <c r="V26" s="9">
         <f>+SUM(G26:J26)</f>
         <v>1122</v>
       </c>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>36</v>
       </c>
@@ -2208,35 +2338,39 @@
         <v>-2</v>
       </c>
       <c r="K27" s="9"/>
-      <c r="L27" s="9">
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9">
         <v>669</v>
       </c>
-      <c r="M27" s="9">
+      <c r="Q27" s="9">
         <v>640</v>
       </c>
-      <c r="N27" s="9">
+      <c r="R27" s="9">
         <v>117</v>
       </c>
-      <c r="O27" s="9">
+      <c r="S27" s="9">
         <v>360</v>
       </c>
-      <c r="P27" s="9">
+      <c r="T27" s="9">
         <v>134</v>
       </c>
-      <c r="Q27" s="9">
+      <c r="U27" s="9">
         <v>124</v>
       </c>
-      <c r="R27" s="9">
+      <c r="V27" s="9">
         <v>297</v>
       </c>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>38</v>
       </c>
@@ -2273,42 +2407,46 @@
         <v>-26</v>
       </c>
       <c r="K28" s="9"/>
-      <c r="L28" s="9">
-        <f t="shared" ref="L28:P28" si="31">L26-L27</f>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9">
+        <f t="shared" ref="P28:T28" si="31">P26-P27</f>
         <v>1708</v>
       </c>
-      <c r="M28" s="9">
+      <c r="Q28" s="9">
         <f t="shared" si="31"/>
         <v>1918</v>
       </c>
-      <c r="N28" s="9">
+      <c r="R28" s="9">
         <f t="shared" si="31"/>
         <v>461</v>
       </c>
-      <c r="O28" s="9">
+      <c r="S28" s="9">
         <f t="shared" si="31"/>
         <v>1493</v>
       </c>
-      <c r="P28" s="9">
+      <c r="T28" s="9">
         <f t="shared" si="31"/>
         <v>254</v>
       </c>
-      <c r="Q28" s="9">
-        <f>Q26-Q27</f>
+      <c r="U28" s="9">
+        <f>U26-U27</f>
         <v>-60</v>
       </c>
-      <c r="R28" s="9">
-        <f>R26-R27</f>
+      <c r="V28" s="9">
+        <f>V26-V27</f>
         <v>825</v>
       </c>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>39</v>
       </c>
@@ -2337,35 +2475,39 @@
         <v>7</v>
       </c>
       <c r="K29" s="9"/>
-      <c r="L29" s="9">
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9">
         <v>-5</v>
       </c>
-      <c r="M29" s="9">
+      <c r="Q29" s="9">
         <v>59</v>
       </c>
-      <c r="N29" s="9">
+      <c r="R29" s="9">
         <v>-19</v>
       </c>
-      <c r="O29" s="9">
+      <c r="S29" s="9">
         <v>666</v>
       </c>
-      <c r="P29" s="9">
+      <c r="T29" s="9">
         <v>384</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="U29" s="9">
         <v>44</v>
       </c>
-      <c r="R29" s="9">
+      <c r="V29" s="9">
         <v>8</v>
       </c>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>37</v>
       </c>
@@ -2402,42 +2544,46 @@
         <v>-19</v>
       </c>
       <c r="K30" s="9"/>
-      <c r="L30" s="9">
-        <f t="shared" ref="L30:P30" si="40">L28+L29</f>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9">
+        <f t="shared" ref="P30:T30" si="40">P28+P29</f>
         <v>1703</v>
       </c>
-      <c r="M30" s="9">
+      <c r="Q30" s="9">
         <f t="shared" si="40"/>
         <v>1977</v>
       </c>
-      <c r="N30" s="9">
+      <c r="R30" s="9">
         <f t="shared" si="40"/>
         <v>442</v>
       </c>
-      <c r="O30" s="9">
+      <c r="S30" s="9">
         <f t="shared" si="40"/>
         <v>2159</v>
       </c>
-      <c r="P30" s="9">
+      <c r="T30" s="9">
         <f t="shared" si="40"/>
         <v>638</v>
       </c>
-      <c r="Q30" s="9">
-        <f>Q28+Q29</f>
+      <c r="U30" s="9">
+        <f>U28+U29</f>
         <v>-16</v>
       </c>
-      <c r="R30" s="9">
-        <f>R28+R29</f>
+      <c r="V30" s="9">
+        <f>V28+V29</f>
         <v>833</v>
       </c>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>40</v>
       </c>
@@ -2466,35 +2612,39 @@
         <v>-39</v>
       </c>
       <c r="K31" s="9"/>
-      <c r="L31" s="9">
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9">
         <v>3</v>
       </c>
-      <c r="M31" s="9">
+      <c r="Q31" s="9">
         <v>2</v>
       </c>
-      <c r="N31" s="9">
+      <c r="R31" s="9">
         <v>11</v>
       </c>
-      <c r="O31" s="9">
+      <c r="S31" s="9">
         <v>42</v>
       </c>
-      <c r="P31" s="9">
+      <c r="T31" s="9">
         <v>26</v>
       </c>
-      <c r="Q31" s="9">
+      <c r="U31" s="9">
         <v>61</v>
       </c>
-      <c r="R31" s="9">
+      <c r="V31" s="9">
         <v>764</v>
       </c>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>41</v>
       </c>
@@ -2531,42 +2681,46 @@
         <v>20</v>
       </c>
       <c r="K32" s="9"/>
-      <c r="L32" s="9">
-        <f t="shared" ref="L32:P32" si="47">L30-L31</f>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9">
+        <f t="shared" ref="P32:T32" si="47">P30-P31</f>
         <v>1700</v>
       </c>
-      <c r="M32" s="9">
+      <c r="Q32" s="9">
         <f t="shared" si="47"/>
         <v>1975</v>
       </c>
-      <c r="N32" s="9">
+      <c r="R32" s="9">
         <f t="shared" si="47"/>
         <v>431</v>
       </c>
-      <c r="O32" s="9">
+      <c r="S32" s="9">
         <f t="shared" si="47"/>
         <v>2117</v>
       </c>
-      <c r="P32" s="9">
+      <c r="T32" s="9">
         <f t="shared" si="47"/>
         <v>612</v>
       </c>
-      <c r="Q32" s="9">
-        <f>Q30-Q31</f>
+      <c r="U32" s="9">
+        <f>U30-U31</f>
         <v>-77</v>
       </c>
-      <c r="R32" s="9">
-        <f>R30-R31</f>
+      <c r="V32" s="9">
+        <f>V30-V31</f>
         <v>69</v>
       </c>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2590,8 +2744,12 @@
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>48</v>
       </c>
@@ -2619,31 +2777,35 @@
         <v>0.11201401626905014</v>
       </c>
       <c r="K34" s="4"/>
-      <c r="L34" s="10">
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="10">
         <v>8.44</v>
       </c>
-      <c r="M34" s="10">
+      <c r="Q34" s="10">
         <v>10</v>
       </c>
-      <c r="N34" s="10">
+      <c r="R34" s="10">
         <v>2.31</v>
       </c>
-      <c r="O34" s="10">
+      <c r="S34" s="10">
         <v>7.47</v>
       </c>
-      <c r="P34" s="10">
+      <c r="T34" s="10">
         <v>1.25</v>
       </c>
-      <c r="Q34" s="10">
-        <f>+Q32/Q35</f>
+      <c r="U34" s="10">
+        <f>+U32/U35</f>
         <v>-0.43125396263584304</v>
       </c>
-      <c r="R34" s="10">
-        <f>+R32/R35</f>
+      <c r="V34" s="10">
+        <f>+V32/V35</f>
         <v>0.38644835612822298</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>47</v>
       </c>
@@ -2679,34 +2841,38 @@
         <v>178.54908399999999</v>
       </c>
       <c r="K35" s="4"/>
-      <c r="L35" s="4">
-        <f t="shared" ref="L35:P35" si="49">L32/L34</f>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4">
+        <f t="shared" ref="P35:T35" si="49">P32/P34</f>
         <v>201.4218009478673</v>
       </c>
-      <c r="M35" s="4">
+      <c r="Q35" s="4">
         <f t="shared" si="49"/>
         <v>197.5</v>
       </c>
-      <c r="N35" s="4">
+      <c r="R35" s="4">
         <f t="shared" si="49"/>
         <v>186.58008658008657</v>
       </c>
-      <c r="O35" s="4">
+      <c r="S35" s="4">
         <f t="shared" si="49"/>
         <v>283.40026773761713</v>
       </c>
-      <c r="P35" s="4">
+      <c r="T35" s="4">
         <f t="shared" si="49"/>
         <v>489.6</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="U35" s="4">
         <v>178.54908399999999</v>
       </c>
-      <c r="R35" s="4">
+      <c r="V35" s="4">
         <v>178.54908399999999</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2723,8 +2889,12 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>60</v>
       </c>
@@ -2748,34 +2918,38 @@
         <f>+J3/F3-1</f>
         <v>7.2115384615385469E-3</v>
       </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="5" t="e">
-        <f t="shared" ref="M37:Q37" si="51">+M3/L3-1</f>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="5" t="e">
+        <f t="shared" ref="Q37:U37" si="51">+Q3/P3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N37" s="5" t="e">
+      <c r="R37" s="5" t="e">
         <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O37" s="5" t="e">
+      <c r="S37" s="5" t="e">
         <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P37" s="5" t="e">
+      <c r="T37" s="5" t="e">
         <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q37" s="5" t="e">
+      <c r="U37" s="5" t="e">
         <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R37" s="5">
-        <f>+R3/Q3-1</f>
+      <c r="V37" s="5">
+        <f>+V3/U3-1</f>
         <v>7.2115384615385469E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>61</v>
       </c>
@@ -2799,34 +2973,38 @@
         <f t="shared" ref="J38" si="52">+J4/F4-1</f>
         <v>6.2075654704170757E-2</v>
       </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="5" t="e">
-        <f t="shared" ref="M38:Q38" si="53">+M4/L4-1</f>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="5" t="e">
+        <f t="shared" ref="Q38:U38" si="53">+Q4/P4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="5" t="e">
+      <c r="R38" s="5" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O38" s="5" t="e">
+      <c r="S38" s="5" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P38" s="5" t="e">
+      <c r="T38" s="5" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q38" s="5" t="e">
+      <c r="U38" s="5" t="e">
         <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R38" s="5">
-        <f>+R4/Q4-1</f>
+      <c r="V38" s="5">
+        <f>+V4/U4-1</f>
         <v>6.2075654704170757E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>62</v>
       </c>
@@ -2850,34 +3028,38 @@
         <f>+J7/F7-1</f>
         <v>0.26277897768178549</v>
       </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="5" t="e">
-        <f t="shared" ref="M39:Q45" si="55">+M7/L7-1</f>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="5" t="e">
+        <f t="shared" ref="Q39:U45" si="55">+Q7/P7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N39" s="5" t="e">
+      <c r="R39" s="5" t="e">
         <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O39" s="5" t="e">
+      <c r="S39" s="5" t="e">
         <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P39" s="5" t="e">
+      <c r="T39" s="5" t="e">
         <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q39" s="5" t="e">
+      <c r="U39" s="5" t="e">
         <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R39" s="5">
-        <f>+R7/Q7-1</f>
+      <c r="V39" s="5">
+        <f>+V7/U7-1</f>
         <v>0.19819105046017138</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>63</v>
       </c>
@@ -2901,34 +3083,38 @@
         <f t="shared" ref="J40:J45" si="56">+J8/F8-1</f>
         <v>0.15789473684210531</v>
       </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N40" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O40" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P40" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
       <c r="Q40" s="5" t="e">
         <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R40" s="5">
-        <f t="shared" ref="R40:R45" si="57">+R8/Q8-1</f>
+      <c r="R40" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S40" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T40" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U40" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V40" s="5">
+        <f t="shared" ref="V40:V45" si="57">+V8/U8-1</f>
         <v>-1.7436290477102934E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>64</v>
       </c>
@@ -2952,34 +3138,38 @@
         <f t="shared" si="56"/>
         <v>0.18507462686567155</v>
       </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N41" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O41" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P41" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
       <c r="Q41" s="5" t="e">
         <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R41" s="5">
+      <c r="R41" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S41" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T41" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U41" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V41" s="5">
         <f t="shared" si="57"/>
         <v>8.4326018808777325E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>65</v>
       </c>
@@ -3003,34 +3193,38 @@
         <f t="shared" si="56"/>
         <v>0.26344086021505375</v>
       </c>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N42" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O42" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P42" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
       <c r="Q42" s="5" t="e">
         <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R42" s="5">
+      <c r="R42" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S42" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T42" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U42" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V42" s="5">
         <f t="shared" si="57"/>
         <v>0.16140350877192988</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>70</v>
       </c>
@@ -3054,34 +3248,38 @@
         <f t="shared" si="56"/>
         <v>0.3356973995271868</v>
       </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N43" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O43" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P43" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
       <c r="Q43" s="5" t="e">
         <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R43" s="5">
+      <c r="R43" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S43" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T43" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U43" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V43" s="5">
         <f t="shared" si="57"/>
         <v>0.15658362989323837</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>71</v>
       </c>
@@ -3105,34 +3303,38 @@
         <f t="shared" si="56"/>
         <v>0.10140562248995977</v>
       </c>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N44" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O44" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P44" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
       <c r="Q44" s="5" t="e">
         <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R44" s="5">
+      <c r="R44" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S44" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T44" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U44" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V44" s="5">
         <f t="shared" si="57"/>
         <v>4.5824847250509171E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>72</v>
       </c>
@@ -3156,34 +3358,38 @@
         <f t="shared" si="56"/>
         <v>7.9545454545454586E-2</v>
       </c>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N45" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O45" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P45" s="5" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
       <c r="Q45" s="5" t="e">
         <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R45" s="5">
+      <c r="R45" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S45" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T45" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U45" s="5" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V45" s="5">
         <f t="shared" si="57"/>
         <v>7.3924731182795078E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>42</v>
       </c>
@@ -3207,34 +3413,38 @@
         <f t="shared" si="58"/>
         <v>0.23960931005818797</v>
       </c>
-      <c r="K46" s="4"/>
+      <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="5">
-        <f t="shared" ref="M46:P46" si="59">M14/L14-1</f>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5">
+        <f t="shared" ref="Q46:T46" si="59">Q14/P14-1</f>
         <v>7.8713210130047839E-2</v>
       </c>
-      <c r="N46" s="5">
+      <c r="R46" s="5">
         <f t="shared" si="59"/>
         <v>-0.22017766497461932</v>
       </c>
-      <c r="O46" s="5">
+      <c r="S46" s="5">
         <f t="shared" si="59"/>
         <v>0.15183075671277457</v>
       </c>
-      <c r="P46" s="5">
+      <c r="T46" s="5">
         <f t="shared" si="59"/>
         <v>6.0139399076952094E-2</v>
       </c>
-      <c r="Q46" s="5">
-        <f>Q14/P14-1</f>
+      <c r="U46" s="5">
+        <f>U14/T14-1</f>
         <v>-4.8154235706987736E-2</v>
       </c>
-      <c r="R46" s="5">
-        <f>R14/Q14-1</f>
+      <c r="V46" s="5">
+        <f>V14/U14-1</f>
         <v>0.10528772109954732</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>43</v>
       </c>
@@ -3270,37 +3480,41 @@
         <f t="shared" si="61"/>
         <v>0.49790444258172672</v>
       </c>
-      <c r="K47" s="4"/>
-      <c r="L47" s="5">
-        <f t="shared" ref="L47:P47" si="62">L16/L14</f>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="5">
+        <f t="shared" ref="P47:T47" si="62">P16/P14</f>
         <v>0.51850330823636781</v>
       </c>
-      <c r="M47" s="5">
+      <c r="Q47" s="5">
         <f t="shared" si="62"/>
         <v>0.52000846023688663</v>
       </c>
-      <c r="N47" s="5">
+      <c r="R47" s="5">
         <f t="shared" si="62"/>
         <v>0.50024410089503657</v>
       </c>
-      <c r="O47" s="5">
+      <c r="S47" s="5">
         <f t="shared" si="62"/>
         <v>0.50696995384760291</v>
       </c>
-      <c r="P47" s="5">
+      <c r="T47" s="5">
         <f t="shared" si="62"/>
         <v>0.47283550264315222</v>
       </c>
-      <c r="Q47" s="5">
-        <f>Q16/Q14</f>
+      <c r="U47" s="5">
+        <f>U16/U14</f>
         <v>0.47524151771129886</v>
       </c>
-      <c r="R47" s="5">
-        <f>R16/R14</f>
+      <c r="V47" s="5">
+        <f>V16/V14</f>
         <v>0.5077481737955496</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>44</v>
       </c>
@@ -3336,37 +3550,41 @@
         <f t="shared" si="64"/>
         <v>9.5557418273260683E-3</v>
       </c>
-      <c r="K48" s="4"/>
-      <c r="L48" s="5">
-        <f t="shared" ref="L48:P48" si="65">L23/L14</f>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="5">
+        <f t="shared" ref="P48:T48" si="65">P23/P14</f>
         <v>0.1080082135523614</v>
       </c>
-      <c r="M48" s="5">
+      <c r="Q48" s="5">
         <f t="shared" si="65"/>
         <v>0.11252115059221658</v>
       </c>
-      <c r="N48" s="5">
+      <c r="R48" s="5">
         <f t="shared" si="65"/>
         <v>4.0412259289395173E-2</v>
       </c>
-      <c r="O48" s="5">
+      <c r="S48" s="5">
         <f t="shared" si="65"/>
         <v>9.3576339832344355E-2</v>
       </c>
-      <c r="P48" s="5">
+      <c r="T48" s="5">
         <f t="shared" si="65"/>
         <v>2.9718804140198125E-2</v>
       </c>
-      <c r="Q48" s="5">
-        <f>Q23/Q14</f>
+      <c r="U48" s="5">
+        <f>U23/U14</f>
         <v>1.2460913800345358E-2</v>
       </c>
-      <c r="R48" s="5">
-        <f>R23/R14</f>
+      <c r="V48" s="5">
+        <f>V23/V14</f>
         <v>5.6327323396529155E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>46</v>
       </c>
@@ -3402,37 +3620,41 @@
         <f t="shared" si="67"/>
         <v>3.3528918692372171E-3</v>
       </c>
-      <c r="K49" s="4"/>
-      <c r="L49" s="5">
-        <f t="shared" ref="L49:P49" si="68">L32/L14</f>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="5">
+        <f t="shared" ref="P49:T49" si="68">P32/P14</f>
         <v>7.7572438968742871E-2</v>
       </c>
-      <c r="M49" s="5">
+      <c r="Q49" s="5">
         <f t="shared" si="68"/>
         <v>8.3544839255499159E-2</v>
       </c>
-      <c r="N49" s="5">
+      <c r="R49" s="5">
         <f t="shared" si="68"/>
         <v>2.3379441280173583E-2</v>
       </c>
-      <c r="O49" s="5">
+      <c r="S49" s="5">
         <f t="shared" si="68"/>
         <v>9.9698596590373931E-2</v>
       </c>
-      <c r="P49" s="5">
+      <c r="T49" s="5">
         <f t="shared" si="68"/>
         <v>2.7186708720181245E-2</v>
       </c>
-      <c r="Q49" s="5">
-        <f>Q32/Q14</f>
+      <c r="U49" s="5">
+        <f>U32/U14</f>
         <v>-3.5935968637700096E-3</v>
       </c>
-      <c r="R49" s="5">
-        <f>R32/R14</f>
+      <c r="V49" s="5">
+        <f>V32/V14</f>
         <v>2.9134822446480598E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>45</v>
       </c>
@@ -3468,37 +3690,41 @@
         <f t="shared" si="70"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="K50" s="4"/>
-      <c r="L50" s="5">
-        <f t="shared" ref="L50:P50" si="71">L27/L26</f>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="5">
+        <f t="shared" ref="P50:T50" si="71">P27/P26</f>
         <v>0.28144720235591081</v>
       </c>
-      <c r="M50" s="5">
+      <c r="Q50" s="5">
         <f t="shared" si="71"/>
         <v>0.2501954652071931</v>
       </c>
-      <c r="N50" s="5">
+      <c r="R50" s="5">
         <f t="shared" si="71"/>
         <v>0.20242214532871972</v>
       </c>
-      <c r="O50" s="5">
+      <c r="S50" s="5">
         <f t="shared" si="71"/>
         <v>0.19427954668105774</v>
       </c>
-      <c r="P50" s="5">
+      <c r="T50" s="5">
         <f t="shared" si="71"/>
         <v>0.34536082474226804</v>
       </c>
-      <c r="Q50" s="5">
-        <f>Q27/Q26</f>
+      <c r="U50" s="5">
+        <f>U27/U26</f>
         <v>1.9375</v>
       </c>
-      <c r="R50" s="5">
-        <f>R27/R26</f>
+      <c r="V50" s="5">
+        <f>V27/V26</f>
         <v>0.26470588235294118</v>
       </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -3515,8 +3741,12 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -3533,8 +3763,12 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -3551,8 +3785,12 @@
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -3569,8 +3807,12 @@
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -3587,8 +3829,12 @@
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -3605,8 +3851,12 @@
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -3623,8 +3873,12 @@
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -3641,8 +3895,12 @@
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -3659,8 +3917,12 @@
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -3677,8 +3939,12 @@
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -3695,8 +3961,12 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -3713,8 +3983,12 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+    </row>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -3731,8 +4005,12 @@
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -3749,8 +4027,12 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
-    </row>
-    <row r="65" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+    </row>
+    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -3767,8 +4049,12 @@
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
-    </row>
-    <row r="66" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+    </row>
+    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -3785,8 +4071,12 @@
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
-    </row>
-    <row r="67" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+    </row>
+    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -3803,8 +4093,12 @@
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
-    </row>
-    <row r="68" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+    </row>
+    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -3821,8 +4115,12 @@
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
-    </row>
-    <row r="69" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+    </row>
+    <row r="69" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -3839,8 +4137,12 @@
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
-    </row>
-    <row r="70" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+    </row>
+    <row r="70" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -3857,8 +4159,12 @@
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
-    </row>
-    <row r="71" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+    </row>
+    <row r="71" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -3875,8 +4181,12 @@
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
-    </row>
-    <row r="72" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+    </row>
+    <row r="72" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -3893,8 +4203,12 @@
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
-    </row>
-    <row r="73" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+    </row>
+    <row r="73" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -3911,8 +4225,12 @@
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
-    </row>
-    <row r="74" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+    </row>
+    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -3929,8 +4247,12 @@
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
-    </row>
-    <row r="75" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+    </row>
+    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -3947,8 +4269,12 @@
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
-    </row>
-    <row r="76" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+    </row>
+    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -3965,8 +4291,12 @@
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
-    </row>
-    <row r="77" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+    </row>
+    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -3983,8 +4313,12 @@
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
-    </row>
-    <row r="78" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+    </row>
+    <row r="78" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -4001,8 +4335,12 @@
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
-    </row>
-    <row r="79" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+    </row>
+    <row r="79" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -4019,8 +4357,12 @@
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
-    </row>
-    <row r="80" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+    </row>
+    <row r="80" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -4037,8 +4379,12 @@
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -4055,8 +4401,12 @@
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -4073,8 +4423,12 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -4091,8 +4445,12 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -4109,8 +4467,12 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -4127,8 +4489,12 @@
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -4145,8 +4511,12 @@
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -4163,8 +4533,12 @@
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -4181,8 +4555,12 @@
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S88" s="4"/>
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -4199,8 +4577,12 @@
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -4217,8 +4599,12 @@
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -4235,8 +4621,12 @@
       <c r="P91" s="4"/>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -4253,8 +4643,12 @@
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -4271,8 +4665,12 @@
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -4289,8 +4687,12 @@
       <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -4307,8 +4709,12 @@
       <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -4325,8 +4731,12 @@
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -4343,8 +4753,12 @@
       <c r="P97" s="4"/>
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -4361,8 +4775,12 @@
       <c r="P98" s="4"/>
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -4379,8 +4797,12 @@
       <c r="P99" s="4"/>
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -4397,8 +4819,12 @@
       <c r="P100" s="4"/>
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -4415,8 +4841,12 @@
       <c r="P101" s="4"/>
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -4433,8 +4863,12 @@
       <c r="P102" s="4"/>
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
-    </row>
-    <row r="103" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+    </row>
+    <row r="103" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -4451,8 +4885,12 @@
       <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
-    </row>
-    <row r="104" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+    </row>
+    <row r="104" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -4469,8 +4907,12 @@
       <c r="P104" s="4"/>
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
-    </row>
-    <row r="105" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+    </row>
+    <row r="105" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -4487,8 +4929,12 @@
       <c r="P105" s="4"/>
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
-    </row>
-    <row r="106" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+    </row>
+    <row r="106" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -4505,8 +4951,12 @@
       <c r="P106" s="4"/>
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
-    </row>
-    <row r="107" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S106" s="4"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="4"/>
+    </row>
+    <row r="107" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -4523,8 +4973,12 @@
       <c r="P107" s="4"/>
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
-    </row>
-    <row r="108" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S107" s="4"/>
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+      <c r="V107" s="4"/>
+    </row>
+    <row r="108" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -4541,8 +4995,12 @@
       <c r="P108" s="4"/>
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
-    </row>
-    <row r="109" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="4"/>
+    </row>
+    <row r="109" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -4559,8 +5017,12 @@
       <c r="P109" s="4"/>
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
-    </row>
-    <row r="110" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S109" s="4"/>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+      <c r="V109" s="4"/>
+    </row>
+    <row r="110" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -4577,8 +5039,12 @@
       <c r="P110" s="4"/>
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
-    </row>
-    <row r="111" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S110" s="4"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+    </row>
+    <row r="111" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -4595,8 +5061,12 @@
       <c r="P111" s="4"/>
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
-    </row>
-    <row r="112" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+    </row>
+    <row r="112" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -4613,8 +5083,12 @@
       <c r="P112" s="4"/>
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
-    </row>
-    <row r="113" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+    </row>
+    <row r="113" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -4631,8 +5105,12 @@
       <c r="P113" s="4"/>
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
-    </row>
-    <row r="114" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S113" s="4"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+    </row>
+    <row r="114" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -4649,8 +5127,12 @@
       <c r="P114" s="4"/>
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
-    </row>
-    <row r="115" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S114" s="4"/>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
+    </row>
+    <row r="115" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -4667,8 +5149,12 @@
       <c r="P115" s="4"/>
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
-    </row>
-    <row r="116" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+    </row>
+    <row r="116" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -4685,8 +5171,12 @@
       <c r="P116" s="4"/>
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
-    </row>
-    <row r="117" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S116" s="4"/>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+      <c r="V116" s="4"/>
+    </row>
+    <row r="117" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -4703,8 +5193,12 @@
       <c r="P117" s="4"/>
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
-    </row>
-    <row r="118" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S117" s="4"/>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="4"/>
+    </row>
+    <row r="118" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -4721,8 +5215,12 @@
       <c r="P118" s="4"/>
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
-    </row>
-    <row r="119" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+    </row>
+    <row r="119" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -4739,8 +5237,12 @@
       <c r="P119" s="4"/>
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
-    </row>
-    <row r="120" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S119" s="4"/>
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+      <c r="V119" s="4"/>
+    </row>
+    <row r="120" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -4757,8 +5259,12 @@
       <c r="P120" s="4"/>
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
-    </row>
-    <row r="121" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S120" s="4"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="4"/>
+    </row>
+    <row r="121" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -4775,8 +5281,12 @@
       <c r="P121" s="4"/>
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
-    </row>
-    <row r="122" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S121" s="4"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="4"/>
+    </row>
+    <row r="122" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -4793,8 +5303,12 @@
       <c r="P122" s="4"/>
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
-    </row>
-    <row r="123" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S122" s="4"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="4"/>
+    </row>
+    <row r="123" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -4811,8 +5325,12 @@
       <c r="P123" s="4"/>
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
-    </row>
-    <row r="124" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S123" s="4"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+    </row>
+    <row r="124" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -4829,8 +5347,12 @@
       <c r="P124" s="4"/>
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
-    </row>
-    <row r="125" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S124" s="4"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+    </row>
+    <row r="125" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -4847,8 +5369,12 @@
       <c r="P125" s="4"/>
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
-    </row>
-    <row r="126" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S125" s="4"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+    </row>
+    <row r="126" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -4865,8 +5391,12 @@
       <c r="P126" s="4"/>
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
-    </row>
-    <row r="127" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S126" s="4"/>
+      <c r="T126" s="4"/>
+      <c r="U126" s="4"/>
+      <c r="V126" s="4"/>
+    </row>
+    <row r="127" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -4883,8 +5413,12 @@
       <c r="P127" s="4"/>
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
-    </row>
-    <row r="128" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S127" s="4"/>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+      <c r="V127" s="4"/>
+    </row>
+    <row r="128" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -4901,8 +5435,12 @@
       <c r="P128" s="4"/>
       <c r="Q128" s="4"/>
       <c r="R128" s="4"/>
-    </row>
-    <row r="129" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S128" s="4"/>
+      <c r="T128" s="4"/>
+      <c r="U128" s="4"/>
+      <c r="V128" s="4"/>
+    </row>
+    <row r="129" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -4919,8 +5457,12 @@
       <c r="P129" s="4"/>
       <c r="Q129" s="4"/>
       <c r="R129" s="4"/>
-    </row>
-    <row r="130" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S129" s="4"/>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4"/>
+      <c r="V129" s="4"/>
+    </row>
+    <row r="130" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -4937,8 +5479,12 @@
       <c r="P130" s="4"/>
       <c r="Q130" s="4"/>
       <c r="R130" s="4"/>
-    </row>
-    <row r="131" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S130" s="4"/>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
+      <c r="V130" s="4"/>
+    </row>
+    <row r="131" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -4955,8 +5501,12 @@
       <c r="P131" s="4"/>
       <c r="Q131" s="4"/>
       <c r="R131" s="4"/>
-    </row>
-    <row r="132" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+    </row>
+    <row r="132" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -4973,8 +5523,12 @@
       <c r="P132" s="4"/>
       <c r="Q132" s="4"/>
       <c r="R132" s="4"/>
-    </row>
-    <row r="133" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S132" s="4"/>
+      <c r="T132" s="4"/>
+      <c r="U132" s="4"/>
+      <c r="V132" s="4"/>
+    </row>
+    <row r="133" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -4991,8 +5545,12 @@
       <c r="P133" s="4"/>
       <c r="Q133" s="4"/>
       <c r="R133" s="4"/>
-    </row>
-    <row r="134" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S133" s="4"/>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4"/>
+      <c r="V133" s="4"/>
+    </row>
+    <row r="134" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -5009,8 +5567,12 @@
       <c r="P134" s="4"/>
       <c r="Q134" s="4"/>
       <c r="R134" s="4"/>
-    </row>
-    <row r="135" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S134" s="4"/>
+      <c r="T134" s="4"/>
+      <c r="U134" s="4"/>
+      <c r="V134" s="4"/>
+    </row>
+    <row r="135" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -5027,8 +5589,12 @@
       <c r="P135" s="4"/>
       <c r="Q135" s="4"/>
       <c r="R135" s="4"/>
-    </row>
-    <row r="136" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S135" s="4"/>
+      <c r="T135" s="4"/>
+      <c r="U135" s="4"/>
+      <c r="V135" s="4"/>
+    </row>
+    <row r="136" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -5045,8 +5611,12 @@
       <c r="P136" s="4"/>
       <c r="Q136" s="4"/>
       <c r="R136" s="4"/>
-    </row>
-    <row r="137" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S136" s="4"/>
+      <c r="T136" s="4"/>
+      <c r="U136" s="4"/>
+      <c r="V136" s="4"/>
+    </row>
+    <row r="137" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -5063,8 +5633,12 @@
       <c r="P137" s="4"/>
       <c r="Q137" s="4"/>
       <c r="R137" s="4"/>
-    </row>
-    <row r="138" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S137" s="4"/>
+      <c r="T137" s="4"/>
+      <c r="U137" s="4"/>
+      <c r="V137" s="4"/>
+    </row>
+    <row r="138" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -5081,8 +5655,12 @@
       <c r="P138" s="4"/>
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
-    </row>
-    <row r="139" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S138" s="4"/>
+      <c r="T138" s="4"/>
+      <c r="U138" s="4"/>
+      <c r="V138" s="4"/>
+    </row>
+    <row r="139" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -5099,8 +5677,12 @@
       <c r="P139" s="4"/>
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
-    </row>
-    <row r="140" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S139" s="4"/>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4"/>
+      <c r="V139" s="4"/>
+    </row>
+    <row r="140" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -5117,8 +5699,12 @@
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
-    </row>
-    <row r="141" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S140" s="4"/>
+      <c r="T140" s="4"/>
+      <c r="U140" s="4"/>
+      <c r="V140" s="4"/>
+    </row>
+    <row r="141" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -5135,8 +5721,12 @@
       <c r="P141" s="4"/>
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
-    </row>
-    <row r="142" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S141" s="4"/>
+      <c r="T141" s="4"/>
+      <c r="U141" s="4"/>
+      <c r="V141" s="4"/>
+    </row>
+    <row r="142" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -5153,8 +5743,12 @@
       <c r="P142" s="4"/>
       <c r="Q142" s="4"/>
       <c r="R142" s="4"/>
-    </row>
-    <row r="143" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S142" s="4"/>
+      <c r="T142" s="4"/>
+      <c r="U142" s="4"/>
+      <c r="V142" s="4"/>
+    </row>
+    <row r="143" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -5171,8 +5765,12 @@
       <c r="P143" s="4"/>
       <c r="Q143" s="4"/>
       <c r="R143" s="4"/>
-    </row>
-    <row r="144" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S143" s="4"/>
+      <c r="T143" s="4"/>
+      <c r="U143" s="4"/>
+      <c r="V143" s="4"/>
+    </row>
+    <row r="144" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -5189,8 +5787,12 @@
       <c r="P144" s="4"/>
       <c r="Q144" s="4"/>
       <c r="R144" s="4"/>
-    </row>
-    <row r="145" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S144" s="4"/>
+      <c r="T144" s="4"/>
+      <c r="U144" s="4"/>
+      <c r="V144" s="4"/>
+    </row>
+    <row r="145" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -5207,8 +5809,12 @@
       <c r="P145" s="4"/>
       <c r="Q145" s="4"/>
       <c r="R145" s="4"/>
-    </row>
-    <row r="146" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S145" s="4"/>
+      <c r="T145" s="4"/>
+      <c r="U145" s="4"/>
+      <c r="V145" s="4"/>
+    </row>
+    <row r="146" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -5225,8 +5831,12 @@
       <c r="P146" s="4"/>
       <c r="Q146" s="4"/>
       <c r="R146" s="4"/>
-    </row>
-    <row r="147" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S146" s="4"/>
+      <c r="T146" s="4"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="4"/>
+    </row>
+    <row r="147" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -5243,8 +5853,12 @@
       <c r="P147" s="4"/>
       <c r="Q147" s="4"/>
       <c r="R147" s="4"/>
-    </row>
-    <row r="148" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S147" s="4"/>
+      <c r="T147" s="4"/>
+      <c r="U147" s="4"/>
+      <c r="V147" s="4"/>
+    </row>
+    <row r="148" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -5261,8 +5875,12 @@
       <c r="P148" s="4"/>
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
-    </row>
-    <row r="149" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S148" s="4"/>
+      <c r="T148" s="4"/>
+      <c r="U148" s="4"/>
+      <c r="V148" s="4"/>
+    </row>
+    <row r="149" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -5279,8 +5897,12 @@
       <c r="P149" s="4"/>
       <c r="Q149" s="4"/>
       <c r="R149" s="4"/>
-    </row>
-    <row r="150" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S149" s="4"/>
+      <c r="T149" s="4"/>
+      <c r="U149" s="4"/>
+      <c r="V149" s="4"/>
+    </row>
+    <row r="150" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -5297,8 +5919,12 @@
       <c r="P150" s="4"/>
       <c r="Q150" s="4"/>
       <c r="R150" s="4"/>
-    </row>
-    <row r="151" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S150" s="4"/>
+      <c r="T150" s="4"/>
+      <c r="U150" s="4"/>
+      <c r="V150" s="4"/>
+    </row>
+    <row r="151" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -5315,8 +5941,12 @@
       <c r="P151" s="4"/>
       <c r="Q151" s="4"/>
       <c r="R151" s="4"/>
-    </row>
-    <row r="152" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S151" s="4"/>
+      <c r="T151" s="4"/>
+      <c r="U151" s="4"/>
+      <c r="V151" s="4"/>
+    </row>
+    <row r="152" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -5333,8 +5963,12 @@
       <c r="P152" s="4"/>
       <c r="Q152" s="4"/>
       <c r="R152" s="4"/>
-    </row>
-    <row r="153" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S152" s="4"/>
+      <c r="T152" s="4"/>
+      <c r="U152" s="4"/>
+      <c r="V152" s="4"/>
+    </row>
+    <row r="153" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -5351,8 +5985,12 @@
       <c r="P153" s="4"/>
       <c r="Q153" s="4"/>
       <c r="R153" s="4"/>
-    </row>
-    <row r="154" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S153" s="4"/>
+      <c r="T153" s="4"/>
+      <c r="U153" s="4"/>
+      <c r="V153" s="4"/>
+    </row>
+    <row r="154" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -5369,8 +6007,12 @@
       <c r="P154" s="4"/>
       <c r="Q154" s="4"/>
       <c r="R154" s="4"/>
-    </row>
-    <row r="155" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S154" s="4"/>
+      <c r="T154" s="4"/>
+      <c r="U154" s="4"/>
+      <c r="V154" s="4"/>
+    </row>
+    <row r="155" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -5387,8 +6029,12 @@
       <c r="P155" s="4"/>
       <c r="Q155" s="4"/>
       <c r="R155" s="4"/>
-    </row>
-    <row r="156" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S155" s="4"/>
+      <c r="T155" s="4"/>
+      <c r="U155" s="4"/>
+      <c r="V155" s="4"/>
+    </row>
+    <row r="156" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -5405,8 +6051,12 @@
       <c r="P156" s="4"/>
       <c r="Q156" s="4"/>
       <c r="R156" s="4"/>
-    </row>
-    <row r="157" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S156" s="4"/>
+      <c r="T156" s="4"/>
+      <c r="U156" s="4"/>
+      <c r="V156" s="4"/>
+    </row>
+    <row r="157" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -5423,8 +6073,12 @@
       <c r="P157" s="4"/>
       <c r="Q157" s="4"/>
       <c r="R157" s="4"/>
-    </row>
-    <row r="158" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S157" s="4"/>
+      <c r="T157" s="4"/>
+      <c r="U157" s="4"/>
+      <c r="V157" s="4"/>
+    </row>
+    <row r="158" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -5441,8 +6095,12 @@
       <c r="P158" s="4"/>
       <c r="Q158" s="4"/>
       <c r="R158" s="4"/>
-    </row>
-    <row r="159" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S158" s="4"/>
+      <c r="T158" s="4"/>
+      <c r="U158" s="4"/>
+      <c r="V158" s="4"/>
+    </row>
+    <row r="159" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -5459,8 +6117,12 @@
       <c r="P159" s="4"/>
       <c r="Q159" s="4"/>
       <c r="R159" s="4"/>
-    </row>
-    <row r="160" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S159" s="4"/>
+      <c r="T159" s="4"/>
+      <c r="U159" s="4"/>
+      <c r="V159" s="4"/>
+    </row>
+    <row r="160" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -5477,8 +6139,12 @@
       <c r="P160" s="4"/>
       <c r="Q160" s="4"/>
       <c r="R160" s="4"/>
-    </row>
-    <row r="161" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S160" s="4"/>
+      <c r="T160" s="4"/>
+      <c r="U160" s="4"/>
+      <c r="V160" s="4"/>
+    </row>
+    <row r="161" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -5495,8 +6161,12 @@
       <c r="P161" s="4"/>
       <c r="Q161" s="4"/>
       <c r="R161" s="4"/>
-    </row>
-    <row r="162" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S161" s="4"/>
+      <c r="T161" s="4"/>
+      <c r="U161" s="4"/>
+      <c r="V161" s="4"/>
+    </row>
+    <row r="162" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -5513,8 +6183,12 @@
       <c r="P162" s="4"/>
       <c r="Q162" s="4"/>
       <c r="R162" s="4"/>
-    </row>
-    <row r="163" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S162" s="4"/>
+      <c r="T162" s="4"/>
+      <c r="U162" s="4"/>
+      <c r="V162" s="4"/>
+    </row>
+    <row r="163" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -5531,8 +6205,12 @@
       <c r="P163" s="4"/>
       <c r="Q163" s="4"/>
       <c r="R163" s="4"/>
-    </row>
-    <row r="164" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S163" s="4"/>
+      <c r="T163" s="4"/>
+      <c r="U163" s="4"/>
+      <c r="V163" s="4"/>
+    </row>
+    <row r="164" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -5549,8 +6227,12 @@
       <c r="P164" s="4"/>
       <c r="Q164" s="4"/>
       <c r="R164" s="4"/>
-    </row>
-    <row r="165" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S164" s="4"/>
+      <c r="T164" s="4"/>
+      <c r="U164" s="4"/>
+      <c r="V164" s="4"/>
+    </row>
+    <row r="165" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -5567,8 +6249,12 @@
       <c r="P165" s="4"/>
       <c r="Q165" s="4"/>
       <c r="R165" s="4"/>
-    </row>
-    <row r="166" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S165" s="4"/>
+      <c r="T165" s="4"/>
+      <c r="U165" s="4"/>
+      <c r="V165" s="4"/>
+    </row>
+    <row r="166" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -5585,8 +6271,12 @@
       <c r="P166" s="4"/>
       <c r="Q166" s="4"/>
       <c r="R166" s="4"/>
-    </row>
-    <row r="167" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S166" s="4"/>
+      <c r="T166" s="4"/>
+      <c r="U166" s="4"/>
+      <c r="V166" s="4"/>
+    </row>
+    <row r="167" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -5603,8 +6293,12 @@
       <c r="P167" s="4"/>
       <c r="Q167" s="4"/>
       <c r="R167" s="4"/>
-    </row>
-    <row r="168" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S167" s="4"/>
+      <c r="T167" s="4"/>
+      <c r="U167" s="4"/>
+      <c r="V167" s="4"/>
+    </row>
+    <row r="168" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -5621,8 +6315,12 @@
       <c r="P168" s="4"/>
       <c r="Q168" s="4"/>
       <c r="R168" s="4"/>
-    </row>
-    <row r="169" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S168" s="4"/>
+      <c r="T168" s="4"/>
+      <c r="U168" s="4"/>
+      <c r="V168" s="4"/>
+    </row>
+    <row r="169" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -5639,8 +6337,12 @@
       <c r="P169" s="4"/>
       <c r="Q169" s="4"/>
       <c r="R169" s="4"/>
-    </row>
-    <row r="170" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S169" s="4"/>
+      <c r="T169" s="4"/>
+      <c r="U169" s="4"/>
+      <c r="V169" s="4"/>
+    </row>
+    <row r="170" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -5657,8 +6359,12 @@
       <c r="P170" s="4"/>
       <c r="Q170" s="4"/>
       <c r="R170" s="4"/>
-    </row>
-    <row r="171" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S170" s="4"/>
+      <c r="T170" s="4"/>
+      <c r="U170" s="4"/>
+      <c r="V170" s="4"/>
+    </row>
+    <row r="171" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -5675,8 +6381,12 @@
       <c r="P171" s="4"/>
       <c r="Q171" s="4"/>
       <c r="R171" s="4"/>
-    </row>
-    <row r="172" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S171" s="4"/>
+      <c r="T171" s="4"/>
+      <c r="U171" s="4"/>
+      <c r="V171" s="4"/>
+    </row>
+    <row r="172" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -5693,8 +6403,12 @@
       <c r="P172" s="4"/>
       <c r="Q172" s="4"/>
       <c r="R172" s="4"/>
-    </row>
-    <row r="173" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S172" s="4"/>
+      <c r="T172" s="4"/>
+      <c r="U172" s="4"/>
+      <c r="V172" s="4"/>
+    </row>
+    <row r="173" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -5711,8 +6425,12 @@
       <c r="P173" s="4"/>
       <c r="Q173" s="4"/>
       <c r="R173" s="4"/>
-    </row>
-    <row r="174" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S173" s="4"/>
+      <c r="T173" s="4"/>
+      <c r="U173" s="4"/>
+      <c r="V173" s="4"/>
+    </row>
+    <row r="174" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -5729,8 +6447,12 @@
       <c r="P174" s="4"/>
       <c r="Q174" s="4"/>
       <c r="R174" s="4"/>
-    </row>
-    <row r="175" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S174" s="4"/>
+      <c r="T174" s="4"/>
+      <c r="U174" s="4"/>
+      <c r="V174" s="4"/>
+    </row>
+    <row r="175" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -5747,8 +6469,12 @@
       <c r="P175" s="4"/>
       <c r="Q175" s="4"/>
       <c r="R175" s="4"/>
-    </row>
-    <row r="176" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S175" s="4"/>
+      <c r="T175" s="4"/>
+      <c r="U175" s="4"/>
+      <c r="V175" s="4"/>
+    </row>
+    <row r="176" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -5765,8 +6491,12 @@
       <c r="P176" s="4"/>
       <c r="Q176" s="4"/>
       <c r="R176" s="4"/>
-    </row>
-    <row r="177" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S176" s="4"/>
+      <c r="T176" s="4"/>
+      <c r="U176" s="4"/>
+      <c r="V176" s="4"/>
+    </row>
+    <row r="177" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -5783,8 +6513,12 @@
       <c r="P177" s="4"/>
       <c r="Q177" s="4"/>
       <c r="R177" s="4"/>
-    </row>
-    <row r="178" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S177" s="4"/>
+      <c r="T177" s="4"/>
+      <c r="U177" s="4"/>
+      <c r="V177" s="4"/>
+    </row>
+    <row r="178" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -5801,8 +6535,12 @@
       <c r="P178" s="4"/>
       <c r="Q178" s="4"/>
       <c r="R178" s="4"/>
-    </row>
-    <row r="179" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S178" s="4"/>
+      <c r="T178" s="4"/>
+      <c r="U178" s="4"/>
+      <c r="V178" s="4"/>
+    </row>
+    <row r="179" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -5819,8 +6557,12 @@
       <c r="P179" s="4"/>
       <c r="Q179" s="4"/>
       <c r="R179" s="4"/>
-    </row>
-    <row r="180" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S179" s="4"/>
+      <c r="T179" s="4"/>
+      <c r="U179" s="4"/>
+      <c r="V179" s="4"/>
+    </row>
+    <row r="180" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -5837,8 +6579,12 @@
       <c r="P180" s="4"/>
       <c r="Q180" s="4"/>
       <c r="R180" s="4"/>
-    </row>
-    <row r="181" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S180" s="4"/>
+      <c r="T180" s="4"/>
+      <c r="U180" s="4"/>
+      <c r="V180" s="4"/>
+    </row>
+    <row r="181" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -5855,8 +6601,12 @@
       <c r="P181" s="4"/>
       <c r="Q181" s="4"/>
       <c r="R181" s="4"/>
-    </row>
-    <row r="182" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S181" s="4"/>
+      <c r="T181" s="4"/>
+      <c r="U181" s="4"/>
+      <c r="V181" s="4"/>
+    </row>
+    <row r="182" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -5873,8 +6623,12 @@
       <c r="P182" s="4"/>
       <c r="Q182" s="4"/>
       <c r="R182" s="4"/>
-    </row>
-    <row r="183" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S182" s="4"/>
+      <c r="T182" s="4"/>
+      <c r="U182" s="4"/>
+      <c r="V182" s="4"/>
+    </row>
+    <row r="183" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -5891,8 +6645,12 @@
       <c r="P183" s="4"/>
       <c r="Q183" s="4"/>
       <c r="R183" s="4"/>
-    </row>
-    <row r="184" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S183" s="4"/>
+      <c r="T183" s="4"/>
+      <c r="U183" s="4"/>
+      <c r="V183" s="4"/>
+    </row>
+    <row r="184" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -5909,8 +6667,12 @@
       <c r="P184" s="4"/>
       <c r="Q184" s="4"/>
       <c r="R184" s="4"/>
-    </row>
-    <row r="185" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S184" s="4"/>
+      <c r="T184" s="4"/>
+      <c r="U184" s="4"/>
+      <c r="V184" s="4"/>
+    </row>
+    <row r="185" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -5927,8 +6689,12 @@
       <c r="P185" s="4"/>
       <c r="Q185" s="4"/>
       <c r="R185" s="4"/>
-    </row>
-    <row r="186" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S185" s="4"/>
+      <c r="T185" s="4"/>
+      <c r="U185" s="4"/>
+      <c r="V185" s="4"/>
+    </row>
+    <row r="186" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -5945,8 +6711,12 @@
       <c r="P186" s="4"/>
       <c r="Q186" s="4"/>
       <c r="R186" s="4"/>
-    </row>
-    <row r="187" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S186" s="4"/>
+      <c r="T186" s="4"/>
+      <c r="U186" s="4"/>
+      <c r="V186" s="4"/>
+    </row>
+    <row r="187" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -5963,8 +6733,12 @@
       <c r="P187" s="4"/>
       <c r="Q187" s="4"/>
       <c r="R187" s="4"/>
-    </row>
-    <row r="188" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S187" s="4"/>
+      <c r="T187" s="4"/>
+      <c r="U187" s="4"/>
+      <c r="V187" s="4"/>
+    </row>
+    <row r="188" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -5981,8 +6755,12 @@
       <c r="P188" s="4"/>
       <c r="Q188" s="4"/>
       <c r="R188" s="4"/>
-    </row>
-    <row r="189" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S188" s="4"/>
+      <c r="T188" s="4"/>
+      <c r="U188" s="4"/>
+      <c r="V188" s="4"/>
+    </row>
+    <row r="189" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -5999,8 +6777,12 @@
       <c r="P189" s="4"/>
       <c r="Q189" s="4"/>
       <c r="R189" s="4"/>
-    </row>
-    <row r="190" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S189" s="4"/>
+      <c r="T189" s="4"/>
+      <c r="U189" s="4"/>
+      <c r="V189" s="4"/>
+    </row>
+    <row r="190" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -6017,8 +6799,12 @@
       <c r="P190" s="4"/>
       <c r="Q190" s="4"/>
       <c r="R190" s="4"/>
-    </row>
-    <row r="191" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S190" s="4"/>
+      <c r="T190" s="4"/>
+      <c r="U190" s="4"/>
+      <c r="V190" s="4"/>
+    </row>
+    <row r="191" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -6035,8 +6821,12 @@
       <c r="P191" s="4"/>
       <c r="Q191" s="4"/>
       <c r="R191" s="4"/>
-    </row>
-    <row r="192" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S191" s="4"/>
+      <c r="T191" s="4"/>
+      <c r="U191" s="4"/>
+      <c r="V191" s="4"/>
+    </row>
+    <row r="192" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -6053,8 +6843,12 @@
       <c r="P192" s="4"/>
       <c r="Q192" s="4"/>
       <c r="R192" s="4"/>
-    </row>
-    <row r="193" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S192" s="4"/>
+      <c r="T192" s="4"/>
+      <c r="U192" s="4"/>
+      <c r="V192" s="4"/>
+    </row>
+    <row r="193" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
@@ -6071,8 +6865,12 @@
       <c r="P193" s="4"/>
       <c r="Q193" s="4"/>
       <c r="R193" s="4"/>
-    </row>
-    <row r="194" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S193" s="4"/>
+      <c r="T193" s="4"/>
+      <c r="U193" s="4"/>
+      <c r="V193" s="4"/>
+    </row>
+    <row r="194" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -6089,8 +6887,12 @@
       <c r="P194" s="4"/>
       <c r="Q194" s="4"/>
       <c r="R194" s="4"/>
-    </row>
-    <row r="195" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S194" s="4"/>
+      <c r="T194" s="4"/>
+      <c r="U194" s="4"/>
+      <c r="V194" s="4"/>
+    </row>
+    <row r="195" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -6107,8 +6909,12 @@
       <c r="P195" s="4"/>
       <c r="Q195" s="4"/>
       <c r="R195" s="4"/>
-    </row>
-    <row r="196" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S195" s="4"/>
+      <c r="T195" s="4"/>
+      <c r="U195" s="4"/>
+      <c r="V195" s="4"/>
+    </row>
+    <row r="196" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -6125,8 +6931,12 @@
       <c r="P196" s="4"/>
       <c r="Q196" s="4"/>
       <c r="R196" s="4"/>
-    </row>
-    <row r="197" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S196" s="4"/>
+      <c r="T196" s="4"/>
+      <c r="U196" s="4"/>
+      <c r="V196" s="4"/>
+    </row>
+    <row r="197" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -6143,8 +6953,12 @@
       <c r="P197" s="4"/>
       <c r="Q197" s="4"/>
       <c r="R197" s="4"/>
-    </row>
-    <row r="198" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S197" s="4"/>
+      <c r="T197" s="4"/>
+      <c r="U197" s="4"/>
+      <c r="V197" s="4"/>
+    </row>
+    <row r="198" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -6161,8 +6975,12 @@
       <c r="P198" s="4"/>
       <c r="Q198" s="4"/>
       <c r="R198" s="4"/>
-    </row>
-    <row r="199" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S198" s="4"/>
+      <c r="T198" s="4"/>
+      <c r="U198" s="4"/>
+      <c r="V198" s="4"/>
+    </row>
+    <row r="199" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -6179,8 +6997,12 @@
       <c r="P199" s="4"/>
       <c r="Q199" s="4"/>
       <c r="R199" s="4"/>
-    </row>
-    <row r="200" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S199" s="4"/>
+      <c r="T199" s="4"/>
+      <c r="U199" s="4"/>
+      <c r="V199" s="4"/>
+    </row>
+    <row r="200" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -6197,8 +7019,12 @@
       <c r="P200" s="4"/>
       <c r="Q200" s="4"/>
       <c r="R200" s="4"/>
-    </row>
-    <row r="201" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S200" s="4"/>
+      <c r="T200" s="4"/>
+      <c r="U200" s="4"/>
+      <c r="V200" s="4"/>
+    </row>
+    <row r="201" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -6215,8 +7041,12 @@
       <c r="P201" s="4"/>
       <c r="Q201" s="4"/>
       <c r="R201" s="4"/>
-    </row>
-    <row r="202" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S201" s="4"/>
+      <c r="T201" s="4"/>
+      <c r="U201" s="4"/>
+      <c r="V201" s="4"/>
+    </row>
+    <row r="202" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -6233,8 +7063,12 @@
       <c r="P202" s="4"/>
       <c r="Q202" s="4"/>
       <c r="R202" s="4"/>
-    </row>
-    <row r="203" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S202" s="4"/>
+      <c r="T202" s="4"/>
+      <c r="U202" s="4"/>
+      <c r="V202" s="4"/>
+    </row>
+    <row r="203" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -6251,8 +7085,12 @@
       <c r="P203" s="4"/>
       <c r="Q203" s="4"/>
       <c r="R203" s="4"/>
-    </row>
-    <row r="204" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S203" s="4"/>
+      <c r="T203" s="4"/>
+      <c r="U203" s="4"/>
+      <c r="V203" s="4"/>
+    </row>
+    <row r="204" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -6269,8 +7107,12 @@
       <c r="P204" s="4"/>
       <c r="Q204" s="4"/>
       <c r="R204" s="4"/>
-    </row>
-    <row r="205" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S204" s="4"/>
+      <c r="T204" s="4"/>
+      <c r="U204" s="4"/>
+      <c r="V204" s="4"/>
+    </row>
+    <row r="205" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -6287,8 +7129,12 @@
       <c r="P205" s="4"/>
       <c r="Q205" s="4"/>
       <c r="R205" s="4"/>
-    </row>
-    <row r="206" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S205" s="4"/>
+      <c r="T205" s="4"/>
+      <c r="U205" s="4"/>
+      <c r="V205" s="4"/>
+    </row>
+    <row r="206" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -6305,8 +7151,12 @@
       <c r="P206" s="4"/>
       <c r="Q206" s="4"/>
       <c r="R206" s="4"/>
-    </row>
-    <row r="207" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S206" s="4"/>
+      <c r="T206" s="4"/>
+      <c r="U206" s="4"/>
+      <c r="V206" s="4"/>
+    </row>
+    <row r="207" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -6323,8 +7173,12 @@
       <c r="P207" s="4"/>
       <c r="Q207" s="4"/>
       <c r="R207" s="4"/>
-    </row>
-    <row r="208" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S207" s="4"/>
+      <c r="T207" s="4"/>
+      <c r="U207" s="4"/>
+      <c r="V207" s="4"/>
+    </row>
+    <row r="208" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
@@ -6341,8 +7195,12 @@
       <c r="P208" s="4"/>
       <c r="Q208" s="4"/>
       <c r="R208" s="4"/>
-    </row>
-    <row r="209" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S208" s="4"/>
+      <c r="T208" s="4"/>
+      <c r="U208" s="4"/>
+      <c r="V208" s="4"/>
+    </row>
+    <row r="209" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -6359,8 +7217,12 @@
       <c r="P209" s="4"/>
       <c r="Q209" s="4"/>
       <c r="R209" s="4"/>
-    </row>
-    <row r="210" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S209" s="4"/>
+      <c r="T209" s="4"/>
+      <c r="U209" s="4"/>
+      <c r="V209" s="4"/>
+    </row>
+    <row r="210" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -6377,8 +7239,12 @@
       <c r="P210" s="4"/>
       <c r="Q210" s="4"/>
       <c r="R210" s="4"/>
-    </row>
-    <row r="211" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S210" s="4"/>
+      <c r="T210" s="4"/>
+      <c r="U210" s="4"/>
+      <c r="V210" s="4"/>
+    </row>
+    <row r="211" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -6395,8 +7261,12 @@
       <c r="P211" s="4"/>
       <c r="Q211" s="4"/>
       <c r="R211" s="4"/>
-    </row>
-    <row r="212" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S211" s="4"/>
+      <c r="T211" s="4"/>
+      <c r="U211" s="4"/>
+      <c r="V211" s="4"/>
+    </row>
+    <row r="212" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -6413,8 +7283,12 @@
       <c r="P212" s="4"/>
       <c r="Q212" s="4"/>
       <c r="R212" s="4"/>
-    </row>
-    <row r="213" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S212" s="4"/>
+      <c r="T212" s="4"/>
+      <c r="U212" s="4"/>
+      <c r="V212" s="4"/>
+    </row>
+    <row r="213" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -6431,8 +7305,12 @@
       <c r="P213" s="4"/>
       <c r="Q213" s="4"/>
       <c r="R213" s="4"/>
-    </row>
-    <row r="214" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S213" s="4"/>
+      <c r="T213" s="4"/>
+      <c r="U213" s="4"/>
+      <c r="V213" s="4"/>
+    </row>
+    <row r="214" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -6449,8 +7327,12 @@
       <c r="P214" s="4"/>
       <c r="Q214" s="4"/>
       <c r="R214" s="4"/>
-    </row>
-    <row r="215" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S214" s="4"/>
+      <c r="T214" s="4"/>
+      <c r="U214" s="4"/>
+      <c r="V214" s="4"/>
+    </row>
+    <row r="215" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -6467,8 +7349,12 @@
       <c r="P215" s="4"/>
       <c r="Q215" s="4"/>
       <c r="R215" s="4"/>
-    </row>
-    <row r="216" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S215" s="4"/>
+      <c r="T215" s="4"/>
+      <c r="U215" s="4"/>
+      <c r="V215" s="4"/>
+    </row>
+    <row r="216" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -6485,8 +7371,12 @@
       <c r="P216" s="4"/>
       <c r="Q216" s="4"/>
       <c r="R216" s="4"/>
-    </row>
-    <row r="217" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S216" s="4"/>
+      <c r="T216" s="4"/>
+      <c r="U216" s="4"/>
+      <c r="V216" s="4"/>
+    </row>
+    <row r="217" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -6503,8 +7393,12 @@
       <c r="P217" s="4"/>
       <c r="Q217" s="4"/>
       <c r="R217" s="4"/>
-    </row>
-    <row r="218" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S217" s="4"/>
+      <c r="T217" s="4"/>
+      <c r="U217" s="4"/>
+      <c r="V217" s="4"/>
+    </row>
+    <row r="218" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -6521,8 +7415,12 @@
       <c r="P218" s="4"/>
       <c r="Q218" s="4"/>
       <c r="R218" s="4"/>
-    </row>
-    <row r="219" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S218" s="4"/>
+      <c r="T218" s="4"/>
+      <c r="U218" s="4"/>
+      <c r="V218" s="4"/>
+    </row>
+    <row r="219" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -6539,8 +7437,12 @@
       <c r="P219" s="4"/>
       <c r="Q219" s="4"/>
       <c r="R219" s="4"/>
-    </row>
-    <row r="220" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S219" s="4"/>
+      <c r="T219" s="4"/>
+      <c r="U219" s="4"/>
+      <c r="V219" s="4"/>
+    </row>
+    <row r="220" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -6557,8 +7459,12 @@
       <c r="P220" s="4"/>
       <c r="Q220" s="4"/>
       <c r="R220" s="4"/>
-    </row>
-    <row r="221" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S220" s="4"/>
+      <c r="T220" s="4"/>
+      <c r="U220" s="4"/>
+      <c r="V220" s="4"/>
+    </row>
+    <row r="221" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -6575,8 +7481,12 @@
       <c r="P221" s="4"/>
       <c r="Q221" s="4"/>
       <c r="R221" s="4"/>
-    </row>
-    <row r="222" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S221" s="4"/>
+      <c r="T221" s="4"/>
+      <c r="U221" s="4"/>
+      <c r="V221" s="4"/>
+    </row>
+    <row r="222" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -6593,8 +7503,12 @@
       <c r="P222" s="4"/>
       <c r="Q222" s="4"/>
       <c r="R222" s="4"/>
-    </row>
-    <row r="223" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S222" s="4"/>
+      <c r="T222" s="4"/>
+      <c r="U222" s="4"/>
+      <c r="V222" s="4"/>
+    </row>
+    <row r="223" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -6611,8 +7525,12 @@
       <c r="P223" s="4"/>
       <c r="Q223" s="4"/>
       <c r="R223" s="4"/>
-    </row>
-    <row r="224" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S223" s="4"/>
+      <c r="T223" s="4"/>
+      <c r="U223" s="4"/>
+      <c r="V223" s="4"/>
+    </row>
+    <row r="224" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -6629,8 +7547,12 @@
       <c r="P224" s="4"/>
       <c r="Q224" s="4"/>
       <c r="R224" s="4"/>
-    </row>
-    <row r="225" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S224" s="4"/>
+      <c r="T224" s="4"/>
+      <c r="U224" s="4"/>
+      <c r="V224" s="4"/>
+    </row>
+    <row r="225" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -6647,8 +7569,12 @@
       <c r="P225" s="4"/>
       <c r="Q225" s="4"/>
       <c r="R225" s="4"/>
-    </row>
-    <row r="226" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S225" s="4"/>
+      <c r="T225" s="4"/>
+      <c r="U225" s="4"/>
+      <c r="V225" s="4"/>
+    </row>
+    <row r="226" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -6665,8 +7591,12 @@
       <c r="P226" s="4"/>
       <c r="Q226" s="4"/>
       <c r="R226" s="4"/>
-    </row>
-    <row r="227" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S226" s="4"/>
+      <c r="T226" s="4"/>
+      <c r="U226" s="4"/>
+      <c r="V226" s="4"/>
+    </row>
+    <row r="227" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -6683,8 +7613,12 @@
       <c r="P227" s="4"/>
       <c r="Q227" s="4"/>
       <c r="R227" s="4"/>
-    </row>
-    <row r="228" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S227" s="4"/>
+      <c r="T227" s="4"/>
+      <c r="U227" s="4"/>
+      <c r="V227" s="4"/>
+    </row>
+    <row r="228" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -6701,8 +7635,12 @@
       <c r="P228" s="4"/>
       <c r="Q228" s="4"/>
       <c r="R228" s="4"/>
-    </row>
-    <row r="229" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S228" s="4"/>
+      <c r="T228" s="4"/>
+      <c r="U228" s="4"/>
+      <c r="V228" s="4"/>
+    </row>
+    <row r="229" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -6719,8 +7657,12 @@
       <c r="P229" s="4"/>
       <c r="Q229" s="4"/>
       <c r="R229" s="4"/>
-    </row>
-    <row r="230" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S229" s="4"/>
+      <c r="T229" s="4"/>
+      <c r="U229" s="4"/>
+      <c r="V229" s="4"/>
+    </row>
+    <row r="230" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -6737,8 +7679,12 @@
       <c r="P230" s="4"/>
       <c r="Q230" s="4"/>
       <c r="R230" s="4"/>
-    </row>
-    <row r="231" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S230" s="4"/>
+      <c r="T230" s="4"/>
+      <c r="U230" s="4"/>
+      <c r="V230" s="4"/>
+    </row>
+    <row r="231" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -6755,8 +7701,12 @@
       <c r="P231" s="4"/>
       <c r="Q231" s="4"/>
       <c r="R231" s="4"/>
-    </row>
-    <row r="232" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S231" s="4"/>
+      <c r="T231" s="4"/>
+      <c r="U231" s="4"/>
+      <c r="V231" s="4"/>
+    </row>
+    <row r="232" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -6773,8 +7723,12 @@
       <c r="P232" s="4"/>
       <c r="Q232" s="4"/>
       <c r="R232" s="4"/>
-    </row>
-    <row r="233" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S232" s="4"/>
+      <c r="T232" s="4"/>
+      <c r="U232" s="4"/>
+      <c r="V232" s="4"/>
+    </row>
+    <row r="233" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -6791,8 +7745,12 @@
       <c r="P233" s="4"/>
       <c r="Q233" s="4"/>
       <c r="R233" s="4"/>
-    </row>
-    <row r="234" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S233" s="4"/>
+      <c r="T233" s="4"/>
+      <c r="U233" s="4"/>
+      <c r="V233" s="4"/>
+    </row>
+    <row r="234" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -6809,8 +7767,12 @@
       <c r="P234" s="4"/>
       <c r="Q234" s="4"/>
       <c r="R234" s="4"/>
-    </row>
-    <row r="235" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S234" s="4"/>
+      <c r="T234" s="4"/>
+      <c r="U234" s="4"/>
+      <c r="V234" s="4"/>
+    </row>
+    <row r="235" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -6827,8 +7789,12 @@
       <c r="P235" s="4"/>
       <c r="Q235" s="4"/>
       <c r="R235" s="4"/>
-    </row>
-    <row r="236" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S235" s="4"/>
+      <c r="T235" s="4"/>
+      <c r="U235" s="4"/>
+      <c r="V235" s="4"/>
+    </row>
+    <row r="236" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -6845,8 +7811,12 @@
       <c r="P236" s="4"/>
       <c r="Q236" s="4"/>
       <c r="R236" s="4"/>
-    </row>
-    <row r="237" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S236" s="4"/>
+      <c r="T236" s="4"/>
+      <c r="U236" s="4"/>
+      <c r="V236" s="4"/>
+    </row>
+    <row r="237" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -6863,8 +7833,12 @@
       <c r="P237" s="4"/>
       <c r="Q237" s="4"/>
       <c r="R237" s="4"/>
-    </row>
-    <row r="238" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S237" s="4"/>
+      <c r="T237" s="4"/>
+      <c r="U237" s="4"/>
+      <c r="V237" s="4"/>
+    </row>
+    <row r="238" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -6881,8 +7855,12 @@
       <c r="P238" s="4"/>
       <c r="Q238" s="4"/>
       <c r="R238" s="4"/>
-    </row>
-    <row r="239" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S238" s="4"/>
+      <c r="T238" s="4"/>
+      <c r="U238" s="4"/>
+      <c r="V238" s="4"/>
+    </row>
+    <row r="239" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -6899,8 +7877,12 @@
       <c r="P239" s="4"/>
       <c r="Q239" s="4"/>
       <c r="R239" s="4"/>
-    </row>
-    <row r="240" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S239" s="4"/>
+      <c r="T239" s="4"/>
+      <c r="U239" s="4"/>
+      <c r="V239" s="4"/>
+    </row>
+    <row r="240" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -6917,8 +7899,12 @@
       <c r="P240" s="4"/>
       <c r="Q240" s="4"/>
       <c r="R240" s="4"/>
-    </row>
-    <row r="241" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S240" s="4"/>
+      <c r="T240" s="4"/>
+      <c r="U240" s="4"/>
+      <c r="V240" s="4"/>
+    </row>
+    <row r="241" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -6935,8 +7921,12 @@
       <c r="P241" s="4"/>
       <c r="Q241" s="4"/>
       <c r="R241" s="4"/>
-    </row>
-    <row r="242" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S241" s="4"/>
+      <c r="T241" s="4"/>
+      <c r="U241" s="4"/>
+      <c r="V241" s="4"/>
+    </row>
+    <row r="242" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -6953,8 +7943,12 @@
       <c r="P242" s="4"/>
       <c r="Q242" s="4"/>
       <c r="R242" s="4"/>
-    </row>
-    <row r="243" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S242" s="4"/>
+      <c r="T242" s="4"/>
+      <c r="U242" s="4"/>
+      <c r="V242" s="4"/>
+    </row>
+    <row r="243" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -6971,8 +7965,12 @@
       <c r="P243" s="4"/>
       <c r="Q243" s="4"/>
       <c r="R243" s="4"/>
-    </row>
-    <row r="244" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S243" s="4"/>
+      <c r="T243" s="4"/>
+      <c r="U243" s="4"/>
+      <c r="V243" s="4"/>
+    </row>
+    <row r="244" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
@@ -6989,8 +7987,12 @@
       <c r="P244" s="4"/>
       <c r="Q244" s="4"/>
       <c r="R244" s="4"/>
-    </row>
-    <row r="245" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S244" s="4"/>
+      <c r="T244" s="4"/>
+      <c r="U244" s="4"/>
+      <c r="V244" s="4"/>
+    </row>
+    <row r="245" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
@@ -7007,8 +8009,12 @@
       <c r="P245" s="4"/>
       <c r="Q245" s="4"/>
       <c r="R245" s="4"/>
-    </row>
-    <row r="246" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S245" s="4"/>
+      <c r="T245" s="4"/>
+      <c r="U245" s="4"/>
+      <c r="V245" s="4"/>
+    </row>
+    <row r="246" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
@@ -7025,8 +8031,12 @@
       <c r="P246" s="4"/>
       <c r="Q246" s="4"/>
       <c r="R246" s="4"/>
-    </row>
-    <row r="247" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S246" s="4"/>
+      <c r="T246" s="4"/>
+      <c r="U246" s="4"/>
+      <c r="V246" s="4"/>
+    </row>
+    <row r="247" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -7043,8 +8053,12 @@
       <c r="P247" s="4"/>
       <c r="Q247" s="4"/>
       <c r="R247" s="4"/>
-    </row>
-    <row r="248" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S247" s="4"/>
+      <c r="T247" s="4"/>
+      <c r="U247" s="4"/>
+      <c r="V247" s="4"/>
+    </row>
+    <row r="248" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
@@ -7061,8 +8075,12 @@
       <c r="P248" s="4"/>
       <c r="Q248" s="4"/>
       <c r="R248" s="4"/>
-    </row>
-    <row r="249" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S248" s="4"/>
+      <c r="T248" s="4"/>
+      <c r="U248" s="4"/>
+      <c r="V248" s="4"/>
+    </row>
+    <row r="249" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
@@ -7079,8 +8097,12 @@
       <c r="P249" s="4"/>
       <c r="Q249" s="4"/>
       <c r="R249" s="4"/>
-    </row>
-    <row r="250" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S249" s="4"/>
+      <c r="T249" s="4"/>
+      <c r="U249" s="4"/>
+      <c r="V249" s="4"/>
+    </row>
+    <row r="250" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
@@ -7097,8 +8119,12 @@
       <c r="P250" s="4"/>
       <c r="Q250" s="4"/>
       <c r="R250" s="4"/>
-    </row>
-    <row r="251" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S250" s="4"/>
+      <c r="T250" s="4"/>
+      <c r="U250" s="4"/>
+      <c r="V250" s="4"/>
+    </row>
+    <row r="251" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -7115,8 +8141,12 @@
       <c r="P251" s="4"/>
       <c r="Q251" s="4"/>
       <c r="R251" s="4"/>
-    </row>
-    <row r="252" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S251" s="4"/>
+      <c r="T251" s="4"/>
+      <c r="U251" s="4"/>
+      <c r="V251" s="4"/>
+    </row>
+    <row r="252" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
@@ -7133,8 +8163,12 @@
       <c r="P252" s="4"/>
       <c r="Q252" s="4"/>
       <c r="R252" s="4"/>
-    </row>
-    <row r="253" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S252" s="4"/>
+      <c r="T252" s="4"/>
+      <c r="U252" s="4"/>
+      <c r="V252" s="4"/>
+    </row>
+    <row r="253" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
@@ -7151,8 +8185,12 @@
       <c r="P253" s="4"/>
       <c r="Q253" s="4"/>
       <c r="R253" s="4"/>
-    </row>
-    <row r="254" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S253" s="4"/>
+      <c r="T253" s="4"/>
+      <c r="U253" s="4"/>
+      <c r="V253" s="4"/>
+    </row>
+    <row r="254" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
@@ -7169,8 +8207,12 @@
       <c r="P254" s="4"/>
       <c r="Q254" s="4"/>
       <c r="R254" s="4"/>
-    </row>
-    <row r="255" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S254" s="4"/>
+      <c r="T254" s="4"/>
+      <c r="U254" s="4"/>
+      <c r="V254" s="4"/>
+    </row>
+    <row r="255" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
@@ -7187,8 +8229,12 @@
       <c r="P255" s="4"/>
       <c r="Q255" s="4"/>
       <c r="R255" s="4"/>
-    </row>
-    <row r="256" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S255" s="4"/>
+      <c r="T255" s="4"/>
+      <c r="U255" s="4"/>
+      <c r="V255" s="4"/>
+    </row>
+    <row r="256" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
@@ -7205,8 +8251,12 @@
       <c r="P256" s="4"/>
       <c r="Q256" s="4"/>
       <c r="R256" s="4"/>
-    </row>
-    <row r="257" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S256" s="4"/>
+      <c r="T256" s="4"/>
+      <c r="U256" s="4"/>
+      <c r="V256" s="4"/>
+    </row>
+    <row r="257" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -7223,8 +8273,12 @@
       <c r="P257" s="4"/>
       <c r="Q257" s="4"/>
       <c r="R257" s="4"/>
-    </row>
-    <row r="258" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S257" s="4"/>
+      <c r="T257" s="4"/>
+      <c r="U257" s="4"/>
+      <c r="V257" s="4"/>
+    </row>
+    <row r="258" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
@@ -7241,8 +8295,12 @@
       <c r="P258" s="4"/>
       <c r="Q258" s="4"/>
       <c r="R258" s="4"/>
-    </row>
-    <row r="259" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S258" s="4"/>
+      <c r="T258" s="4"/>
+      <c r="U258" s="4"/>
+      <c r="V258" s="4"/>
+    </row>
+    <row r="259" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
@@ -7259,8 +8317,12 @@
       <c r="P259" s="4"/>
       <c r="Q259" s="4"/>
       <c r="R259" s="4"/>
-    </row>
-    <row r="260" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S259" s="4"/>
+      <c r="T259" s="4"/>
+      <c r="U259" s="4"/>
+      <c r="V259" s="4"/>
+    </row>
+    <row r="260" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
@@ -7277,8 +8339,12 @@
       <c r="P260" s="4"/>
       <c r="Q260" s="4"/>
       <c r="R260" s="4"/>
-    </row>
-    <row r="261" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S260" s="4"/>
+      <c r="T260" s="4"/>
+      <c r="U260" s="4"/>
+      <c r="V260" s="4"/>
+    </row>
+    <row r="261" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
@@ -7295,8 +8361,12 @@
       <c r="P261" s="4"/>
       <c r="Q261" s="4"/>
       <c r="R261" s="4"/>
-    </row>
-    <row r="262" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S261" s="4"/>
+      <c r="T261" s="4"/>
+      <c r="U261" s="4"/>
+      <c r="V261" s="4"/>
+    </row>
+    <row r="262" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
@@ -7313,8 +8383,12 @@
       <c r="P262" s="4"/>
       <c r="Q262" s="4"/>
       <c r="R262" s="4"/>
-    </row>
-    <row r="263" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S262" s="4"/>
+      <c r="T262" s="4"/>
+      <c r="U262" s="4"/>
+      <c r="V262" s="4"/>
+    </row>
+    <row r="263" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
@@ -7331,8 +8405,12 @@
       <c r="P263" s="4"/>
       <c r="Q263" s="4"/>
       <c r="R263" s="4"/>
-    </row>
-    <row r="264" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S263" s="4"/>
+      <c r="T263" s="4"/>
+      <c r="U263" s="4"/>
+      <c r="V263" s="4"/>
+    </row>
+    <row r="264" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
@@ -7349,8 +8427,12 @@
       <c r="P264" s="4"/>
       <c r="Q264" s="4"/>
       <c r="R264" s="4"/>
-    </row>
-    <row r="265" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S264" s="4"/>
+      <c r="T264" s="4"/>
+      <c r="U264" s="4"/>
+      <c r="V264" s="4"/>
+    </row>
+    <row r="265" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
@@ -7367,8 +8449,12 @@
       <c r="P265" s="4"/>
       <c r="Q265" s="4"/>
       <c r="R265" s="4"/>
-    </row>
-    <row r="266" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S265" s="4"/>
+      <c r="T265" s="4"/>
+      <c r="U265" s="4"/>
+      <c r="V265" s="4"/>
+    </row>
+    <row r="266" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
@@ -7385,8 +8471,12 @@
       <c r="P266" s="4"/>
       <c r="Q266" s="4"/>
       <c r="R266" s="4"/>
-    </row>
-    <row r="267" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S266" s="4"/>
+      <c r="T266" s="4"/>
+      <c r="U266" s="4"/>
+      <c r="V266" s="4"/>
+    </row>
+    <row r="267" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
@@ -7403,6 +8493,10 @@
       <c r="P267" s="4"/>
       <c r="Q267" s="4"/>
       <c r="R267" s="4"/>
+      <c r="S267" s="4"/>
+      <c r="T267" s="4"/>
+      <c r="U267" s="4"/>
+      <c r="V267" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/ADS.xlsx
+++ b/ADS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A42CF14-2DDB-4470-BD46-3E3013F26700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86A1441-DC22-409B-8915-6D476F06DAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{5CA27069-BA8E-4704-98A3-1B68BB8C6A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{5CA27069-BA8E-4704-98A3-1B68BB8C6A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -189,9 +189,6 @@
     <t>IR</t>
   </si>
   <si>
-    <t>ADS</t>
-  </si>
-  <si>
     <t>Concept Stores</t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>Q425</t>
+  </si>
+  <si>
+    <t>ADS.DE</t>
   </si>
 </sst>
 </file>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010FB125-5721-48E0-B2EE-531517EC3DD6}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>201.7</v>
+        <v>168.1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>178.54908399999999</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -739,12 +739,12 @@
       </c>
       <c r="I4" s="6">
         <f>I2*I3</f>
-        <v>36013.350242799999</v>
+        <v>30014.101020399998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -753,7 +753,7 @@
         <v>2455</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -765,7 +765,7 @@
         <v>2485</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -774,25 +774,25 @@
       </c>
       <c r="I7" s="6">
         <f>I4-I5+I6</f>
-        <v>36043.350242799999</v>
+        <v>30044.101020399998</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="Investors " xr:uid="{42EB71BD-2A6A-4C2A-A8AD-49D079DBEB14}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{42EB71BD-2A6A-4C2A-A8AD-49D079DBEB14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -802,7 +802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8AFDA6-8DF7-49F6-9902-DB49A0E15CEA}">
   <dimension ref="A1:AC267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -846,16 +846,16 @@
         <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
@@ -882,7 +882,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="9">
         <v>809</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="9">
         <v>997</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" ref="C5:J5" si="0">+C3+C4</f>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="9">
         <v>1509</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="9">
         <v>1177</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="9">
         <v>884</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="9">
         <v>672</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="9">
         <v>3023</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="9">
         <v>1911</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="9">
         <v>340</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>

--- a/ADS.xlsx
+++ b/ADS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86A1441-DC22-409B-8915-6D476F06DAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792EDFD8-B536-4772-94BE-9D6B1DB7498E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{5CA27069-BA8E-4704-98A3-1B68BB8C6A2D}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{5CA27069-BA8E-4704-98A3-1B68BB8C6A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -341,7 +341,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -355,6 +355,8 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -694,7 +696,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>168.1</v>
+        <v>166.9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -727,7 +729,7 @@
         <v>178.54908399999999</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -739,7 +741,7 @@
       </c>
       <c r="I4" s="6">
         <f>I2*I3</f>
-        <v>30014.101020399998</v>
+        <v>29799.842119599998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -750,10 +752,11 @@
         <v>4</v>
       </c>
       <c r="I5" s="6">
-        <v>2455</v>
+        <f>768+761</f>
+        <v>1529</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -761,11 +764,11 @@
         <v>5</v>
       </c>
       <c r="I6" s="6">
-        <f>570+1915</f>
-        <v>2485</v>
+        <f>705+419+1907+69</f>
+        <v>3100</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -774,7 +777,7 @@
       </c>
       <c r="I7" s="6">
         <f>I4-I5+I6</f>
-        <v>30044.101020399998</v>
+        <v>31370.842119599998</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -803,10 +806,10 @@
   <dimension ref="A1:AC267"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,8 +911,12 @@
       <c r="J3" s="9">
         <v>838</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="K3" s="9">
+        <v>836</v>
+      </c>
+      <c r="L3" s="9">
+        <v>844</v>
+      </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
@@ -958,8 +965,12 @@
       <c r="J4" s="9">
         <v>1095</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="K4" s="9">
+        <v>1097</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1098</v>
+      </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
@@ -981,72 +992,84 @@
       <c r="AA4" s="9"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="9">
-        <f t="shared" ref="C5:J5" si="0">+C3+C4</f>
+      <c r="C5" s="8">
+        <f t="shared" ref="C5:K5" si="0">+C3+C4</f>
         <v>1806</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
         <v>1868</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <f t="shared" si="0"/>
         <v>1890</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>1863</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <f t="shared" si="0"/>
         <v>1867</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <f t="shared" si="0"/>
         <v>1868</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <f t="shared" si="0"/>
         <v>1901</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <f t="shared" si="0"/>
         <v>1933</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9">
-        <f t="shared" ref="P5:V5" si="1">+P3+P4</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="9">
+      <c r="K5" s="8">
+        <f>+K3+K4</f>
+        <v>1933</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" ref="L5:N5" si="1">+L3+L4</f>
+        <v>1942</v>
+      </c>
+      <c r="M5" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R5" s="9">
+      <c r="N5" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S5" s="9">
-        <f t="shared" si="1"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="8">
+        <f t="shared" ref="P5:V5" si="2">+P3+P4</f>
         <v>0</v>
       </c>
-      <c r="T5" s="9">
-        <f t="shared" si="1"/>
+      <c r="Q5" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U5" s="9">
-        <f t="shared" si="1"/>
+      <c r="R5" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="8">
+        <f t="shared" si="2"/>
         <v>1863</v>
       </c>
-      <c r="V5" s="9">
-        <f t="shared" si="1"/>
+      <c r="V5" s="8">
+        <f t="shared" si="2"/>
         <v>1933</v>
       </c>
       <c r="W5" s="9"/>
@@ -1112,8 +1135,12 @@
       <c r="J7" s="9">
         <v>1754</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="K7" s="9">
+        <v>1986</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1997</v>
+      </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -1164,8 +1191,12 @@
       <c r="J8" s="9">
         <v>1342</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="K8" s="9">
+        <v>1184</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1339</v>
+      </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1216,8 +1247,12 @@
       <c r="J9" s="9">
         <v>794</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="K9" s="9">
+        <v>1029</v>
+      </c>
+      <c r="L9" s="9">
+        <v>798</v>
+      </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -1268,8 +1303,12 @@
       <c r="J10" s="9">
         <v>940</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="K10" s="9">
+        <v>1954</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1818</v>
+      </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -1320,8 +1359,12 @@
       <c r="J11" s="9">
         <v>3390</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="K11" s="9">
+        <v>3760</v>
+      </c>
+      <c r="L11" s="9">
+        <v>2476</v>
+      </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -1372,8 +1415,12 @@
       <c r="J12" s="9">
         <v>2194</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="K12" s="9">
+        <v>1968</v>
+      </c>
+      <c r="L12" s="9">
+        <v>2029</v>
+      </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -1424,8 +1471,12 @@
       <c r="J13" s="9">
         <v>380</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="K13" s="9">
+        <v>424</v>
+      </c>
+      <c r="L13" s="9">
+        <v>447</v>
+      </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -1479,7 +1530,9 @@
       <c r="K14" s="8">
         <v>6153</v>
       </c>
-      <c r="L14" s="8"/>
+      <c r="L14" s="8">
+        <v>5952</v>
+      </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
@@ -1542,7 +1595,9 @@
       <c r="K15" s="9">
         <v>2948</v>
       </c>
-      <c r="L15" s="9"/>
+      <c r="L15" s="9">
+        <v>2875</v>
+      </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
@@ -1579,63 +1634,66 @@
         <v>25</v>
       </c>
       <c r="C16" s="9">
-        <f t="shared" ref="C16" si="2">C14-C15</f>
+        <f t="shared" ref="C16" si="3">C14-C15</f>
         <v>2363</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" ref="D16" si="3">D14-D15</f>
+        <f t="shared" ref="D16" si="4">D14-D15</f>
         <v>2718</v>
       </c>
       <c r="E16" s="9">
-        <f t="shared" ref="E16" si="4">E14-E15</f>
+        <f t="shared" ref="E16" si="5">E14-E15</f>
         <v>2955</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" ref="F16" si="5">F14-F15</f>
+        <f t="shared" ref="F16" si="6">F14-F15</f>
         <v>2148</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" ref="G16" si="6">G14-G15</f>
+        <f t="shared" ref="G16" si="7">G14-G15</f>
         <v>2796</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" ref="H16" si="7">H14-H15</f>
+        <f t="shared" ref="H16" si="8">H14-H15</f>
         <v>2959</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" ref="I16" si="8">I14-I15</f>
+        <f t="shared" ref="I16" si="9">I14-I15</f>
         <v>3301</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" ref="J16:K16" si="9">J14-J15</f>
+        <f t="shared" ref="J16:L16" si="10">J14-J15</f>
         <v>2970</v>
       </c>
       <c r="K16" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3205</v>
       </c>
-      <c r="L16" s="9"/>
+      <c r="L16" s="9">
+        <f t="shared" si="10"/>
+        <v>3077</v>
+      </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9">
-        <f t="shared" ref="P16:T16" si="10">P14-P15</f>
+        <f t="shared" ref="P16:T16" si="11">P14-P15</f>
         <v>11363</v>
       </c>
       <c r="Q16" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12293</v>
       </c>
       <c r="R16" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9222</v>
       </c>
       <c r="S16" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10765</v>
       </c>
       <c r="T16" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10644</v>
       </c>
       <c r="U16" s="9">
@@ -1684,7 +1742,9 @@
       <c r="K17" s="9">
         <v>19</v>
       </c>
-      <c r="L17" s="9"/>
+      <c r="L17" s="9">
+        <v>18</v>
+      </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -1747,7 +1807,9 @@
       <c r="K18" s="9">
         <v>1</v>
       </c>
-      <c r="L18" s="9"/>
+      <c r="L18" s="9">
+        <v>1</v>
+      </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -1810,7 +1872,9 @@
       <c r="K19" s="9">
         <v>746</v>
       </c>
-      <c r="L19" s="9"/>
+      <c r="L19" s="9">
+        <v>712</v>
+      </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -1871,8 +1935,12 @@
       <c r="J20" s="9">
         <v>2992</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="K20" s="9">
+        <v>1870</v>
+      </c>
+      <c r="L20" s="9">
+        <v>1837</v>
+      </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -1933,8 +2001,12 @@
       <c r="J21" s="9">
         <v>0</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="K21" s="9">
+        <v>2615</v>
+      </c>
+      <c r="L21" s="9">
+        <v>2549</v>
+      </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -1995,8 +2067,12 @@
       <c r="J22" s="9">
         <v>0</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -2040,19 +2116,19 @@
         <v>31</v>
       </c>
       <c r="C23" s="9">
-        <f t="shared" ref="C23:F23" si="11">C16+C17+C18-C19-C20</f>
+        <f t="shared" ref="C23:F23" si="12">C16+C17+C18-C19-C20</f>
         <v>60</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>175</v>
       </c>
       <c r="E23" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>410</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-376</v>
       </c>
       <c r="G23" s="9">
@@ -2060,40 +2136,46 @@
         <v>336</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" ref="H23:J23" si="12">H16+H17+H18-H19-H20</f>
+        <f t="shared" ref="H23:L23" si="13">H16+H17+H18-H19-H20</f>
         <v>347</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>596</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>57</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="K23" s="9">
+        <f t="shared" si="13"/>
+        <v>609</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="13"/>
+        <v>547</v>
+      </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9">
-        <f t="shared" ref="P23:T23" si="13">P16+P17+P18-SUM(P19:P22)</f>
+        <f t="shared" ref="P23:T23" si="14">P16+P17+P18-SUM(P19:P22)</f>
         <v>2367</v>
       </c>
       <c r="Q23" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2660</v>
       </c>
       <c r="R23" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>745</v>
       </c>
       <c r="S23" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1987</v>
       </c>
       <c r="T23" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>669</v>
       </c>
       <c r="U23" s="9">
@@ -2139,8 +2221,12 @@
       <c r="J24" s="9">
         <v>30</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="K24" s="9">
+        <v>34</v>
+      </c>
+      <c r="L24" s="9">
+        <v>9</v>
+      </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -2200,8 +2286,12 @@
       <c r="J25" s="9">
         <v>115</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
+      <c r="K25" s="9">
+        <v>59</v>
+      </c>
+      <c r="L25" s="9">
+        <v>67</v>
+      </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -2238,60 +2328,66 @@
         <v>35</v>
       </c>
       <c r="C26" s="9">
-        <f t="shared" ref="C26" si="14">C23+C24-C25</f>
+        <f t="shared" ref="C26" si="15">C23+C24-C25</f>
         <v>32</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" ref="D26" si="15">D23+D24-D25</f>
+        <f t="shared" ref="D26" si="16">D23+D24-D25</f>
         <v>123</v>
       </c>
       <c r="E26" s="9">
-        <f t="shared" ref="E26" si="16">E23+E24-E25</f>
+        <f t="shared" ref="E26" si="17">E23+E24-E25</f>
         <v>326</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" ref="F26" si="17">F23+F24-F25</f>
+        <f t="shared" ref="F26" si="18">F23+F24-F25</f>
         <v>-414</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" ref="G26" si="18">G23+G24-G25</f>
+        <f t="shared" ref="G26" si="19">G23+G24-G25</f>
         <v>245</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" ref="H26" si="19">H23+H24-H25</f>
+        <f t="shared" ref="H26" si="20">H23+H24-H25</f>
         <v>305</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" ref="I26" si="20">I23+I24-I25</f>
+        <f t="shared" ref="I26" si="21">I23+I24-I25</f>
         <v>600</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" ref="J26" si="21">J23+J24-J25</f>
+        <f t="shared" ref="J26:L26" si="22">J23+J24-J25</f>
         <v>-28</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="K26" s="9">
+        <f t="shared" si="22"/>
+        <v>584</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" si="22"/>
+        <v>489</v>
+      </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9">
-        <f t="shared" ref="P26:T26" si="22">P23+P24-P25</f>
+        <f t="shared" ref="P26:T26" si="23">P23+P24-P25</f>
         <v>2377</v>
       </c>
       <c r="Q26" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2558</v>
       </c>
       <c r="R26" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>578</v>
       </c>
       <c r="S26" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1853</v>
       </c>
       <c r="T26" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>388</v>
       </c>
       <c r="U26" s="9">
@@ -2337,8 +2433,12 @@
       <c r="J27" s="9">
         <v>-2</v>
       </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="K27" s="9">
+        <v>149</v>
+      </c>
+      <c r="L27" s="9">
+        <v>114</v>
+      </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
@@ -2375,60 +2475,66 @@
         <v>38</v>
       </c>
       <c r="C28" s="9">
-        <f t="shared" ref="C28" si="23">C26-C27</f>
+        <f t="shared" ref="C28" si="24">C26-C27</f>
         <v>-23</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" ref="D28" si="24">D26-D27</f>
+        <f t="shared" ref="D28" si="25">D26-D27</f>
         <v>96</v>
       </c>
       <c r="E28" s="9">
-        <f t="shared" ref="E28" si="25">E26-E27</f>
+        <f t="shared" ref="E28" si="26">E26-E27</f>
         <v>271</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" ref="F28" si="26">F26-F27</f>
+        <f t="shared" ref="F28" si="27">F26-F27</f>
         <v>-400</v>
       </c>
       <c r="G28" s="9">
-        <f t="shared" ref="G28" si="27">G26-G27</f>
+        <f t="shared" ref="G28" si="28">G26-G27</f>
         <v>171</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" ref="H28" si="28">H26-H27</f>
+        <f t="shared" ref="H28" si="29">H26-H27</f>
         <v>212</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" ref="I28" si="29">I26-I27</f>
+        <f t="shared" ref="I28" si="30">I26-I27</f>
         <v>467</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" ref="J28" si="30">J26-J27</f>
+        <f t="shared" ref="J28:L28" si="31">J26-J27</f>
         <v>-26</v>
       </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="K28" s="9">
+        <f t="shared" si="31"/>
+        <v>435</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="31"/>
+        <v>375</v>
+      </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9">
-        <f t="shared" ref="P28:T28" si="31">P26-P27</f>
+        <f t="shared" ref="P28:T28" si="32">P26-P27</f>
         <v>1708</v>
       </c>
       <c r="Q28" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1918</v>
       </c>
       <c r="R28" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>461</v>
       </c>
       <c r="S28" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1493</v>
       </c>
       <c r="T28" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>254</v>
       </c>
       <c r="U28" s="9">
@@ -2474,8 +2580,12 @@
       <c r="J29" s="9">
         <v>7</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="K29" s="9">
+        <v>-7</v>
+      </c>
+      <c r="L29" s="9">
+        <v>6</v>
+      </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
@@ -2512,60 +2622,66 @@
         <v>37</v>
       </c>
       <c r="C30" s="9">
-        <f t="shared" ref="C30" si="32">C28+C29</f>
+        <f t="shared" ref="C30" si="33">C28+C29</f>
         <v>-29</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" ref="D30" si="33">D28+D29</f>
+        <f t="shared" ref="D30" si="34">D28+D29</f>
         <v>95</v>
       </c>
       <c r="E30" s="9">
-        <f t="shared" ref="E30" si="34">E28+E29</f>
+        <f t="shared" ref="E30" si="35">E28+E29</f>
         <v>281</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" ref="F30" si="35">F28+F29</f>
+        <f t="shared" ref="F30" si="36">F28+F29</f>
         <v>-358</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" ref="G30" si="36">G28+G29</f>
+        <f t="shared" ref="G30" si="37">G28+G29</f>
         <v>170</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" ref="H30" si="37">H28+H29</f>
+        <f t="shared" ref="H30" si="38">H28+H29</f>
         <v>206</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" ref="I30" si="38">I28+I29</f>
+        <f t="shared" ref="I30" si="39">I28+I29</f>
         <v>474</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" ref="J30" si="39">J28+J29</f>
+        <f t="shared" ref="J30:L30" si="40">J28+J29</f>
         <v>-19</v>
       </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="K30" s="9">
+        <f t="shared" si="40"/>
+        <v>428</v>
+      </c>
+      <c r="L30" s="9">
+        <f t="shared" si="40"/>
+        <v>381</v>
+      </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9">
-        <f t="shared" ref="P30:T30" si="40">P28+P29</f>
+        <f t="shared" ref="P30:T30" si="41">P28+P29</f>
         <v>1703</v>
       </c>
       <c r="Q30" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1977</v>
       </c>
       <c r="R30" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>442</v>
       </c>
       <c r="S30" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2159</v>
       </c>
       <c r="T30" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>638</v>
       </c>
       <c r="U30" s="9">
@@ -2611,8 +2727,12 @@
       <c r="J31" s="9">
         <v>-39</v>
       </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
+      <c r="K31" s="9">
+        <v>1</v>
+      </c>
+      <c r="L31" s="9">
+        <v>11</v>
+      </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
@@ -2649,23 +2769,23 @@
         <v>41</v>
       </c>
       <c r="C32" s="9">
-        <f t="shared" ref="C32" si="41">C30-C31</f>
+        <f t="shared" ref="C32" si="42">C30-C31</f>
         <v>-38</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" ref="D32" si="42">D30-D31</f>
+        <f t="shared" ref="D32" si="43">D30-D31</f>
         <v>84</v>
       </c>
       <c r="E32" s="9">
-        <f t="shared" ref="E32" si="43">E30-E31</f>
+        <f t="shared" ref="E32" si="44">E30-E31</f>
         <v>260</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" ref="F32" si="44">F30-F31</f>
+        <f t="shared" ref="F32" si="45">F30-F31</f>
         <v>21</v>
       </c>
       <c r="G32" s="9">
-        <f t="shared" ref="G32" si="45">G30-G31</f>
+        <f t="shared" ref="G32" si="46">G30-G31</f>
         <v>170</v>
       </c>
       <c r="H32" s="9">
@@ -2673,36 +2793,42 @@
         <v>190</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" ref="I32:J32" si="46">I30-I31</f>
+        <f t="shared" ref="I32:L32" si="47">I30-I31</f>
         <v>441</v>
       </c>
       <c r="J32" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>20</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="K32" s="9">
+        <f t="shared" si="47"/>
+        <v>427</v>
+      </c>
+      <c r="L32" s="9">
+        <f t="shared" si="47"/>
+        <v>370</v>
+      </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9">
-        <f t="shared" ref="P32:T32" si="47">P30-P31</f>
+        <f t="shared" ref="P32:T32" si="48">P30-P31</f>
         <v>1700</v>
       </c>
       <c r="Q32" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1975</v>
       </c>
       <c r="R32" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>431</v>
       </c>
       <c r="S32" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2117</v>
       </c>
       <c r="T32" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>612</v>
       </c>
       <c r="U32" s="9">
@@ -2776,8 +2902,14 @@
         <f>+J32/J35</f>
         <v>0.11201401626905014</v>
       </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+      <c r="K34" s="4">
+        <f t="shared" ref="K34:L34" si="49">+K32/K35</f>
+        <v>2.3914992473442207</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="49"/>
+        <v>2.0722209435125509</v>
+      </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -2810,59 +2942,63 @@
         <v>47</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" ref="C35:I35" si="48">C32/C34</f>
+        <f t="shared" ref="C35:I35" si="50">C32/C34</f>
         <v>172.72727272727272</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>178.72340425531917</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>185.71428571428572</v>
       </c>
       <c r="F35" s="4" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>177.08333333333334</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>174.31192660550457</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>177.82258064516128</v>
       </c>
       <c r="J35" s="4">
         <v>178.54908399999999</v>
       </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
+      <c r="K35" s="4">
+        <v>178.54908399999999</v>
+      </c>
+      <c r="L35" s="4">
+        <v>178.55238900000001</v>
+      </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4">
-        <f t="shared" ref="P35:T35" si="49">P32/P34</f>
+        <f t="shared" ref="P35:T35" si="51">P32/P34</f>
         <v>201.4218009478673</v>
       </c>
       <c r="Q35" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>197.5</v>
       </c>
       <c r="R35" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>186.58008658008657</v>
       </c>
       <c r="S35" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>283.40026773761713</v>
       </c>
       <c r="T35" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>489.6</v>
       </c>
       <c r="U35" s="4">
@@ -2903,45 +3039,57 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="5">
-        <f t="shared" ref="G37:I38" si="50">+G3/C3-1</f>
+        <f t="shared" ref="G37:I38" si="52">+G3/C3-1</f>
         <v>1.4833127317676054E-2</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>3.5220125786163514E-2</v>
       </c>
       <c r="J37" s="5">
         <f>+J3/F3-1</f>
         <v>7.2115384615385469E-3</v>
       </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="K37" s="5">
+        <f t="shared" ref="K37:N38" si="53">+K3/G3-1</f>
+        <v>1.8270401948842885E-2</v>
+      </c>
+      <c r="L37" s="5">
+        <f t="shared" si="53"/>
+        <v>4.7146401985111552E-2</v>
+      </c>
+      <c r="M37" s="5">
+        <f t="shared" si="53"/>
+        <v>-1</v>
+      </c>
+      <c r="N37" s="5">
+        <f t="shared" si="53"/>
+        <v>-1</v>
+      </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="5" t="e">
-        <f t="shared" ref="Q37:U37" si="51">+Q3/P3-1</f>
+        <f t="shared" ref="Q37:U37" si="54">+Q3/P3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R37" s="5" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S37" s="5" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T37" s="5" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U37" s="5" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V37" s="5">
@@ -2958,45 +3106,57 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>4.9147442326980872E-2</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>-1.5525114155251152E-2</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" ref="J38" si="52">+J4/F4-1</f>
+        <f t="shared" ref="J38" si="55">+J4/F4-1</f>
         <v>6.2075654704170757E-2</v>
       </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+      <c r="K38" s="5">
+        <f t="shared" si="53"/>
+        <v>4.8757170172084141E-2</v>
+      </c>
+      <c r="L38" s="5">
+        <f t="shared" si="53"/>
+        <v>3.3898305084745672E-2</v>
+      </c>
+      <c r="M38" s="5">
+        <f t="shared" si="53"/>
+        <v>-1</v>
+      </c>
+      <c r="N38" s="5">
+        <f t="shared" si="53"/>
+        <v>-1</v>
+      </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="5" t="e">
-        <f t="shared" ref="Q38:U38" si="53">+Q4/P4-1</f>
+        <f t="shared" ref="Q38:U38" si="56">+Q4/P4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R38" s="5" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S38" s="5" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T38" s="5" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U38" s="5" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V38" s="5">
@@ -3013,45 +3173,57 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="5">
-        <f t="shared" ref="G39:I45" si="54">+G7/C7-1</f>
+        <f t="shared" ref="G39:I45" si="57">+G7/C7-1</f>
         <v>0.14844267726971494</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.20100502512562812</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.18763796909492281</v>
       </c>
       <c r="J39" s="5">
         <f>+J7/F7-1</f>
         <v>0.26277897768178549</v>
       </c>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
+      <c r="K39" s="5">
+        <f t="shared" ref="K39:N45" si="58">+K7/G7-1</f>
+        <v>0.14598961338718985</v>
+      </c>
+      <c r="L39" s="5">
+        <f t="shared" si="58"/>
+        <v>4.4456066945606665E-2</v>
+      </c>
+      <c r="M39" s="5">
+        <f t="shared" si="58"/>
+        <v>-1</v>
+      </c>
+      <c r="N39" s="5">
+        <f t="shared" si="58"/>
+        <v>-1</v>
+      </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="5" t="e">
-        <f t="shared" ref="Q39:U45" si="55">+Q7/P7-1</f>
+        <f t="shared" ref="Q39:U45" si="59">+Q7/P7-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R39" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S39" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T39" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U39" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V39" s="5">
@@ -3068,49 +3240,61 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>-4.6728971962616828E-2</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>-6.9335239456754794E-2</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>-8.2210242587601123E-2</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" ref="J40:J45" si="56">+J8/F8-1</f>
+        <f t="shared" ref="J40:J45" si="60">+J8/F8-1</f>
         <v>0.15789473684210531</v>
       </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
+      <c r="K40" s="5">
+        <f t="shared" si="58"/>
+        <v>5.525846702317283E-2</v>
+      </c>
+      <c r="L40" s="5">
+        <f t="shared" si="58"/>
+        <v>2.8417818740399392E-2</v>
+      </c>
+      <c r="M40" s="5">
+        <f t="shared" si="58"/>
+        <v>-1</v>
+      </c>
+      <c r="N40" s="5">
+        <f t="shared" si="58"/>
+        <v>-1</v>
+      </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R40" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S40" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T40" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U40" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V40" s="5">
-        <f t="shared" ref="V40:V45" si="57">+V8/U8-1</f>
+        <f t="shared" ref="V40:V45" si="61">+V8/U8-1</f>
         <v>-1.7436290477102934E-2</v>
       </c>
     </row>
@@ -3123,49 +3307,61 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>1.4705882352941124E-2</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>7.3107049608355013E-2</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>8.7356321839080486E-2</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.18507462686567155</v>
       </c>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
+      <c r="K41" s="5">
+        <f t="shared" si="58"/>
+        <v>0.14715719063545141</v>
+      </c>
+      <c r="L41" s="5">
+        <f t="shared" si="58"/>
+        <v>-2.9197080291970767E-2</v>
+      </c>
+      <c r="M41" s="5">
+        <f t="shared" si="58"/>
+        <v>-1</v>
+      </c>
+      <c r="N41" s="5">
+        <f t="shared" si="58"/>
+        <v>-1</v>
+      </c>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R41" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S41" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T41" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U41" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V41" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>8.4326018808777325E-2</v>
       </c>
     </row>
@@ -3178,49 +3374,61 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>5.9523809523809534E-2</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.24833333333333329</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>9.1127098321343025E-2</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.26344086021505375</v>
       </c>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
+      <c r="K42" s="5">
+        <f t="shared" si="58"/>
+        <v>1.74438202247191</v>
+      </c>
+      <c r="L42" s="5">
+        <f t="shared" si="58"/>
+        <v>1.4272363150867822</v>
+      </c>
+      <c r="M42" s="5">
+        <f t="shared" si="58"/>
+        <v>-1</v>
+      </c>
+      <c r="N42" s="5">
+        <f t="shared" si="58"/>
+        <v>-1</v>
+      </c>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R42" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S42" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T42" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U42" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0.16140350877192988</v>
       </c>
     </row>
@@ -3233,49 +3441,61 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>7.1452199801521621E-2</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.15183752417794971</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.10289389067524124</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.3356973995271868</v>
       </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
+      <c r="K43" s="5">
+        <f t="shared" si="58"/>
+        <v>0.16085211485026241</v>
+      </c>
+      <c r="L43" s="5">
+        <f t="shared" si="58"/>
+        <v>-0.30702490904002244</v>
+      </c>
+      <c r="M43" s="5">
+        <f t="shared" si="58"/>
+        <v>-1</v>
+      </c>
+      <c r="N43" s="5">
+        <f t="shared" si="58"/>
+        <v>-1</v>
+      </c>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R43" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S43" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T43" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U43" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V43" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0.15658362989323837</v>
       </c>
     </row>
@@ -3288,49 +3508,61 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>-1.3605442176870763E-2</v>
       </c>
       <c r="H44" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>3.0501089324618702E-2</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>2.6051188299817118E-2</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.10140562248995977</v>
       </c>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
+      <c r="K44" s="5">
+        <f t="shared" si="58"/>
+        <v>4.403183023872681E-2</v>
+      </c>
+      <c r="L44" s="5">
+        <f t="shared" si="58"/>
+        <v>7.2410147991543328E-2</v>
+      </c>
+      <c r="M44" s="5">
+        <f t="shared" si="58"/>
+        <v>-1</v>
+      </c>
+      <c r="N44" s="5">
+        <f t="shared" si="58"/>
+        <v>-1</v>
+      </c>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R44" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S44" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T44" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U44" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V44" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>4.5824847250509171E-2</v>
       </c>
     </row>
@@ -3343,96 +3575,120 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>-3.5294117647058809E-2</v>
       </c>
       <c r="H45" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>-8.6419753086419804E-2</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>7.9487179487179427E-2</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>7.9545454545454586E-2</v>
       </c>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
+      <c r="K45" s="5">
+        <f t="shared" si="58"/>
+        <v>0.29268292682926833</v>
+      </c>
+      <c r="L45" s="5">
+        <f t="shared" si="58"/>
+        <v>0.2081081081081082</v>
+      </c>
+      <c r="M45" s="5">
+        <f t="shared" si="58"/>
+        <v>-1</v>
+      </c>
+      <c r="N45" s="5">
+        <f t="shared" si="58"/>
+        <v>-1</v>
+      </c>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R45" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S45" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T45" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U45" s="5" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V45" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>7.3924731182795078E-3</v>
       </c>
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="5">
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="12">
         <f>G14/C14-1</f>
         <v>3.4888130451270483E-2</v>
       </c>
-      <c r="H46" s="5">
-        <f t="shared" ref="H46:J46" si="58">H14/D14-1</f>
+      <c r="H46" s="12">
+        <f t="shared" ref="H46:J46" si="62">H14/D14-1</f>
         <v>8.9650009358038574E-2</v>
       </c>
-      <c r="I46" s="5">
-        <f t="shared" si="58"/>
+      <c r="I46" s="12">
+        <f t="shared" si="62"/>
         <v>7.3178863143857242E-2</v>
       </c>
-      <c r="J46" s="5">
-        <f t="shared" si="58"/>
+      <c r="J46" s="12">
+        <f t="shared" si="62"/>
         <v>0.23960931005818797</v>
       </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
+      <c r="K46" s="12">
+        <f t="shared" ref="K46" si="63">K14/G14-1</f>
+        <v>0.1273360205203371</v>
+      </c>
+      <c r="L46" s="12">
+        <f t="shared" ref="L46" si="64">L14/H14-1</f>
+        <v>2.2329096530401937E-2</v>
+      </c>
+      <c r="M46" s="12">
+        <f t="shared" ref="M46" si="65">M14/I14-1</f>
+        <v>-1</v>
+      </c>
+      <c r="N46" s="12">
+        <f t="shared" ref="N46" si="66">N14/J14-1</f>
+        <v>-1</v>
+      </c>
       <c r="O46" s="4"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5">
-        <f t="shared" ref="Q46:T46" si="59">Q14/P14-1</f>
+        <f t="shared" ref="Q46:T46" si="67">Q14/P14-1</f>
         <v>7.8713210130047839E-2</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>-0.22017766497461932</v>
       </c>
       <c r="S46" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>0.15183075671277457</v>
       </c>
       <c r="T46" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>6.0139399076952094E-2</v>
       </c>
       <c r="U46" s="5">
@@ -3449,23 +3705,23 @@
         <v>43</v>
       </c>
       <c r="C47" s="5">
-        <f t="shared" ref="C47:G47" si="60">C16/C14</f>
+        <f t="shared" ref="C47:G47" si="68">C16/C14</f>
         <v>0.44804702313234734</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>0.50870297585626056</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>0.49258209701616934</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>0.44638403990024939</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>0.51227555881275189</v>
       </c>
       <c r="H47" s="5">
@@ -3473,36 +3729,48 @@
         <v>0.50824458948814843</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" ref="I47:J47" si="61">I16/I14</f>
+        <f t="shared" ref="I47:J47" si="69">I16/I14</f>
         <v>0.51273687480584029</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>0.49790444258172672</v>
       </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
+      <c r="K47" s="5">
+        <f t="shared" ref="K47:N47" si="70">K16/K14</f>
+        <v>0.52088412156671537</v>
+      </c>
+      <c r="L47" s="5">
+        <f t="shared" si="70"/>
+        <v>0.51696908602150538</v>
+      </c>
+      <c r="M47" s="5" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N47" s="5" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O47" s="4"/>
       <c r="P47" s="5">
-        <f t="shared" ref="P47:T47" si="62">P16/P14</f>
+        <f t="shared" ref="P47:T47" si="71">P16/P14</f>
         <v>0.51850330823636781</v>
       </c>
       <c r="Q47" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="71"/>
         <v>0.52000846023688663</v>
       </c>
       <c r="R47" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="71"/>
         <v>0.50024410089503657</v>
       </c>
       <c r="S47" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="71"/>
         <v>0.50696995384760291</v>
       </c>
       <c r="T47" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="71"/>
         <v>0.47283550264315222</v>
       </c>
       <c r="U47" s="5">
@@ -3519,23 +3787,23 @@
         <v>44</v>
       </c>
       <c r="C48" s="5">
-        <f t="shared" ref="C48:G48" si="63">C23/C14</f>
+        <f t="shared" ref="C48:G48" si="72">C23/C14</f>
         <v>1.1376564277588168E-2</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>3.2753134942915964E-2</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>6.8344724120686776E-2</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>-7.813798836242726E-2</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>6.1561011359472333E-2</v>
       </c>
       <c r="H48" s="5">
@@ -3543,36 +3811,48 @@
         <v>5.960151150807283E-2</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" ref="I48:J48" si="64">I23/I14</f>
+        <f t="shared" ref="I48:J48" si="73">I23/I14</f>
         <v>9.2575333954644304E-2</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>9.5557418273260683E-3</v>
       </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
+      <c r="K48" s="5">
+        <f t="shared" ref="K48:N48" si="74">K23/K14</f>
+        <v>9.8976109215017066E-2</v>
+      </c>
+      <c r="L48" s="5">
+        <f t="shared" si="74"/>
+        <v>9.1901881720430109E-2</v>
+      </c>
+      <c r="M48" s="5" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N48" s="5" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O48" s="4"/>
       <c r="P48" s="5">
-        <f t="shared" ref="P48:T48" si="65">P23/P14</f>
+        <f t="shared" ref="P48:T48" si="75">P23/P14</f>
         <v>0.1080082135523614</v>
       </c>
       <c r="Q48" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0.11252115059221658</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>4.0412259289395173E-2</v>
       </c>
       <c r="S48" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>9.3576339832344355E-2</v>
       </c>
       <c r="T48" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.9718804140198125E-2</v>
       </c>
       <c r="U48" s="5">
@@ -3589,23 +3869,23 @@
         <v>46</v>
       </c>
       <c r="C49" s="5">
-        <f t="shared" ref="C49:G49" si="66">C32/C14</f>
+        <f t="shared" ref="C49:G49" si="76">C32/C14</f>
         <v>-7.2051573758058398E-3</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>1.5721504772599662E-2</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>4.3340556759459907E-2</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>4.3640897755610969E-3</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>3.1146940271161598E-2</v>
       </c>
       <c r="H49" s="5">
@@ -3613,36 +3893,48 @@
         <v>3.2634833390587425E-2</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" ref="I49:J49" si="67">I32/I14</f>
+        <f t="shared" ref="I49:J49" si="77">I32/I14</f>
         <v>6.8499534016775401E-2</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>3.3528918692372171E-3</v>
       </c>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
+      <c r="K49" s="5">
+        <f t="shared" ref="K49:N49" si="78">K32/K14</f>
+        <v>6.9397042093287828E-2</v>
+      </c>
+      <c r="L49" s="5">
+        <f t="shared" si="78"/>
+        <v>6.2163978494623656E-2</v>
+      </c>
+      <c r="M49" s="5" t="e">
+        <f t="shared" si="78"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N49" s="5" t="e">
+        <f t="shared" si="78"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O49" s="4"/>
       <c r="P49" s="5">
-        <f t="shared" ref="P49:T49" si="68">P32/P14</f>
+        <f t="shared" ref="P49:T49" si="79">P32/P14</f>
         <v>7.7572438968742871E-2</v>
       </c>
       <c r="Q49" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>8.3544839255499159E-2</v>
       </c>
       <c r="R49" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>2.3379441280173583E-2</v>
       </c>
       <c r="S49" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>9.9698596590373931E-2</v>
       </c>
       <c r="T49" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>2.7186708720181245E-2</v>
       </c>
       <c r="U49" s="5">
@@ -3659,23 +3951,23 @@
         <v>45</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" ref="C50:G50" si="69">C27/C26</f>
+        <f t="shared" ref="C50:G50" si="80">C27/C26</f>
         <v>1.71875</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0.21951219512195122</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0.16871165644171779</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>3.3816425120772944E-2</v>
       </c>
       <c r="G50" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0.30204081632653063</v>
       </c>
       <c r="H50" s="5">
@@ -3683,36 +3975,48 @@
         <v>0.30491803278688523</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" ref="I50:J50" si="70">I27/I26</f>
+        <f t="shared" ref="I50:J50" si="81">I27/I26</f>
         <v>0.22166666666666668</v>
       </c>
       <c r="J50" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
+      <c r="K50" s="5">
+        <f t="shared" ref="K50:N50" si="82">K27/K26</f>
+        <v>0.25513698630136988</v>
+      </c>
+      <c r="L50" s="5">
+        <f t="shared" si="82"/>
+        <v>0.23312883435582821</v>
+      </c>
+      <c r="M50" s="5" t="e">
+        <f t="shared" si="82"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N50" s="5" t="e">
+        <f t="shared" si="82"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O50" s="4"/>
       <c r="P50" s="5">
-        <f t="shared" ref="P50:T50" si="71">P27/P26</f>
+        <f t="shared" ref="P50:T50" si="83">P27/P26</f>
         <v>0.28144720235591081</v>
       </c>
       <c r="Q50" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>0.2501954652071931</v>
       </c>
       <c r="R50" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>0.20242214532871972</v>
       </c>
       <c r="S50" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>0.19427954668105774</v>
       </c>
       <c r="T50" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>0.34536082474226804</v>
       </c>
       <c r="U50" s="5">

--- a/ADS.xlsx
+++ b/ADS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792EDFD8-B536-4772-94BE-9D6B1DB7498E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7A0847-FD09-4FA7-B563-CDCB64FDB88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{5CA27069-BA8E-4704-98A3-1B68BB8C6A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{5CA27069-BA8E-4704-98A3-1B68BB8C6A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,12 +288,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -311,12 +309,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -341,22 +352,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -693,16 +705,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010FB125-5721-48E0-B2EE-531517EC3DD6}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:BA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="7"/>
+    <col min="1" max="1" width="3.5703125" style="2" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="53" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -711,85 +725,85 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>166.9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I3" s="4">
         <v>178.54908399999999</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <f>I2*I3</f>
         <v>29799.842119599998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <f>768+761</f>
         <v>1529</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="7">
         <f>705+419+1907+69</f>
         <v>3100</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="7">
         <f>I4-I5+I6</f>
         <v>31370.842119599998</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -805,2078 +819,2079 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8AFDA6-8DF7-49F6-9902-DB49A0E15CEA}">
   <dimension ref="A1:AC267"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>809</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>806</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>795</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>832</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>821</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>806</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>823</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>838</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>836</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>844</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9">
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8">
         <v>832</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="8">
         <v>838</v>
       </c>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>997</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>1062</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>1095</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>1031</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>1046</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>1062</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>1078</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>1095</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>1097</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>1098</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9">
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8">
         <v>1031</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="8">
         <v>1095</v>
       </c>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="8">
-        <f t="shared" ref="C5:K5" si="0">+C3+C4</f>
+      <c r="C5" s="9">
+        <f t="shared" ref="C5:J5" si="0">+C3+C4</f>
         <v>1806</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>1868</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>1890</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
         <v>1863</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
         <v>1867</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="9">
         <f t="shared" si="0"/>
         <v>1868</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="9">
         <f t="shared" si="0"/>
         <v>1901</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="9">
         <f t="shared" si="0"/>
         <v>1933</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="9">
         <f>+K3+K4</f>
         <v>1933</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="9">
         <f t="shared" ref="L5:N5" si="1">+L3+L4</f>
         <v>1942</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="8">
+      <c r="O5" s="8"/>
+      <c r="P5" s="9">
         <f t="shared" ref="P5:V5" si="2">+P3+P4</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="9">
         <f t="shared" si="2"/>
         <v>1863</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="9">
         <f t="shared" si="2"/>
         <v>1933</v>
       </c>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>1509</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>1592</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>1812</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>1389</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>1733</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>1912</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>2152</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>1754</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>1986</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>1997</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9">
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8">
         <v>6302</v>
       </c>
-      <c r="V7" s="9">
+      <c r="V7" s="8">
         <v>7551</v>
       </c>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>1177</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>1399</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>1484</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>1159</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>1122</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>1302</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>1362</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>1342</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>1184</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>1339</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9">
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8">
         <v>5219</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="8">
         <v>5128</v>
       </c>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>884</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>766</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>870</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>670</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>897</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>822</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>946</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>794</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>1029</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>798</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9">
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8">
         <v>3190</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="8">
         <v>3459</v>
       </c>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>672</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>600</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>834</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>744</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>712</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>749</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>910</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>940</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>1954</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>1818</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9">
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8">
         <v>2850</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="8">
         <v>3310</v>
       </c>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>3023</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>3102</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>3421</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>2538</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>3239</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>3573</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>3773</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>3390</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>3760</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <v>2476</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9">
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8">
         <v>12083</v>
       </c>
-      <c r="V11" s="9">
+      <c r="V11" s="8">
         <v>13975</v>
       </c>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>1911</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>1836</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>2188</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>1992</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>1885</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>1892</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>2245</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>2194</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>1968</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <v>2029</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9">
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8">
         <v>7856</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="8">
         <v>8216</v>
       </c>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>340</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>405</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>390</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>352</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>328</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>370</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>421</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>380</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <v>424</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="8">
         <v>447</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9">
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8">
         <v>1488</v>
       </c>
-      <c r="V13" s="9">
+      <c r="V13" s="8">
         <v>1499</v>
       </c>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>5274</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <v>5343</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="9">
         <v>5999</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="9">
         <v>4812</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="9">
         <v>5458</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="9">
         <v>5822</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="9">
         <v>6438</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="9">
         <v>5965</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="9">
         <v>6153</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="9">
         <v>5952</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8">
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9">
         <v>21915</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="9">
         <v>23640</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="9">
         <v>18435</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="9">
         <v>21234</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T14" s="9">
         <v>22511</v>
       </c>
-      <c r="U14" s="8">
+      <c r="U14" s="9">
         <v>21427</v>
       </c>
-      <c r="V14" s="8">
+      <c r="V14" s="9">
         <v>23683</v>
       </c>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>2911</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>2625</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>3044</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>2664</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>2662</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>2863</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>3137</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <v>2995</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <v>2948</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <v>2875</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9">
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8">
         <v>10552</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="8">
         <v>11347</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="8">
         <v>9213</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="8">
         <v>10469</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="8">
         <v>11867</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U15" s="8">
         <v>11244</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V15" s="8">
         <v>11658</v>
       </c>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <f t="shared" ref="C16" si="3">C14-C15</f>
         <v>2363</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <f t="shared" ref="D16" si="4">D14-D15</f>
         <v>2718</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <f t="shared" ref="E16" si="5">E14-E15</f>
         <v>2955</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <f t="shared" ref="F16" si="6">F14-F15</f>
         <v>2148</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <f t="shared" ref="G16" si="7">G14-G15</f>
         <v>2796</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <f t="shared" ref="H16" si="8">H14-H15</f>
         <v>2959</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <f t="shared" ref="I16" si="9">I14-I15</f>
         <v>3301</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <f t="shared" ref="J16:L16" si="10">J14-J15</f>
         <v>2970</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <f t="shared" si="10"/>
         <v>3205</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="8">
         <f t="shared" si="10"/>
         <v>3077</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9">
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8">
         <f t="shared" ref="P16:T16" si="11">P14-P15</f>
         <v>11363</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="8">
         <f t="shared" si="11"/>
         <v>12293</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="8">
         <f t="shared" si="11"/>
         <v>9222</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="8">
         <f t="shared" si="11"/>
         <v>10765</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="8">
         <f t="shared" si="11"/>
         <v>10644</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U16" s="8">
         <f>U14-U15</f>
         <v>10183</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V16" s="8">
         <f>V14-V15</f>
         <v>12025</v>
       </c>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>25</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>21</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>20</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>17</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>17</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>19</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>20</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>26</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <v>19</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="8">
         <v>18</v>
       </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9">
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8">
         <v>129</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="8">
         <v>154</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="8">
         <v>61</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="8">
         <v>86</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="8">
         <v>112</v>
       </c>
-      <c r="U17" s="9">
+      <c r="U17" s="8">
         <v>83</v>
       </c>
-      <c r="V17" s="9">
+      <c r="V17" s="8">
         <v>81</v>
       </c>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>39</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>18</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>5</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>10</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>2</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>6</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>113</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <v>53</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>1</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="8">
         <v>1</v>
       </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9">
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8">
         <v>48</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="8">
         <v>56</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="8">
         <v>42</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="8">
         <v>28</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="8">
         <v>173</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U18" s="8">
         <v>71</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V18" s="8">
         <v>174</v>
       </c>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>601</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>617</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>644</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>0</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>657</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>707</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>724</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>0</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <v>746</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <v>712</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9">
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8">
         <v>3001</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="Q19" s="8">
         <v>3042</v>
       </c>
-      <c r="R19" s="9">
+      <c r="R19" s="8">
         <v>2373</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S19" s="8">
         <v>2547</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T19" s="8">
         <v>2763</v>
       </c>
-      <c r="U19" s="9">
+      <c r="U19" s="8">
         <v>2528</v>
       </c>
-      <c r="V19" s="9">
+      <c r="V19" s="8">
         <f>+SUM(G19:J19)</f>
         <v>2088</v>
       </c>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>1766</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>1965</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>1926</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>2551</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>1822</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>1930</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>2114</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <v>2992</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <v>1870</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="8">
         <v>1837</v>
       </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9">
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8">
         <v>4450</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="8">
         <v>4997</v>
       </c>
-      <c r="R20" s="9">
+      <c r="R20" s="8">
         <v>4601</v>
       </c>
-      <c r="S20" s="9">
+      <c r="S20" s="8">
         <v>4782</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T20" s="8">
         <v>5601</v>
       </c>
-      <c r="U20" s="9">
+      <c r="U20" s="8">
         <v>5547</v>
       </c>
-      <c r="V20" s="9">
+      <c r="V20" s="8">
         <f>+SUM(G20:J20)</f>
         <v>8858</v>
       </c>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>0</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>0</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>0</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>0</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>0</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <v>0</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>2615</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>2549</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9">
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8">
         <v>1576</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="8">
         <v>1652</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R21" s="8">
         <v>1379</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S21" s="8">
         <v>1481</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="8">
         <v>1651</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="8">
         <v>1839</v>
       </c>
-      <c r="V21" s="9">
+      <c r="V21" s="8">
         <f>+SUM(G21:J21)</f>
         <v>0</v>
       </c>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>0</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>0</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>0</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>0</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>0</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>0</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>0</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <v>0</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <v>0</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <v>0</v>
       </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9">
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8">
         <f>105+41</f>
         <v>146</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q22" s="8">
         <f>134+18</f>
         <v>152</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R22" s="8">
         <f>116+111</f>
         <v>227</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S22" s="8">
         <f>76+6</f>
         <v>82</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="8">
         <f>182+63</f>
         <v>245</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22" s="8">
         <f>137+19</f>
         <v>156</v>
       </c>
-      <c r="V22" s="9">
+      <c r="V22" s="8">
         <f>+SUM(G22:J22)</f>
         <v>0</v>
       </c>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <f t="shared" ref="C23:F23" si="12">C16+C17+C18-C19-C20</f>
         <v>60</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <f t="shared" si="12"/>
         <v>175</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <f t="shared" si="12"/>
         <v>410</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <f t="shared" si="12"/>
         <v>-376</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <f>G16+G17+G18-G19-G20</f>
         <v>336</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <f t="shared" ref="H23:L23" si="13">H16+H17+H18-H19-H20</f>
         <v>347</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <f t="shared" si="13"/>
         <v>596</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <f t="shared" si="13"/>
         <v>57</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="8">
         <f t="shared" si="13"/>
         <v>609</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="8">
         <f t="shared" si="13"/>
         <v>547</v>
       </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9">
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8">
         <f t="shared" ref="P23:T23" si="14">P16+P17+P18-SUM(P19:P22)</f>
         <v>2367</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="Q23" s="8">
         <f t="shared" si="14"/>
         <v>2660</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R23" s="8">
         <f t="shared" si="14"/>
         <v>745</v>
       </c>
-      <c r="S23" s="9">
+      <c r="S23" s="8">
         <f t="shared" si="14"/>
         <v>1987</v>
       </c>
-      <c r="T23" s="9">
+      <c r="T23" s="8">
         <f t="shared" si="14"/>
         <v>669</v>
       </c>
-      <c r="U23" s="9">
+      <c r="U23" s="8">
         <f>U16+U17+U18-SUM(U19:U22)</f>
         <v>267</v>
       </c>
-      <c r="V23" s="9">
+      <c r="V23" s="8">
         <f>V16+V17+V18-SUM(V19:V22)</f>
         <v>1334</v>
       </c>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>13</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>19</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>31</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>25</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>24</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>20</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>29</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <v>30</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <v>34</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="8">
         <v>9</v>
       </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9">
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8">
         <v>57</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="Q24" s="8">
         <v>64</v>
       </c>
-      <c r="R24" s="9">
+      <c r="R24" s="8">
         <v>29</v>
       </c>
-      <c r="S24" s="9">
+      <c r="S24" s="8">
         <v>19</v>
       </c>
-      <c r="T24" s="9">
+      <c r="T24" s="8">
         <v>39</v>
       </c>
-      <c r="U24" s="9">
+      <c r="U24" s="8">
         <v>79</v>
       </c>
-      <c r="V24" s="9">
+      <c r="V24" s="8">
         <v>101</v>
       </c>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>41</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>71</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>115</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>63</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>115</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>62</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>25</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <v>115</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="8">
         <v>59</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="8">
         <v>67</v>
       </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9">
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8">
         <v>47</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="Q25" s="8">
         <v>166</v>
       </c>
-      <c r="R25" s="9">
+      <c r="R25" s="8">
         <v>196</v>
       </c>
-      <c r="S25" s="9">
+      <c r="S25" s="8">
         <v>153</v>
       </c>
-      <c r="T25" s="9">
+      <c r="T25" s="8">
         <v>320</v>
       </c>
-      <c r="U25" s="9">
+      <c r="U25" s="8">
         <v>282</v>
       </c>
-      <c r="V25" s="9">
+      <c r="V25" s="8">
         <v>317</v>
       </c>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <f t="shared" ref="C26" si="15">C23+C24-C25</f>
         <v>32</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <f t="shared" ref="D26" si="16">D23+D24-D25</f>
         <v>123</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <f t="shared" ref="E26" si="17">E23+E24-E25</f>
         <v>326</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <f t="shared" ref="F26" si="18">F23+F24-F25</f>
         <v>-414</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <f t="shared" ref="G26" si="19">G23+G24-G25</f>
         <v>245</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <f t="shared" ref="H26" si="20">H23+H24-H25</f>
         <v>305</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <f t="shared" ref="I26" si="21">I23+I24-I25</f>
         <v>600</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="8">
         <f t="shared" ref="J26:L26" si="22">J23+J24-J25</f>
         <v>-28</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="8">
         <f t="shared" si="22"/>
         <v>584</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="8">
         <f t="shared" si="22"/>
         <v>489</v>
       </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9">
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8">
         <f t="shared" ref="P26:T26" si="23">P23+P24-P25</f>
         <v>2377</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="Q26" s="8">
         <f t="shared" si="23"/>
         <v>2558</v>
       </c>
-      <c r="R26" s="9">
+      <c r="R26" s="8">
         <f t="shared" si="23"/>
         <v>578</v>
       </c>
-      <c r="S26" s="9">
+      <c r="S26" s="8">
         <f t="shared" si="23"/>
         <v>1853</v>
       </c>
-      <c r="T26" s="9">
+      <c r="T26" s="8">
         <f t="shared" si="23"/>
         <v>388</v>
       </c>
-      <c r="U26" s="9">
+      <c r="U26" s="8">
         <f>U23+U24-U25</f>
         <v>64</v>
       </c>
-      <c r="V26" s="9">
+      <c r="V26" s="8">
         <f>+SUM(G26:J26)</f>
         <v>1122</v>
       </c>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>55</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>27</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>55</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>-14</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>74</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="8">
         <v>93</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <v>133</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="8">
         <v>-2</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="8">
         <v>149</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="8">
         <v>114</v>
       </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9">
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8">
         <v>669</v>
       </c>
-      <c r="Q27" s="9">
+      <c r="Q27" s="8">
         <v>640</v>
       </c>
-      <c r="R27" s="9">
+      <c r="R27" s="8">
         <v>117</v>
       </c>
-      <c r="S27" s="9">
+      <c r="S27" s="8">
         <v>360</v>
       </c>
-      <c r="T27" s="9">
+      <c r="T27" s="8">
         <v>134</v>
       </c>
-      <c r="U27" s="9">
+      <c r="U27" s="8">
         <v>124</v>
       </c>
-      <c r="V27" s="9">
+      <c r="V27" s="8">
         <v>297</v>
       </c>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <f t="shared" ref="C28" si="24">C26-C27</f>
         <v>-23</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <f t="shared" ref="D28" si="25">D26-D27</f>
         <v>96</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <f t="shared" ref="E28" si="26">E26-E27</f>
         <v>271</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <f t="shared" ref="F28" si="27">F26-F27</f>
         <v>-400</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <f t="shared" ref="G28" si="28">G26-G27</f>
         <v>171</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <f t="shared" ref="H28" si="29">H26-H27</f>
         <v>212</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <f t="shared" ref="I28" si="30">I26-I27</f>
         <v>467</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="8">
         <f t="shared" ref="J28:L28" si="31">J26-J27</f>
         <v>-26</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="8">
         <f t="shared" si="31"/>
         <v>435</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="8">
         <f t="shared" si="31"/>
         <v>375</v>
       </c>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9">
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8">
         <f t="shared" ref="P28:T28" si="32">P26-P27</f>
         <v>1708</v>
       </c>
-      <c r="Q28" s="9">
+      <c r="Q28" s="8">
         <f t="shared" si="32"/>
         <v>1918</v>
       </c>
-      <c r="R28" s="9">
+      <c r="R28" s="8">
         <f t="shared" si="32"/>
         <v>461</v>
       </c>
-      <c r="S28" s="9">
+      <c r="S28" s="8">
         <f t="shared" si="32"/>
         <v>1493</v>
       </c>
-      <c r="T28" s="9">
+      <c r="T28" s="8">
         <f t="shared" si="32"/>
         <v>254</v>
       </c>
-      <c r="U28" s="9">
+      <c r="U28" s="8">
         <f>U26-U27</f>
         <v>-60</v>
       </c>
-      <c r="V28" s="9">
+      <c r="V28" s="8">
         <f>V26-V27</f>
         <v>825</v>
       </c>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>-6</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>-1</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>10</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <v>42</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>-1</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="8">
         <v>-6</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <v>7</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="8">
         <v>7</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="8">
         <v>-7</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="8">
         <v>6</v>
       </c>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9">
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8">
         <v>-5</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="Q29" s="8">
         <v>59</v>
       </c>
-      <c r="R29" s="9">
+      <c r="R29" s="8">
         <v>-19</v>
       </c>
-      <c r="S29" s="9">
+      <c r="S29" s="8">
         <v>666</v>
       </c>
-      <c r="T29" s="9">
+      <c r="T29" s="8">
         <v>384</v>
       </c>
-      <c r="U29" s="9">
+      <c r="U29" s="8">
         <v>44</v>
       </c>
-      <c r="V29" s="9">
+      <c r="V29" s="8">
         <v>8</v>
       </c>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <f t="shared" ref="C30" si="33">C28+C29</f>
         <v>-29</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <f t="shared" ref="D30" si="34">D28+D29</f>
         <v>95</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <f t="shared" ref="E30" si="35">E28+E29</f>
         <v>281</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <f t="shared" ref="F30" si="36">F28+F29</f>
         <v>-358</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <f t="shared" ref="G30" si="37">G28+G29</f>
         <v>170</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <f t="shared" ref="H30" si="38">H28+H29</f>
         <v>206</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <f t="shared" ref="I30" si="39">I28+I29</f>
         <v>474</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="8">
         <f t="shared" ref="J30:L30" si="40">J28+J29</f>
         <v>-19</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="8">
         <f t="shared" si="40"/>
         <v>428</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="8">
         <f t="shared" si="40"/>
         <v>381</v>
       </c>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9">
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8">
         <f t="shared" ref="P30:T30" si="41">P28+P29</f>
         <v>1703</v>
       </c>
-      <c r="Q30" s="9">
+      <c r="Q30" s="8">
         <f t="shared" si="41"/>
         <v>1977</v>
       </c>
-      <c r="R30" s="9">
+      <c r="R30" s="8">
         <f t="shared" si="41"/>
         <v>442</v>
       </c>
-      <c r="S30" s="9">
+      <c r="S30" s="8">
         <f t="shared" si="41"/>
         <v>2159</v>
       </c>
-      <c r="T30" s="9">
+      <c r="T30" s="8">
         <f t="shared" si="41"/>
         <v>638</v>
       </c>
-      <c r="U30" s="9">
+      <c r="U30" s="8">
         <f>U28+U29</f>
         <v>-16</v>
       </c>
-      <c r="V30" s="9">
+      <c r="V30" s="8">
         <f>V28+V29</f>
         <v>833</v>
       </c>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B31" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>9</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>11</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>21</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <v>-379</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <v>0</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <v>16</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <v>33</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="8">
         <v>-39</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="8">
         <v>1</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="8">
         <v>11</v>
       </c>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9">
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8">
         <v>3</v>
       </c>
-      <c r="Q31" s="9">
+      <c r="Q31" s="8">
         <v>2</v>
       </c>
-      <c r="R31" s="9">
+      <c r="R31" s="8">
         <v>11</v>
       </c>
-      <c r="S31" s="9">
+      <c r="S31" s="8">
         <v>42</v>
       </c>
-      <c r="T31" s="9">
+      <c r="T31" s="8">
         <v>26</v>
       </c>
-      <c r="U31" s="9">
+      <c r="U31" s="8">
         <v>61</v>
       </c>
-      <c r="V31" s="9">
+      <c r="V31" s="8">
         <v>764</v>
       </c>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <f t="shared" ref="C32" si="42">C30-C31</f>
         <v>-38</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <f t="shared" ref="D32" si="43">D30-D31</f>
         <v>84</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <f t="shared" ref="E32" si="44">E30-E31</f>
         <v>260</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <f t="shared" ref="F32" si="45">F30-F31</f>
         <v>21</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <f t="shared" ref="G32" si="46">G30-G31</f>
         <v>170</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="8">
         <f>H30-H31</f>
         <v>190</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="8">
         <f t="shared" ref="I32:L32" si="47">I30-I31</f>
         <v>441</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="8">
         <f t="shared" si="47"/>
         <v>20</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="8">
         <f t="shared" si="47"/>
         <v>427</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="8">
         <f t="shared" si="47"/>
         <v>370</v>
       </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9">
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8">
         <f t="shared" ref="P32:T32" si="48">P30-P31</f>
         <v>1700</v>
       </c>
-      <c r="Q32" s="9">
+      <c r="Q32" s="8">
         <f t="shared" si="48"/>
         <v>1975</v>
       </c>
-      <c r="R32" s="9">
+      <c r="R32" s="8">
         <f t="shared" si="48"/>
         <v>431</v>
       </c>
-      <c r="S32" s="9">
+      <c r="S32" s="8">
         <f t="shared" si="48"/>
         <v>2117</v>
       </c>
-      <c r="T32" s="9">
+      <c r="T32" s="8">
         <f t="shared" si="48"/>
         <v>612</v>
       </c>
-      <c r="U32" s="9">
+      <c r="U32" s="8">
         <f>U30-U31</f>
         <v>-77</v>
       </c>
-      <c r="V32" s="9">
+      <c r="V32" s="8">
         <f>V30-V31</f>
         <v>69</v>
       </c>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="4">
@@ -2937,8 +2952,8 @@
         <v>0.38644835612822298</v>
       </c>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="4">
@@ -3008,7 +3023,7 @@
         <v>178.54908399999999</v>
       </c>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3030,1005 +3045,1005 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="5">
+      <c r="G37" s="11">
         <f t="shared" ref="G37:I38" si="52">+G3/C3-1</f>
         <v>1.4833127317676054E-2</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="11">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="11">
         <f t="shared" si="52"/>
         <v>3.5220125786163514E-2</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="11">
         <f>+J3/F3-1</f>
         <v>7.2115384615385469E-3</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="11">
         <f t="shared" ref="K37:N38" si="53">+K3/G3-1</f>
         <v>1.8270401948842885E-2</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="11">
         <f t="shared" si="53"/>
         <v>4.7146401985111552E-2</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="11">
         <f t="shared" si="53"/>
         <v>-1</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="11">
         <f t="shared" si="53"/>
         <v>-1</v>
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
-      <c r="Q37" s="5" t="e">
+      <c r="Q37" s="11" t="e">
         <f t="shared" ref="Q37:U37" si="54">+Q3/P3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R37" s="5" t="e">
+      <c r="R37" s="11" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S37" s="5" t="e">
+      <c r="S37" s="11" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T37" s="5" t="e">
+      <c r="T37" s="11" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U37" s="5" t="e">
+      <c r="U37" s="11" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V37" s="5">
+      <c r="V37" s="11">
         <f>+V3/U3-1</f>
         <v>7.2115384615385469E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="5">
+      <c r="G38" s="11">
         <f t="shared" si="52"/>
         <v>4.9147442326980872E-2</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="11">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="11">
         <f t="shared" si="52"/>
         <v>-1.5525114155251152E-2</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="11">
         <f t="shared" ref="J38" si="55">+J4/F4-1</f>
         <v>6.2075654704170757E-2</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="11">
         <f t="shared" si="53"/>
         <v>4.8757170172084141E-2</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="11">
         <f t="shared" si="53"/>
         <v>3.3898305084745672E-2</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="11">
         <f t="shared" si="53"/>
         <v>-1</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="11">
         <f t="shared" si="53"/>
         <v>-1</v>
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="5" t="e">
+      <c r="Q38" s="11" t="e">
         <f t="shared" ref="Q38:U38" si="56">+Q4/P4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R38" s="5" t="e">
+      <c r="R38" s="11" t="e">
         <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S38" s="5" t="e">
+      <c r="S38" s="11" t="e">
         <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T38" s="5" t="e">
+      <c r="T38" s="11" t="e">
         <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U38" s="5" t="e">
+      <c r="U38" s="11" t="e">
         <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V38" s="5">
+      <c r="V38" s="11">
         <f>+V4/U4-1</f>
         <v>6.2075654704170757E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="5">
+      <c r="G39" s="11">
         <f t="shared" ref="G39:I45" si="57">+G7/C7-1</f>
         <v>0.14844267726971494</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="11">
         <f t="shared" si="57"/>
         <v>0.20100502512562812</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="11">
         <f t="shared" si="57"/>
         <v>0.18763796909492281</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="11">
         <f>+J7/F7-1</f>
         <v>0.26277897768178549</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="11">
         <f t="shared" ref="K39:N45" si="58">+K7/G7-1</f>
         <v>0.14598961338718985</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="11">
         <f t="shared" si="58"/>
         <v>4.4456066945606665E-2</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="11">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="11">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
-      <c r="Q39" s="5" t="e">
+      <c r="Q39" s="11" t="e">
         <f t="shared" ref="Q39:U45" si="59">+Q7/P7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R39" s="5" t="e">
+      <c r="R39" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S39" s="5" t="e">
+      <c r="S39" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T39" s="5" t="e">
+      <c r="T39" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U39" s="5" t="e">
+      <c r="U39" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V39" s="5">
+      <c r="V39" s="11">
         <f>+V7/U7-1</f>
         <v>0.19819105046017138</v>
       </c>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="5">
+      <c r="G40" s="11">
         <f t="shared" si="57"/>
         <v>-4.6728971962616828E-2</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="11">
         <f t="shared" si="57"/>
         <v>-6.9335239456754794E-2</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="11">
         <f t="shared" si="57"/>
         <v>-8.2210242587601123E-2</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="11">
         <f t="shared" ref="J40:J45" si="60">+J8/F8-1</f>
         <v>0.15789473684210531</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="11">
         <f t="shared" si="58"/>
         <v>5.525846702317283E-2</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="11">
         <f t="shared" si="58"/>
         <v>2.8417818740399392E-2</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="11">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40" s="11">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
-      <c r="Q40" s="5" t="e">
+      <c r="Q40" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R40" s="5" t="e">
+      <c r="R40" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S40" s="5" t="e">
+      <c r="S40" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T40" s="5" t="e">
+      <c r="T40" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U40" s="5" t="e">
+      <c r="U40" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V40" s="5">
+      <c r="V40" s="11">
         <f t="shared" ref="V40:V45" si="61">+V8/U8-1</f>
         <v>-1.7436290477102934E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="5">
+      <c r="G41" s="11">
         <f t="shared" si="57"/>
         <v>1.4705882352941124E-2</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="11">
         <f t="shared" si="57"/>
         <v>7.3107049608355013E-2</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="11">
         <f t="shared" si="57"/>
         <v>8.7356321839080486E-2</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="11">
         <f t="shared" si="60"/>
         <v>0.18507462686567155</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="11">
         <f t="shared" si="58"/>
         <v>0.14715719063545141</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="11">
         <f t="shared" si="58"/>
         <v>-2.9197080291970767E-2</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="11">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
-      <c r="N41" s="5">
+      <c r="N41" s="11">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="5" t="e">
+      <c r="Q41" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R41" s="5" t="e">
+      <c r="R41" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S41" s="5" t="e">
+      <c r="S41" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T41" s="5" t="e">
+      <c r="T41" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U41" s="5" t="e">
+      <c r="U41" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V41" s="5">
+      <c r="V41" s="11">
         <f t="shared" si="61"/>
         <v>8.4326018808777325E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="5">
+      <c r="G42" s="11">
         <f t="shared" si="57"/>
         <v>5.9523809523809534E-2</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="11">
         <f t="shared" si="57"/>
         <v>0.24833333333333329</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="11">
         <f t="shared" si="57"/>
         <v>9.1127098321343025E-2</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="11">
         <f t="shared" si="60"/>
         <v>0.26344086021505375</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="11">
         <f t="shared" si="58"/>
         <v>1.74438202247191</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="11">
         <f t="shared" si="58"/>
         <v>1.4272363150867822</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="11">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42" s="11">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
-      <c r="Q42" s="5" t="e">
+      <c r="Q42" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R42" s="5" t="e">
+      <c r="R42" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S42" s="5" t="e">
+      <c r="S42" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T42" s="5" t="e">
+      <c r="T42" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U42" s="5" t="e">
+      <c r="U42" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V42" s="5">
+      <c r="V42" s="11">
         <f t="shared" si="61"/>
         <v>0.16140350877192988</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="5">
+      <c r="G43" s="11">
         <f t="shared" si="57"/>
         <v>7.1452199801521621E-2</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="11">
         <f t="shared" si="57"/>
         <v>0.15183752417794971</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="11">
         <f t="shared" si="57"/>
         <v>0.10289389067524124</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="11">
         <f t="shared" si="60"/>
         <v>0.3356973995271868</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="11">
         <f t="shared" si="58"/>
         <v>0.16085211485026241</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="11">
         <f t="shared" si="58"/>
         <v>-0.30702490904002244</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="11">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N43" s="11">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
-      <c r="Q43" s="5" t="e">
+      <c r="Q43" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R43" s="5" t="e">
+      <c r="R43" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S43" s="5" t="e">
+      <c r="S43" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T43" s="5" t="e">
+      <c r="T43" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U43" s="5" t="e">
+      <c r="U43" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V43" s="5">
+      <c r="V43" s="11">
         <f t="shared" si="61"/>
         <v>0.15658362989323837</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="5">
+      <c r="G44" s="11">
         <f t="shared" si="57"/>
         <v>-1.3605442176870763E-2</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="11">
         <f t="shared" si="57"/>
         <v>3.0501089324618702E-2</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="11">
         <f t="shared" si="57"/>
         <v>2.6051188299817118E-2</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="11">
         <f t="shared" si="60"/>
         <v>0.10140562248995977</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="11">
         <f t="shared" si="58"/>
         <v>4.403183023872681E-2</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="11">
         <f t="shared" si="58"/>
         <v>7.2410147991543328E-2</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="11">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N44" s="11">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
-      <c r="Q44" s="5" t="e">
+      <c r="Q44" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R44" s="5" t="e">
+      <c r="R44" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S44" s="5" t="e">
+      <c r="S44" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T44" s="5" t="e">
+      <c r="T44" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U44" s="5" t="e">
+      <c r="U44" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V44" s="5">
+      <c r="V44" s="11">
         <f t="shared" si="61"/>
         <v>4.5824847250509171E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="5">
+      <c r="G45" s="11">
         <f t="shared" si="57"/>
         <v>-3.5294117647058809E-2</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="11">
         <f t="shared" si="57"/>
         <v>-8.6419753086419804E-2</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="11">
         <f t="shared" si="57"/>
         <v>7.9487179487179427E-2</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="11">
         <f t="shared" si="60"/>
         <v>7.9545454545454586E-2</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="11">
         <f t="shared" si="58"/>
         <v>0.29268292682926833</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="11">
         <f t="shared" si="58"/>
         <v>0.2081081081081082</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="11">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="11">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
-      <c r="Q45" s="5" t="e">
+      <c r="Q45" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R45" s="5" t="e">
+      <c r="R45" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S45" s="5" t="e">
+      <c r="S45" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T45" s="5" t="e">
+      <c r="T45" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U45" s="5" t="e">
+      <c r="U45" s="11" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V45" s="5">
+      <c r="V45" s="11">
         <f t="shared" si="61"/>
         <v>7.3924731182795078E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12">
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13">
         <f>G14/C14-1</f>
         <v>3.4888130451270483E-2</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="13">
         <f t="shared" ref="H46:J46" si="62">H14/D14-1</f>
         <v>8.9650009358038574E-2</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="13">
         <f t="shared" si="62"/>
         <v>7.3178863143857242E-2</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="13">
         <f t="shared" si="62"/>
         <v>0.23960931005818797</v>
       </c>
-      <c r="K46" s="12">
+      <c r="K46" s="13">
         <f t="shared" ref="K46" si="63">K14/G14-1</f>
         <v>0.1273360205203371</v>
       </c>
-      <c r="L46" s="12">
+      <c r="L46" s="13">
         <f t="shared" ref="L46" si="64">L14/H14-1</f>
         <v>2.2329096530401937E-2</v>
       </c>
-      <c r="M46" s="12">
+      <c r="M46" s="13">
         <f t="shared" ref="M46" si="65">M14/I14-1</f>
         <v>-1</v>
       </c>
-      <c r="N46" s="12">
+      <c r="N46" s="13">
         <f t="shared" ref="N46" si="66">N14/J14-1</f>
         <v>-1</v>
       </c>
       <c r="O46" s="4"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5">
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11">
         <f t="shared" ref="Q46:T46" si="67">Q14/P14-1</f>
         <v>7.8713210130047839E-2</v>
       </c>
-      <c r="R46" s="5">
+      <c r="R46" s="11">
         <f t="shared" si="67"/>
         <v>-0.22017766497461932</v>
       </c>
-      <c r="S46" s="5">
+      <c r="S46" s="11">
         <f t="shared" si="67"/>
         <v>0.15183075671277457</v>
       </c>
-      <c r="T46" s="5">
+      <c r="T46" s="11">
         <f t="shared" si="67"/>
         <v>6.0139399076952094E-2</v>
       </c>
-      <c r="U46" s="5">
+      <c r="U46" s="11">
         <f>U14/T14-1</f>
         <v>-4.8154235706987736E-2</v>
       </c>
-      <c r="V46" s="5">
+      <c r="V46" s="11">
         <f>V14/U14-1</f>
         <v>0.10528772109954732</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="11">
         <f t="shared" ref="C47:G47" si="68">C16/C14</f>
         <v>0.44804702313234734</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="11">
         <f t="shared" si="68"/>
         <v>0.50870297585626056</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="11">
         <f t="shared" si="68"/>
         <v>0.49258209701616934</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="11">
         <f t="shared" si="68"/>
         <v>0.44638403990024939</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="11">
         <f t="shared" si="68"/>
         <v>0.51227555881275189</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="11">
         <f>H16/H14</f>
         <v>0.50824458948814843</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="11">
         <f t="shared" ref="I47:J47" si="69">I16/I14</f>
         <v>0.51273687480584029</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="11">
         <f t="shared" si="69"/>
         <v>0.49790444258172672</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="11">
         <f t="shared" ref="K47:N47" si="70">K16/K14</f>
         <v>0.52088412156671537</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="11">
         <f t="shared" si="70"/>
         <v>0.51696908602150538</v>
       </c>
-      <c r="M47" s="5" t="e">
+      <c r="M47" s="11" t="e">
         <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N47" s="5" t="e">
+      <c r="N47" s="11" t="e">
         <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O47" s="4"/>
-      <c r="P47" s="5">
+      <c r="P47" s="11">
         <f t="shared" ref="P47:T47" si="71">P16/P14</f>
         <v>0.51850330823636781</v>
       </c>
-      <c r="Q47" s="5">
+      <c r="Q47" s="11">
         <f t="shared" si="71"/>
         <v>0.52000846023688663</v>
       </c>
-      <c r="R47" s="5">
+      <c r="R47" s="11">
         <f t="shared" si="71"/>
         <v>0.50024410089503657</v>
       </c>
-      <c r="S47" s="5">
+      <c r="S47" s="11">
         <f t="shared" si="71"/>
         <v>0.50696995384760291</v>
       </c>
-      <c r="T47" s="5">
+      <c r="T47" s="11">
         <f t="shared" si="71"/>
         <v>0.47283550264315222</v>
       </c>
-      <c r="U47" s="5">
+      <c r="U47" s="11">
         <f>U16/U14</f>
         <v>0.47524151771129886</v>
       </c>
-      <c r="V47" s="5">
+      <c r="V47" s="11">
         <f>V16/V14</f>
         <v>0.5077481737955496</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="11">
         <f t="shared" ref="C48:G48" si="72">C23/C14</f>
         <v>1.1376564277588168E-2</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="11">
         <f t="shared" si="72"/>
         <v>3.2753134942915964E-2</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="11">
         <f t="shared" si="72"/>
         <v>6.8344724120686776E-2</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="11">
         <f t="shared" si="72"/>
         <v>-7.813798836242726E-2</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="11">
         <f t="shared" si="72"/>
         <v>6.1561011359472333E-2</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="11">
         <f>H23/H14</f>
         <v>5.960151150807283E-2</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="11">
         <f t="shared" ref="I48:J48" si="73">I23/I14</f>
         <v>9.2575333954644304E-2</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="11">
         <f t="shared" si="73"/>
         <v>9.5557418273260683E-3</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="11">
         <f t="shared" ref="K48:N48" si="74">K23/K14</f>
         <v>9.8976109215017066E-2</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="11">
         <f t="shared" si="74"/>
         <v>9.1901881720430109E-2</v>
       </c>
-      <c r="M48" s="5" t="e">
+      <c r="M48" s="11" t="e">
         <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N48" s="5" t="e">
+      <c r="N48" s="11" t="e">
         <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O48" s="4"/>
-      <c r="P48" s="5">
+      <c r="P48" s="11">
         <f t="shared" ref="P48:T48" si="75">P23/P14</f>
         <v>0.1080082135523614</v>
       </c>
-      <c r="Q48" s="5">
+      <c r="Q48" s="11">
         <f t="shared" si="75"/>
         <v>0.11252115059221658</v>
       </c>
-      <c r="R48" s="5">
+      <c r="R48" s="11">
         <f t="shared" si="75"/>
         <v>4.0412259289395173E-2</v>
       </c>
-      <c r="S48" s="5">
+      <c r="S48" s="11">
         <f t="shared" si="75"/>
         <v>9.3576339832344355E-2</v>
       </c>
-      <c r="T48" s="5">
+      <c r="T48" s="11">
         <f t="shared" si="75"/>
         <v>2.9718804140198125E-2</v>
       </c>
-      <c r="U48" s="5">
+      <c r="U48" s="11">
         <f>U23/U14</f>
         <v>1.2460913800345358E-2</v>
       </c>
-      <c r="V48" s="5">
+      <c r="V48" s="11">
         <f>V23/V14</f>
         <v>5.6327323396529155E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="11">
         <f t="shared" ref="C49:G49" si="76">C32/C14</f>
         <v>-7.2051573758058398E-3</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="11">
         <f t="shared" si="76"/>
         <v>1.5721504772599662E-2</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="11">
         <f t="shared" si="76"/>
         <v>4.3340556759459907E-2</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="11">
         <f t="shared" si="76"/>
         <v>4.3640897755610969E-3</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="11">
         <f t="shared" si="76"/>
         <v>3.1146940271161598E-2</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="11">
         <f>H32/H14</f>
         <v>3.2634833390587425E-2</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="11">
         <f t="shared" ref="I49:J49" si="77">I32/I14</f>
         <v>6.8499534016775401E-2</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="11">
         <f t="shared" si="77"/>
         <v>3.3528918692372171E-3</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="11">
         <f t="shared" ref="K49:N49" si="78">K32/K14</f>
         <v>6.9397042093287828E-2</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="11">
         <f t="shared" si="78"/>
         <v>6.2163978494623656E-2</v>
       </c>
-      <c r="M49" s="5" t="e">
+      <c r="M49" s="11" t="e">
         <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N49" s="5" t="e">
+      <c r="N49" s="11" t="e">
         <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O49" s="4"/>
-      <c r="P49" s="5">
+      <c r="P49" s="11">
         <f t="shared" ref="P49:T49" si="79">P32/P14</f>
         <v>7.7572438968742871E-2</v>
       </c>
-      <c r="Q49" s="5">
+      <c r="Q49" s="11">
         <f t="shared" si="79"/>
         <v>8.3544839255499159E-2</v>
       </c>
-      <c r="R49" s="5">
+      <c r="R49" s="11">
         <f t="shared" si="79"/>
         <v>2.3379441280173583E-2</v>
       </c>
-      <c r="S49" s="5">
+      <c r="S49" s="11">
         <f t="shared" si="79"/>
         <v>9.9698596590373931E-2</v>
       </c>
-      <c r="T49" s="5">
+      <c r="T49" s="11">
         <f t="shared" si="79"/>
         <v>2.7186708720181245E-2</v>
       </c>
-      <c r="U49" s="5">
+      <c r="U49" s="11">
         <f>U32/U14</f>
         <v>-3.5935968637700096E-3</v>
       </c>
-      <c r="V49" s="5">
+      <c r="V49" s="11">
         <f>V32/V14</f>
         <v>2.9134822446480598E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="11">
         <f t="shared" ref="C50:G50" si="80">C27/C26</f>
         <v>1.71875</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="11">
         <f t="shared" si="80"/>
         <v>0.21951219512195122</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="11">
         <f t="shared" si="80"/>
         <v>0.16871165644171779</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="11">
         <f t="shared" si="80"/>
         <v>3.3816425120772944E-2</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="11">
         <f t="shared" si="80"/>
         <v>0.30204081632653063</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="11">
         <f>H27/H26</f>
         <v>0.30491803278688523</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I50" s="11">
         <f t="shared" ref="I50:J50" si="81">I27/I26</f>
         <v>0.22166666666666668</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="11">
         <f t="shared" si="81"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50" s="11">
         <f t="shared" ref="K50:N50" si="82">K27/K26</f>
         <v>0.25513698630136988</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50" s="11">
         <f t="shared" si="82"/>
         <v>0.23312883435582821</v>
       </c>
-      <c r="M50" s="5" t="e">
+      <c r="M50" s="11" t="e">
         <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N50" s="5" t="e">
+      <c r="N50" s="11" t="e">
         <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O50" s="4"/>
-      <c r="P50" s="5">
+      <c r="P50" s="11">
         <f t="shared" ref="P50:T50" si="83">P27/P26</f>
         <v>0.28144720235591081</v>
       </c>
-      <c r="Q50" s="5">
+      <c r="Q50" s="11">
         <f t="shared" si="83"/>
         <v>0.2501954652071931</v>
       </c>
-      <c r="R50" s="5">
+      <c r="R50" s="11">
         <f t="shared" si="83"/>
         <v>0.20242214532871972</v>
       </c>
-      <c r="S50" s="5">
+      <c r="S50" s="11">
         <f t="shared" si="83"/>
         <v>0.19427954668105774</v>
       </c>
-      <c r="T50" s="5">
+      <c r="T50" s="11">
         <f t="shared" si="83"/>
         <v>0.34536082474226804</v>
       </c>
-      <c r="U50" s="5">
+      <c r="U50" s="11">
         <f>U27/U26</f>
         <v>1.9375</v>
       </c>
-      <c r="V50" s="5">
+      <c r="V50" s="11">
         <f>V27/V26</f>
         <v>0.26470588235294118</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -4050,7 +4065,7 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -4072,7 +4087,7 @@
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -4094,7 +4109,7 @@
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -4116,7 +4131,7 @@
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -4138,7 +4153,7 @@
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -4160,7 +4175,7 @@
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -4182,7 +4197,7 @@
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -4204,7 +4219,7 @@
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -4226,7 +4241,7 @@
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -4248,7 +4263,7 @@
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -4270,7 +4285,7 @@
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -4292,7 +4307,7 @@
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -4314,7 +4329,7 @@
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -4336,7 +4351,7 @@
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
     </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -4358,7 +4373,7 @@
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
     </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -4380,7 +4395,7 @@
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
     </row>
-    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -4402,7 +4417,7 @@
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
     </row>
-    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -4424,7 +4439,7 @@
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
     </row>
-    <row r="69" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -4446,7 +4461,7 @@
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
     </row>
-    <row r="70" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -4468,7 +4483,7 @@
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
     </row>
-    <row r="71" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -4490,7 +4505,7 @@
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
     </row>
-    <row r="72" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -4512,7 +4527,7 @@
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
     </row>
-    <row r="73" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -4534,7 +4549,7 @@
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
     </row>
-    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -4556,7 +4571,7 @@
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
     </row>
-    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -4578,7 +4593,7 @@
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
     </row>
-    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -4600,7 +4615,7 @@
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
     </row>
-    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -4622,7 +4637,7 @@
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
     </row>
-    <row r="78" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -4644,7 +4659,7 @@
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
     </row>
-    <row r="79" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -4666,7 +4681,7 @@
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
     </row>
-    <row r="80" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -4688,7 +4703,7 @@
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -4710,7 +4725,7 @@
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -4732,7 +4747,7 @@
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
     </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -4754,7 +4769,7 @@
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -4776,7 +4791,7 @@
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
     </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -4798,7 +4813,7 @@
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
     </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -4820,7 +4835,7 @@
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
     </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -4842,7 +4857,7 @@
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
     </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -4864,7 +4879,7 @@
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
     </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -4886,7 +4901,7 @@
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -4908,7 +4923,7 @@
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
     </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -4930,7 +4945,7 @@
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -4952,7 +4967,7 @@
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
     </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -4974,7 +4989,7 @@
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
     </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -4996,7 +5011,7 @@
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -5018,7 +5033,7 @@
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
     </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -5040,7 +5055,7 @@
       <c r="U96" s="4"/>
       <c r="V96" s="4"/>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -5062,7 +5077,7 @@
       <c r="U97" s="4"/>
       <c r="V97" s="4"/>
     </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -5084,7 +5099,7 @@
       <c r="U98" s="4"/>
       <c r="V98" s="4"/>
     </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -5106,7 +5121,7 @@
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
     </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -5128,7 +5143,7 @@
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -5150,7 +5165,7 @@
       <c r="U101" s="4"/>
       <c r="V101" s="4"/>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -5172,7 +5187,7 @@
       <c r="U102" s="4"/>
       <c r="V102" s="4"/>
     </row>
-    <row r="103" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -5194,7 +5209,7 @@
       <c r="U103" s="4"/>
       <c r="V103" s="4"/>
     </row>
-    <row r="104" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -5216,7 +5231,7 @@
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
     </row>
-    <row r="105" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -5238,7 +5253,7 @@
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
     </row>
-    <row r="106" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -5260,7 +5275,7 @@
       <c r="U106" s="4"/>
       <c r="V106" s="4"/>
     </row>
-    <row r="107" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -5282,7 +5297,7 @@
       <c r="U107" s="4"/>
       <c r="V107" s="4"/>
     </row>
-    <row r="108" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -5304,7 +5319,7 @@
       <c r="U108" s="4"/>
       <c r="V108" s="4"/>
     </row>
-    <row r="109" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -5326,7 +5341,7 @@
       <c r="U109" s="4"/>
       <c r="V109" s="4"/>
     </row>
-    <row r="110" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -5348,7 +5363,7 @@
       <c r="U110" s="4"/>
       <c r="V110" s="4"/>
     </row>
-    <row r="111" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -5370,7 +5385,7 @@
       <c r="U111" s="4"/>
       <c r="V111" s="4"/>
     </row>
-    <row r="112" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -5392,7 +5407,7 @@
       <c r="U112" s="4"/>
       <c r="V112" s="4"/>
     </row>
-    <row r="113" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -5414,7 +5429,7 @@
       <c r="U113" s="4"/>
       <c r="V113" s="4"/>
     </row>
-    <row r="114" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -5436,7 +5451,7 @@
       <c r="U114" s="4"/>
       <c r="V114" s="4"/>
     </row>
-    <row r="115" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -5458,7 +5473,7 @@
       <c r="U115" s="4"/>
       <c r="V115" s="4"/>
     </row>
-    <row r="116" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -5480,7 +5495,7 @@
       <c r="U116" s="4"/>
       <c r="V116" s="4"/>
     </row>
-    <row r="117" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -5502,7 +5517,7 @@
       <c r="U117" s="4"/>
       <c r="V117" s="4"/>
     </row>
-    <row r="118" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -5524,7 +5539,7 @@
       <c r="U118" s="4"/>
       <c r="V118" s="4"/>
     </row>
-    <row r="119" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -5546,7 +5561,7 @@
       <c r="U119" s="4"/>
       <c r="V119" s="4"/>
     </row>
-    <row r="120" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -5568,7 +5583,7 @@
       <c r="U120" s="4"/>
       <c r="V120" s="4"/>
     </row>
-    <row r="121" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -5590,7 +5605,7 @@
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
     </row>
-    <row r="122" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -5612,7 +5627,7 @@
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
     </row>
-    <row r="123" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -5634,7 +5649,7 @@
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
     </row>
-    <row r="124" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -5656,7 +5671,7 @@
       <c r="U124" s="4"/>
       <c r="V124" s="4"/>
     </row>
-    <row r="125" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -5678,7 +5693,7 @@
       <c r="U125" s="4"/>
       <c r="V125" s="4"/>
     </row>
-    <row r="126" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -5700,7 +5715,7 @@
       <c r="U126" s="4"/>
       <c r="V126" s="4"/>
     </row>
-    <row r="127" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -5722,7 +5737,7 @@
       <c r="U127" s="4"/>
       <c r="V127" s="4"/>
     </row>
-    <row r="128" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -5744,7 +5759,7 @@
       <c r="U128" s="4"/>
       <c r="V128" s="4"/>
     </row>
-    <row r="129" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -5766,7 +5781,7 @@
       <c r="U129" s="4"/>
       <c r="V129" s="4"/>
     </row>
-    <row r="130" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -5788,7 +5803,7 @@
       <c r="U130" s="4"/>
       <c r="V130" s="4"/>
     </row>
-    <row r="131" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -5810,7 +5825,7 @@
       <c r="U131" s="4"/>
       <c r="V131" s="4"/>
     </row>
-    <row r="132" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -5832,7 +5847,7 @@
       <c r="U132" s="4"/>
       <c r="V132" s="4"/>
     </row>
-    <row r="133" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -5854,7 +5869,7 @@
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
     </row>
-    <row r="134" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -5876,7 +5891,7 @@
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
     </row>
-    <row r="135" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -5898,7 +5913,7 @@
       <c r="U135" s="4"/>
       <c r="V135" s="4"/>
     </row>
-    <row r="136" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -5920,7 +5935,7 @@
       <c r="U136" s="4"/>
       <c r="V136" s="4"/>
     </row>
-    <row r="137" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -5942,7 +5957,7 @@
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
     </row>
-    <row r="138" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -5964,7 +5979,7 @@
       <c r="U138" s="4"/>
       <c r="V138" s="4"/>
     </row>
-    <row r="139" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -5986,7 +6001,7 @@
       <c r="U139" s="4"/>
       <c r="V139" s="4"/>
     </row>
-    <row r="140" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -6008,7 +6023,7 @@
       <c r="U140" s="4"/>
       <c r="V140" s="4"/>
     </row>
-    <row r="141" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -6030,7 +6045,7 @@
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
     </row>
-    <row r="142" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -6052,7 +6067,7 @@
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
     </row>
-    <row r="143" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -6074,7 +6089,7 @@
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
     </row>
-    <row r="144" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -6096,7 +6111,7 @@
       <c r="U144" s="4"/>
       <c r="V144" s="4"/>
     </row>
-    <row r="145" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -6118,7 +6133,7 @@
       <c r="U145" s="4"/>
       <c r="V145" s="4"/>
     </row>
-    <row r="146" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -6140,7 +6155,7 @@
       <c r="U146" s="4"/>
       <c r="V146" s="4"/>
     </row>
-    <row r="147" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -6162,7 +6177,7 @@
       <c r="U147" s="4"/>
       <c r="V147" s="4"/>
     </row>
-    <row r="148" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -6184,7 +6199,7 @@
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
     </row>
-    <row r="149" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -6206,7 +6221,7 @@
       <c r="U149" s="4"/>
       <c r="V149" s="4"/>
     </row>
-    <row r="150" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -6228,7 +6243,7 @@
       <c r="U150" s="4"/>
       <c r="V150" s="4"/>
     </row>
-    <row r="151" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -6250,7 +6265,7 @@
       <c r="U151" s="4"/>
       <c r="V151" s="4"/>
     </row>
-    <row r="152" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -6272,7 +6287,7 @@
       <c r="U152" s="4"/>
       <c r="V152" s="4"/>
     </row>
-    <row r="153" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -6294,7 +6309,7 @@
       <c r="U153" s="4"/>
       <c r="V153" s="4"/>
     </row>
-    <row r="154" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -6316,7 +6331,7 @@
       <c r="U154" s="4"/>
       <c r="V154" s="4"/>
     </row>
-    <row r="155" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -6338,7 +6353,7 @@
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
     </row>
-    <row r="156" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -6360,7 +6375,7 @@
       <c r="U156" s="4"/>
       <c r="V156" s="4"/>
     </row>
-    <row r="157" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -6382,7 +6397,7 @@
       <c r="U157" s="4"/>
       <c r="V157" s="4"/>
     </row>
-    <row r="158" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -6404,7 +6419,7 @@
       <c r="U158" s="4"/>
       <c r="V158" s="4"/>
     </row>
-    <row r="159" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -6426,7 +6441,7 @@
       <c r="U159" s="4"/>
       <c r="V159" s="4"/>
     </row>
-    <row r="160" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -6448,7 +6463,7 @@
       <c r="U160" s="4"/>
       <c r="V160" s="4"/>
     </row>
-    <row r="161" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -6470,7 +6485,7 @@
       <c r="U161" s="4"/>
       <c r="V161" s="4"/>
     </row>
-    <row r="162" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -6492,7 +6507,7 @@
       <c r="U162" s="4"/>
       <c r="V162" s="4"/>
     </row>
-    <row r="163" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -6514,7 +6529,7 @@
       <c r="U163" s="4"/>
       <c r="V163" s="4"/>
     </row>
-    <row r="164" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -6536,7 +6551,7 @@
       <c r="U164" s="4"/>
       <c r="V164" s="4"/>
     </row>
-    <row r="165" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -6558,7 +6573,7 @@
       <c r="U165" s="4"/>
       <c r="V165" s="4"/>
     </row>
-    <row r="166" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -6580,7 +6595,7 @@
       <c r="U166" s="4"/>
       <c r="V166" s="4"/>
     </row>
-    <row r="167" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -6602,7 +6617,7 @@
       <c r="U167" s="4"/>
       <c r="V167" s="4"/>
     </row>
-    <row r="168" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -6624,7 +6639,7 @@
       <c r="U168" s="4"/>
       <c r="V168" s="4"/>
     </row>
-    <row r="169" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -6646,7 +6661,7 @@
       <c r="U169" s="4"/>
       <c r="V169" s="4"/>
     </row>
-    <row r="170" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -6668,7 +6683,7 @@
       <c r="U170" s="4"/>
       <c r="V170" s="4"/>
     </row>
-    <row r="171" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -6690,7 +6705,7 @@
       <c r="U171" s="4"/>
       <c r="V171" s="4"/>
     </row>
-    <row r="172" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -6712,7 +6727,7 @@
       <c r="U172" s="4"/>
       <c r="V172" s="4"/>
     </row>
-    <row r="173" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -6734,7 +6749,7 @@
       <c r="U173" s="4"/>
       <c r="V173" s="4"/>
     </row>
-    <row r="174" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -6756,7 +6771,7 @@
       <c r="U174" s="4"/>
       <c r="V174" s="4"/>
     </row>
-    <row r="175" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -6778,7 +6793,7 @@
       <c r="U175" s="4"/>
       <c r="V175" s="4"/>
     </row>
-    <row r="176" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -6800,7 +6815,7 @@
       <c r="U176" s="4"/>
       <c r="V176" s="4"/>
     </row>
-    <row r="177" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -6822,7 +6837,7 @@
       <c r="U177" s="4"/>
       <c r="V177" s="4"/>
     </row>
-    <row r="178" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -6844,7 +6859,7 @@
       <c r="U178" s="4"/>
       <c r="V178" s="4"/>
     </row>
-    <row r="179" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -6866,7 +6881,7 @@
       <c r="U179" s="4"/>
       <c r="V179" s="4"/>
     </row>
-    <row r="180" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -6888,7 +6903,7 @@
       <c r="U180" s="4"/>
       <c r="V180" s="4"/>
     </row>
-    <row r="181" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -6910,7 +6925,7 @@
       <c r="U181" s="4"/>
       <c r="V181" s="4"/>
     </row>
-    <row r="182" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -6932,7 +6947,7 @@
       <c r="U182" s="4"/>
       <c r="V182" s="4"/>
     </row>
-    <row r="183" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -6954,7 +6969,7 @@
       <c r="U183" s="4"/>
       <c r="V183" s="4"/>
     </row>
-    <row r="184" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -6976,7 +6991,7 @@
       <c r="U184" s="4"/>
       <c r="V184" s="4"/>
     </row>
-    <row r="185" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -6998,7 +7013,7 @@
       <c r="U185" s="4"/>
       <c r="V185" s="4"/>
     </row>
-    <row r="186" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -7020,7 +7035,7 @@
       <c r="U186" s="4"/>
       <c r="V186" s="4"/>
     </row>
-    <row r="187" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -7042,7 +7057,7 @@
       <c r="U187" s="4"/>
       <c r="V187" s="4"/>
     </row>
-    <row r="188" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -7064,7 +7079,7 @@
       <c r="U188" s="4"/>
       <c r="V188" s="4"/>
     </row>
-    <row r="189" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -7086,7 +7101,7 @@
       <c r="U189" s="4"/>
       <c r="V189" s="4"/>
     </row>
-    <row r="190" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -7108,7 +7123,7 @@
       <c r="U190" s="4"/>
       <c r="V190" s="4"/>
     </row>
-    <row r="191" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -7130,7 +7145,7 @@
       <c r="U191" s="4"/>
       <c r="V191" s="4"/>
     </row>
-    <row r="192" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -7152,7 +7167,7 @@
       <c r="U192" s="4"/>
       <c r="V192" s="4"/>
     </row>
-    <row r="193" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
@@ -7174,7 +7189,7 @@
       <c r="U193" s="4"/>
       <c r="V193" s="4"/>
     </row>
-    <row r="194" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -7196,7 +7211,7 @@
       <c r="U194" s="4"/>
       <c r="V194" s="4"/>
     </row>
-    <row r="195" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -7218,7 +7233,7 @@
       <c r="U195" s="4"/>
       <c r="V195" s="4"/>
     </row>
-    <row r="196" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -7240,7 +7255,7 @@
       <c r="U196" s="4"/>
       <c r="V196" s="4"/>
     </row>
-    <row r="197" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -7262,7 +7277,7 @@
       <c r="U197" s="4"/>
       <c r="V197" s="4"/>
     </row>
-    <row r="198" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -7284,7 +7299,7 @@
       <c r="U198" s="4"/>
       <c r="V198" s="4"/>
     </row>
-    <row r="199" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -7306,7 +7321,7 @@
       <c r="U199" s="4"/>
       <c r="V199" s="4"/>
     </row>
-    <row r="200" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -7328,7 +7343,7 @@
       <c r="U200" s="4"/>
       <c r="V200" s="4"/>
     </row>
-    <row r="201" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -7350,7 +7365,7 @@
       <c r="U201" s="4"/>
       <c r="V201" s="4"/>
     </row>
-    <row r="202" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -7372,7 +7387,7 @@
       <c r="U202" s="4"/>
       <c r="V202" s="4"/>
     </row>
-    <row r="203" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -7394,7 +7409,7 @@
       <c r="U203" s="4"/>
       <c r="V203" s="4"/>
     </row>
-    <row r="204" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -7416,7 +7431,7 @@
       <c r="U204" s="4"/>
       <c r="V204" s="4"/>
     </row>
-    <row r="205" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -7438,7 +7453,7 @@
       <c r="U205" s="4"/>
       <c r="V205" s="4"/>
     </row>
-    <row r="206" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -7460,7 +7475,7 @@
       <c r="U206" s="4"/>
       <c r="V206" s="4"/>
     </row>
-    <row r="207" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -7482,7 +7497,7 @@
       <c r="U207" s="4"/>
       <c r="V207" s="4"/>
     </row>
-    <row r="208" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
@@ -7504,7 +7519,7 @@
       <c r="U208" s="4"/>
       <c r="V208" s="4"/>
     </row>
-    <row r="209" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -7526,7 +7541,7 @@
       <c r="U209" s="4"/>
       <c r="V209" s="4"/>
     </row>
-    <row r="210" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -7548,7 +7563,7 @@
       <c r="U210" s="4"/>
       <c r="V210" s="4"/>
     </row>
-    <row r="211" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -7570,7 +7585,7 @@
       <c r="U211" s="4"/>
       <c r="V211" s="4"/>
     </row>
-    <row r="212" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -7592,7 +7607,7 @@
       <c r="U212" s="4"/>
       <c r="V212" s="4"/>
     </row>
-    <row r="213" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -7614,7 +7629,7 @@
       <c r="U213" s="4"/>
       <c r="V213" s="4"/>
     </row>
-    <row r="214" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -7636,7 +7651,7 @@
       <c r="U214" s="4"/>
       <c r="V214" s="4"/>
     </row>
-    <row r="215" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -7658,7 +7673,7 @@
       <c r="U215" s="4"/>
       <c r="V215" s="4"/>
     </row>
-    <row r="216" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -7680,7 +7695,7 @@
       <c r="U216" s="4"/>
       <c r="V216" s="4"/>
     </row>
-    <row r="217" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -7702,7 +7717,7 @@
       <c r="U217" s="4"/>
       <c r="V217" s="4"/>
     </row>
-    <row r="218" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -7724,7 +7739,7 @@
       <c r="U218" s="4"/>
       <c r="V218" s="4"/>
     </row>
-    <row r="219" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -7746,7 +7761,7 @@
       <c r="U219" s="4"/>
       <c r="V219" s="4"/>
     </row>
-    <row r="220" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -7768,7 +7783,7 @@
       <c r="U220" s="4"/>
       <c r="V220" s="4"/>
     </row>
-    <row r="221" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -7790,7 +7805,7 @@
       <c r="U221" s="4"/>
       <c r="V221" s="4"/>
     </row>
-    <row r="222" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -7812,7 +7827,7 @@
       <c r="U222" s="4"/>
       <c r="V222" s="4"/>
     </row>
-    <row r="223" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -7834,7 +7849,7 @@
       <c r="U223" s="4"/>
       <c r="V223" s="4"/>
     </row>
-    <row r="224" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -7856,7 +7871,7 @@
       <c r="U224" s="4"/>
       <c r="V224" s="4"/>
     </row>
-    <row r="225" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -7878,7 +7893,7 @@
       <c r="U225" s="4"/>
       <c r="V225" s="4"/>
     </row>
-    <row r="226" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -7900,7 +7915,7 @@
       <c r="U226" s="4"/>
       <c r="V226" s="4"/>
     </row>
-    <row r="227" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -7922,7 +7937,7 @@
       <c r="U227" s="4"/>
       <c r="V227" s="4"/>
     </row>
-    <row r="228" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -7944,7 +7959,7 @@
       <c r="U228" s="4"/>
       <c r="V228" s="4"/>
     </row>
-    <row r="229" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -7966,7 +7981,7 @@
       <c r="U229" s="4"/>
       <c r="V229" s="4"/>
     </row>
-    <row r="230" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -7988,7 +8003,7 @@
       <c r="U230" s="4"/>
       <c r="V230" s="4"/>
     </row>
-    <row r="231" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -8010,7 +8025,7 @@
       <c r="U231" s="4"/>
       <c r="V231" s="4"/>
     </row>
-    <row r="232" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -8032,7 +8047,7 @@
       <c r="U232" s="4"/>
       <c r="V232" s="4"/>
     </row>
-    <row r="233" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -8054,7 +8069,7 @@
       <c r="U233" s="4"/>
       <c r="V233" s="4"/>
     </row>
-    <row r="234" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -8076,7 +8091,7 @@
       <c r="U234" s="4"/>
       <c r="V234" s="4"/>
     </row>
-    <row r="235" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -8098,7 +8113,7 @@
       <c r="U235" s="4"/>
       <c r="V235" s="4"/>
     </row>
-    <row r="236" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -8120,7 +8135,7 @@
       <c r="U236" s="4"/>
       <c r="V236" s="4"/>
     </row>
-    <row r="237" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -8142,7 +8157,7 @@
       <c r="U237" s="4"/>
       <c r="V237" s="4"/>
     </row>
-    <row r="238" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -8164,7 +8179,7 @@
       <c r="U238" s="4"/>
       <c r="V238" s="4"/>
     </row>
-    <row r="239" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -8186,7 +8201,7 @@
       <c r="U239" s="4"/>
       <c r="V239" s="4"/>
     </row>
-    <row r="240" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -8208,7 +8223,7 @@
       <c r="U240" s="4"/>
       <c r="V240" s="4"/>
     </row>
-    <row r="241" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -8230,7 +8245,7 @@
       <c r="U241" s="4"/>
       <c r="V241" s="4"/>
     </row>
-    <row r="242" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -8252,7 +8267,7 @@
       <c r="U242" s="4"/>
       <c r="V242" s="4"/>
     </row>
-    <row r="243" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -8274,7 +8289,7 @@
       <c r="U243" s="4"/>
       <c r="V243" s="4"/>
     </row>
-    <row r="244" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
@@ -8296,7 +8311,7 @@
       <c r="U244" s="4"/>
       <c r="V244" s="4"/>
     </row>
-    <row r="245" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
@@ -8318,7 +8333,7 @@
       <c r="U245" s="4"/>
       <c r="V245" s="4"/>
     </row>
-    <row r="246" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
@@ -8340,7 +8355,7 @@
       <c r="U246" s="4"/>
       <c r="V246" s="4"/>
     </row>
-    <row r="247" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -8362,7 +8377,7 @@
       <c r="U247" s="4"/>
       <c r="V247" s="4"/>
     </row>
-    <row r="248" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
@@ -8384,7 +8399,7 @@
       <c r="U248" s="4"/>
       <c r="V248" s="4"/>
     </row>
-    <row r="249" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
@@ -8406,7 +8421,7 @@
       <c r="U249" s="4"/>
       <c r="V249" s="4"/>
     </row>
-    <row r="250" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
@@ -8428,7 +8443,7 @@
       <c r="U250" s="4"/>
       <c r="V250" s="4"/>
     </row>
-    <row r="251" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -8450,7 +8465,7 @@
       <c r="U251" s="4"/>
       <c r="V251" s="4"/>
     </row>
-    <row r="252" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
@@ -8472,7 +8487,7 @@
       <c r="U252" s="4"/>
       <c r="V252" s="4"/>
     </row>
-    <row r="253" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
@@ -8494,7 +8509,7 @@
       <c r="U253" s="4"/>
       <c r="V253" s="4"/>
     </row>
-    <row r="254" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
@@ -8516,7 +8531,7 @@
       <c r="U254" s="4"/>
       <c r="V254" s="4"/>
     </row>
-    <row r="255" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
@@ -8538,7 +8553,7 @@
       <c r="U255" s="4"/>
       <c r="V255" s="4"/>
     </row>
-    <row r="256" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
@@ -8560,7 +8575,7 @@
       <c r="U256" s="4"/>
       <c r="V256" s="4"/>
     </row>
-    <row r="257" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -8582,7 +8597,7 @@
       <c r="U257" s="4"/>
       <c r="V257" s="4"/>
     </row>
-    <row r="258" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
@@ -8604,7 +8619,7 @@
       <c r="U258" s="4"/>
       <c r="V258" s="4"/>
     </row>
-    <row r="259" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
@@ -8626,7 +8641,7 @@
       <c r="U259" s="4"/>
       <c r="V259" s="4"/>
     </row>
-    <row r="260" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
@@ -8648,7 +8663,7 @@
       <c r="U260" s="4"/>
       <c r="V260" s="4"/>
     </row>
-    <row r="261" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
@@ -8670,7 +8685,7 @@
       <c r="U261" s="4"/>
       <c r="V261" s="4"/>
     </row>
-    <row r="262" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
@@ -8692,7 +8707,7 @@
       <c r="U262" s="4"/>
       <c r="V262" s="4"/>
     </row>
-    <row r="263" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
@@ -8714,7 +8729,7 @@
       <c r="U263" s="4"/>
       <c r="V263" s="4"/>
     </row>
-    <row r="264" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
@@ -8736,7 +8751,7 @@
       <c r="U264" s="4"/>
       <c r="V264" s="4"/>
     </row>
-    <row r="265" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
@@ -8758,7 +8773,7 @@
       <c r="U265" s="4"/>
       <c r="V265" s="4"/>
     </row>
-    <row r="266" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
@@ -8780,7 +8795,7 @@
       <c r="U266" s="4"/>
       <c r="V266" s="4"/>
     </row>
-    <row r="267" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>

--- a/ADS.xlsx
+++ b/ADS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7A0847-FD09-4FA7-B563-CDCB64FDB88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63E54E6-43D1-4AE1-9084-B6FA833FC0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{5CA27069-BA8E-4704-98A3-1B68BB8C6A2D}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{5CA27069-BA8E-4704-98A3-1B68BB8C6A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Marketing Expenses</t>
-  </si>
-  <si>
-    <t>Administrative Expenses</t>
   </si>
   <si>
     <t>Sales Expenses</t>
@@ -269,6 +266,9 @@
   <si>
     <t>ADS.DE</t>
   </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
 </sst>
 </file>
 
@@ -279,13 +279,19 @@
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -349,26 +355,31 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -705,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010FB125-5721-48E0-B2EE-531517EC3DD6}">
-  <dimension ref="A1:BA10"/>
+  <dimension ref="A1:BA29"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,93 +730,531 @@
     <col min="7" max="53" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2">
-        <v>166.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" s="2" t="s">
-        <v>47</v>
+      <c r="I2" s="15">
+        <v>157.55000000000001</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="I3" s="4">
         <v>178.54908399999999</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
       <c r="B4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="16">
         <f>I2*I3</f>
-        <v>29799.842119599998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="2" t="s">
+        <v>28130.408184200001</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="7">
-        <f>768+761</f>
-        <v>1529</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="I5" s="16">
+        <v>1030</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" s="2" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="7">
-        <f>705+419+1907+69</f>
-        <v>3100</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="16">
+        <f>1802+17+656</f>
+        <v>2475</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" s="2" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="16">
         <f>I4-I5+I6</f>
-        <v>31370.842119599998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H9" s="2" t="s">
+        <v>29575.408184200001</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H10" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -819,11 +1268,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8AFDA6-8DF7-49F6-9902-DB49A0E15CEA}">
   <dimension ref="A1:AC267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -864,16 +1313,16 @@
         <v>15</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5" t="s">
@@ -900,1999 +1349,2062 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="8">
+        <v>49</v>
+      </c>
+      <c r="C3" s="7">
         <v>809</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>806</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>795</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>832</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>821</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>806</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>823</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>838</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>836</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>844</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8">
+      <c r="M3" s="7">
+        <v>866</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7">
         <v>832</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="7">
         <v>838</v>
       </c>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="8">
+        <v>50</v>
+      </c>
+      <c r="C4" s="7">
         <v>997</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>1062</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>1095</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>1031</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>1046</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>1062</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>1078</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>1095</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>1097</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>1098</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8">
+      <c r="M4" s="7">
+        <v>1115</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7">
         <v>1031</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="7">
         <v>1095</v>
       </c>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="9">
+        <v>51</v>
+      </c>
+      <c r="C5" s="8">
         <f t="shared" ref="C5:J5" si="0">+C3+C4</f>
         <v>1806</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
         <v>1868</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <f t="shared" si="0"/>
         <v>1890</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>1863</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <f t="shared" si="0"/>
         <v>1867</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <f t="shared" si="0"/>
         <v>1868</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <f t="shared" si="0"/>
         <v>1901</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <f t="shared" si="0"/>
         <v>1933</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <f>+K3+K4</f>
         <v>1933</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <f t="shared" ref="L5:N5" si="1">+L3+L4</f>
         <v>1942</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
+        <f t="shared" si="1"/>
+        <v>1981</v>
+      </c>
+      <c r="N5" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="9">
+      <c r="O5" s="7"/>
+      <c r="P5" s="8">
         <f t="shared" ref="P5:V5" si="2">+P3+P4</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="8">
         <f t="shared" si="2"/>
         <v>1863</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="8">
         <f t="shared" si="2"/>
         <v>1933</v>
       </c>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="8">
+        <v>55</v>
+      </c>
+      <c r="C7" s="7">
         <v>1509</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>1592</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>1812</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>1389</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>1733</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>1912</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>2152</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>1754</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>1986</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>1997</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8">
+      <c r="M7" s="7">
+        <v>2328</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7">
         <v>6302</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="7">
         <v>7551</v>
       </c>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="8">
+        <v>56</v>
+      </c>
+      <c r="C8" s="7">
         <v>1177</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>1399</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>1484</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>1159</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>1122</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>1302</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>1362</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>1342</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>1184</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>1339</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8">
+      <c r="M8" s="7">
+        <v>1298</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7">
         <v>5219</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="7">
         <v>5128</v>
       </c>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="8">
+        <v>57</v>
+      </c>
+      <c r="C9" s="7">
         <v>884</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>766</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>870</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>670</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>897</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>822</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>946</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>794</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>1029</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>798</v>
       </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8">
+      <c r="M9" s="7">
+        <v>947</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7">
         <v>3190</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="7">
         <v>3459</v>
       </c>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="8">
+        <v>64</v>
+      </c>
+      <c r="C10" s="7">
         <v>672</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>600</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>834</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>744</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>712</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>749</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>910</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>940</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>1954</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>1818</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8">
+      <c r="M10" s="7">
+        <f>935+720+358</f>
+        <v>2013</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7">
         <v>2850</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="7">
         <v>3310</v>
       </c>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="8">
+        <v>65</v>
+      </c>
+      <c r="C11" s="7">
         <v>3023</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>3102</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>3421</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>2538</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>3239</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>3573</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>3773</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>3390</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>3760</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>2476</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8">
+      <c r="M11" s="7">
+        <v>3750</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7">
         <v>12083</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V11" s="7">
         <v>13975</v>
       </c>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="8">
+        <v>66</v>
+      </c>
+      <c r="C12" s="7">
         <v>1911</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>1836</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>2188</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>1992</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>1885</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>1892</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>2245</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>2194</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>1968</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>2029</v>
       </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8">
+      <c r="M12" s="7">
+        <v>2383</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7">
         <v>7856</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="7">
         <v>8216</v>
       </c>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="8">
+        <v>67</v>
+      </c>
+      <c r="C13" s="7">
         <v>340</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>405</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>390</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>352</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>328</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>370</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>421</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>380</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>424</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>447</v>
       </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8">
+      <c r="M13" s="7">
+        <v>496</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7">
         <v>1488</v>
       </c>
-      <c r="V13" s="8">
+      <c r="V13" s="7">
         <v>1499</v>
       </c>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>5274</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>5343</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>5999</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>4812</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>5458</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>5822</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>6438</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>5965</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <v>6153</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <v>5952</v>
       </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9">
+      <c r="M14" s="8">
+        <v>6630</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8">
         <v>21915</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="8">
         <v>23640</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="8">
         <v>18435</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="8">
         <v>21234</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="8">
         <v>22511</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="8">
         <v>21427</v>
       </c>
-      <c r="V14" s="9">
+      <c r="V14" s="8">
         <v>23683</v>
       </c>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>2911</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>2625</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>3044</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>2664</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>2662</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>2863</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>3137</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>2995</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>2948</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>2875</v>
       </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8">
+      <c r="M15" s="7">
+        <v>3195</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7">
         <v>10552</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="7">
         <v>11347</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="7">
         <v>9213</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="7">
         <v>10469</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="7">
         <v>11867</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U15" s="7">
         <v>11244</v>
       </c>
-      <c r="V15" s="8">
+      <c r="V15" s="7">
         <v>11658</v>
       </c>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <f t="shared" ref="C16" si="3">C14-C15</f>
         <v>2363</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <f t="shared" ref="D16" si="4">D14-D15</f>
         <v>2718</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <f t="shared" ref="E16" si="5">E14-E15</f>
         <v>2955</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <f t="shared" ref="F16" si="6">F14-F15</f>
         <v>2148</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <f t="shared" ref="G16" si="7">G14-G15</f>
         <v>2796</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <f t="shared" ref="H16" si="8">H14-H15</f>
         <v>2959</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <f t="shared" ref="I16" si="9">I14-I15</f>
         <v>3301</v>
       </c>
-      <c r="J16" s="8">
-        <f t="shared" ref="J16:L16" si="10">J14-J15</f>
+      <c r="J16" s="7">
+        <f t="shared" ref="J16:M16" si="10">J14-J15</f>
         <v>2970</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <f t="shared" si="10"/>
         <v>3205</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <f t="shared" si="10"/>
         <v>3077</v>
       </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8">
+      <c r="M16" s="7">
+        <f t="shared" si="10"/>
+        <v>3435</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7">
         <f t="shared" ref="P16:T16" si="11">P14-P15</f>
         <v>11363</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="7">
         <f t="shared" si="11"/>
         <v>12293</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="7">
         <f t="shared" si="11"/>
         <v>9222</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="7">
         <f t="shared" si="11"/>
         <v>10765</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="7">
         <f t="shared" si="11"/>
         <v>10644</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="7">
         <f>U14-U15</f>
         <v>10183</v>
       </c>
-      <c r="V16" s="8">
+      <c r="V16" s="7">
         <f>V14-V15</f>
         <v>12025</v>
       </c>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>25</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>21</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>20</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>17</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>17</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>19</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <v>20</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <v>26</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>19</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <v>18</v>
       </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8">
+      <c r="M17" s="7">
+        <v>24</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7">
         <v>129</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="7">
         <v>154</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="7">
         <v>61</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="7">
         <v>86</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="7">
         <v>112</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U17" s="7">
         <v>83</v>
       </c>
-      <c r="V17" s="8">
+      <c r="V17" s="7">
         <v>81</v>
       </c>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="B18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="7">
         <v>39</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>18</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>5</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>10</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>2</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>6</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <v>113</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>53</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>1</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <v>1</v>
       </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8">
+      <c r="M18" s="7">
+        <v>18</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7">
         <v>48</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="7">
         <v>56</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="7">
         <v>42</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="7">
         <v>28</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T18" s="7">
         <v>173</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U18" s="7">
         <v>71</v>
       </c>
-      <c r="V18" s="8">
+      <c r="V18" s="7">
         <v>174</v>
       </c>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>601</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>617</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>644</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>0</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>657</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>707</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>724</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <v>0</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>746</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>712</v>
       </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8">
+      <c r="M19" s="7">
+        <v>798</v>
+      </c>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7">
         <v>3001</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="7">
         <v>3042</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R19" s="7">
         <v>2373</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S19" s="7">
         <v>2547</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="7">
         <v>2763</v>
       </c>
-      <c r="U19" s="8">
+      <c r="U19" s="7">
         <v>2528</v>
       </c>
-      <c r="V19" s="8">
+      <c r="V19" s="7">
         <f>+SUM(G19:J19)</f>
         <v>2088</v>
       </c>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="B20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7">
         <v>1766</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>1965</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>1926</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>2551</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>1822</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>1930</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>2114</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <v>2992</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <v>1870</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <v>1837</v>
       </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8">
+      <c r="M20" s="7">
+        <v>1943</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7">
         <v>4450</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="7">
         <v>4997</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="7">
         <v>4601</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="7">
         <v>4782</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="7">
         <v>5601</v>
       </c>
-      <c r="U20" s="8">
+      <c r="U20" s="7">
         <v>5547</v>
       </c>
-      <c r="V20" s="8">
+      <c r="V20" s="7">
         <f>+SUM(G20:J20)</f>
         <v>8858</v>
       </c>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="B21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="7">
         <v>0</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>0</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>0</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>0</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>0</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <v>0</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <v>0</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="7">
         <v>0</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <v>2615</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <v>2549</v>
       </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8">
+      <c r="M21" s="7">
+        <v>2740</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7">
         <v>1576</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="7">
         <v>1652</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="7">
         <v>1379</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21" s="7">
         <v>1481</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T21" s="7">
         <v>1651</v>
       </c>
-      <c r="U21" s="8">
+      <c r="U21" s="7">
         <v>1839</v>
       </c>
-      <c r="V21" s="8">
+      <c r="V21" s="7">
         <f>+SUM(G21:J21)</f>
         <v>0</v>
       </c>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>0</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>0</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>0</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <v>0</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>0</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="7">
         <v>0</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="7">
         <v>0</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="7">
         <v>0</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="7">
         <v>0</v>
       </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7">
         <f>105+41</f>
         <v>146</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="7">
         <f>134+18</f>
         <v>152</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R22" s="7">
         <f>116+111</f>
         <v>227</v>
       </c>
-      <c r="S22" s="8">
+      <c r="S22" s="7">
         <f>76+6</f>
         <v>82</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T22" s="7">
         <f>182+63</f>
         <v>245</v>
       </c>
-      <c r="U22" s="8">
+      <c r="U22" s="7">
         <f>137+19</f>
         <v>156</v>
       </c>
-      <c r="V22" s="8">
+      <c r="V22" s="7">
         <f>+SUM(G22:J22)</f>
         <v>0</v>
       </c>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="8">
+      <c r="B23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="7">
         <f t="shared" ref="C23:F23" si="12">C16+C17+C18-C19-C20</f>
         <v>60</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <f t="shared" si="12"/>
         <v>175</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <f t="shared" si="12"/>
         <v>410</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <f t="shared" si="12"/>
         <v>-376</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <f>G16+G17+G18-G19-G20</f>
         <v>336</v>
       </c>
-      <c r="H23" s="8">
-        <f t="shared" ref="H23:L23" si="13">H16+H17+H18-H19-H20</f>
+      <c r="H23" s="7">
+        <f t="shared" ref="H23:M23" si="13">H16+H17+H18-H19-H20</f>
         <v>347</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <f t="shared" si="13"/>
         <v>596</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="7">
         <f t="shared" si="13"/>
         <v>57</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
         <f t="shared" si="13"/>
         <v>609</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="7">
+        <f>L16+L17+L18-L19-L20</f>
+        <v>547</v>
+      </c>
+      <c r="M23" s="7">
         <f t="shared" si="13"/>
-        <v>547</v>
-      </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8">
+        <v>736</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7">
         <f t="shared" ref="P23:T23" si="14">P16+P17+P18-SUM(P19:P22)</f>
         <v>2367</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="7">
         <f t="shared" si="14"/>
         <v>2660</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="7">
         <f t="shared" si="14"/>
         <v>745</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S23" s="7">
         <f t="shared" si="14"/>
         <v>1987</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="7">
         <f t="shared" si="14"/>
         <v>669</v>
       </c>
-      <c r="U23" s="8">
+      <c r="U23" s="7">
         <f>U16+U17+U18-SUM(U19:U22)</f>
         <v>267</v>
       </c>
-      <c r="V23" s="8">
+      <c r="V23" s="7">
         <f>V16+V17+V18-SUM(V19:V22)</f>
         <v>1334</v>
       </c>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="7">
+        <v>13</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19</v>
+      </c>
+      <c r="E24" s="7">
+        <v>31</v>
+      </c>
+      <c r="F24" s="7">
+        <v>25</v>
+      </c>
+      <c r="G24" s="7">
+        <v>24</v>
+      </c>
+      <c r="H24" s="7">
+        <v>20</v>
+      </c>
+      <c r="I24" s="7">
+        <v>29</v>
+      </c>
+      <c r="J24" s="7">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7">
+        <v>34</v>
+      </c>
+      <c r="L24" s="7">
+        <v>9</v>
+      </c>
+      <c r="M24" s="7">
+        <v>12</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7">
+        <v>57</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>64</v>
+      </c>
+      <c r="R24" s="7">
+        <v>29</v>
+      </c>
+      <c r="S24" s="7">
+        <v>19</v>
+      </c>
+      <c r="T24" s="7">
+        <v>39</v>
+      </c>
+      <c r="U24" s="7">
+        <v>79</v>
+      </c>
+      <c r="V24" s="7">
+        <v>101</v>
+      </c>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="8">
-        <v>13</v>
-      </c>
-      <c r="D24" s="8">
-        <v>19</v>
-      </c>
-      <c r="E24" s="8">
-        <v>31</v>
-      </c>
-      <c r="F24" s="8">
+      <c r="C25" s="7">
+        <v>41</v>
+      </c>
+      <c r="D25" s="7">
+        <v>71</v>
+      </c>
+      <c r="E25" s="7">
+        <v>115</v>
+      </c>
+      <c r="F25" s="7">
+        <v>63</v>
+      </c>
+      <c r="G25" s="7">
+        <v>115</v>
+      </c>
+      <c r="H25" s="7">
+        <v>62</v>
+      </c>
+      <c r="I25" s="7">
         <v>25</v>
       </c>
-      <c r="G24" s="8">
-        <v>24</v>
-      </c>
-      <c r="H24" s="8">
-        <v>20</v>
-      </c>
-      <c r="I24" s="8">
-        <v>29</v>
-      </c>
-      <c r="J24" s="8">
-        <v>30</v>
-      </c>
-      <c r="K24" s="8">
+      <c r="J25" s="7">
+        <v>115</v>
+      </c>
+      <c r="K25" s="7">
+        <v>59</v>
+      </c>
+      <c r="L25" s="7">
+        <v>67</v>
+      </c>
+      <c r="M25" s="7">
+        <v>98</v>
+      </c>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7">
+        <v>47</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>166</v>
+      </c>
+      <c r="R25" s="7">
+        <v>196</v>
+      </c>
+      <c r="S25" s="7">
+        <v>153</v>
+      </c>
+      <c r="T25" s="7">
+        <v>320</v>
+      </c>
+      <c r="U25" s="7">
+        <v>282</v>
+      </c>
+      <c r="V25" s="7">
+        <v>317</v>
+      </c>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="8">
-        <v>9</v>
-      </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8">
-        <v>57</v>
-      </c>
-      <c r="Q24" s="8">
-        <v>64</v>
-      </c>
-      <c r="R24" s="8">
-        <v>29</v>
-      </c>
-      <c r="S24" s="8">
-        <v>19</v>
-      </c>
-      <c r="T24" s="8">
-        <v>39</v>
-      </c>
-      <c r="U24" s="8">
-        <v>79</v>
-      </c>
-      <c r="V24" s="8">
-        <v>101</v>
-      </c>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="8">
-        <v>41</v>
-      </c>
-      <c r="D25" s="8">
-        <v>71</v>
-      </c>
-      <c r="E25" s="8">
-        <v>115</v>
-      </c>
-      <c r="F25" s="8">
-        <v>63</v>
-      </c>
-      <c r="G25" s="8">
-        <v>115</v>
-      </c>
-      <c r="H25" s="8">
-        <v>62</v>
-      </c>
-      <c r="I25" s="8">
-        <v>25</v>
-      </c>
-      <c r="J25" s="8">
-        <v>115</v>
-      </c>
-      <c r="K25" s="8">
-        <v>59</v>
-      </c>
-      <c r="L25" s="8">
-        <v>67</v>
-      </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8">
-        <v>47</v>
-      </c>
-      <c r="Q25" s="8">
-        <v>166</v>
-      </c>
-      <c r="R25" s="8">
-        <v>196</v>
-      </c>
-      <c r="S25" s="8">
-        <v>153</v>
-      </c>
-      <c r="T25" s="8">
-        <v>320</v>
-      </c>
-      <c r="U25" s="8">
-        <v>282</v>
-      </c>
-      <c r="V25" s="8">
-        <v>317</v>
-      </c>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <f t="shared" ref="C26" si="15">C23+C24-C25</f>
         <v>32</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <f t="shared" ref="D26" si="16">D23+D24-D25</f>
         <v>123</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <f t="shared" ref="E26" si="17">E23+E24-E25</f>
         <v>326</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <f t="shared" ref="F26" si="18">F23+F24-F25</f>
         <v>-414</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <f t="shared" ref="G26" si="19">G23+G24-G25</f>
         <v>245</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <f t="shared" ref="H26" si="20">H23+H24-H25</f>
         <v>305</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <f t="shared" ref="I26" si="21">I23+I24-I25</f>
         <v>600</v>
       </c>
-      <c r="J26" s="8">
-        <f t="shared" ref="J26:L26" si="22">J23+J24-J25</f>
+      <c r="J26" s="7">
+        <f t="shared" ref="J26:M26" si="22">J23+J24-J25</f>
         <v>-28</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="7">
         <f t="shared" si="22"/>
         <v>584</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="7">
         <f t="shared" si="22"/>
         <v>489</v>
       </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8">
+      <c r="M26" s="7">
+        <f t="shared" si="22"/>
+        <v>650</v>
+      </c>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7">
         <f t="shared" ref="P26:T26" si="23">P23+P24-P25</f>
         <v>2377</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="7">
         <f t="shared" si="23"/>
         <v>2558</v>
       </c>
-      <c r="R26" s="8">
+      <c r="R26" s="7">
         <f t="shared" si="23"/>
         <v>578</v>
       </c>
-      <c r="S26" s="8">
+      <c r="S26" s="7">
         <f t="shared" si="23"/>
         <v>1853</v>
       </c>
-      <c r="T26" s="8">
+      <c r="T26" s="7">
         <f t="shared" si="23"/>
         <v>388</v>
       </c>
-      <c r="U26" s="8">
+      <c r="U26" s="7">
         <f>U23+U24-U25</f>
         <v>64</v>
       </c>
-      <c r="V26" s="8">
+      <c r="V26" s="7">
         <f>+SUM(G26:J26)</f>
         <v>1122</v>
       </c>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B27" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="B27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="7">
         <v>55</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>27</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>55</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>-14</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>74</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <v>93</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <v>133</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="7">
         <v>-2</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="7">
         <v>149</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="7">
         <v>114</v>
       </c>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8">
+      <c r="M27" s="7">
+        <v>169</v>
+      </c>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7">
         <v>669</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="Q27" s="7">
         <v>640</v>
       </c>
-      <c r="R27" s="8">
+      <c r="R27" s="7">
         <v>117</v>
       </c>
-      <c r="S27" s="8">
+      <c r="S27" s="7">
         <v>360</v>
       </c>
-      <c r="T27" s="8">
+      <c r="T27" s="7">
         <v>134</v>
       </c>
-      <c r="U27" s="8">
+      <c r="U27" s="7">
         <v>124</v>
       </c>
-      <c r="V27" s="8">
+      <c r="V27" s="7">
         <v>297</v>
       </c>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="B28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="7">
         <f t="shared" ref="C28" si="24">C26-C27</f>
         <v>-23</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <f t="shared" ref="D28" si="25">D26-D27</f>
         <v>96</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <f t="shared" ref="E28" si="26">E26-E27</f>
         <v>271</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <f t="shared" ref="F28" si="27">F26-F27</f>
         <v>-400</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <f t="shared" ref="G28" si="28">G26-G27</f>
         <v>171</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <f t="shared" ref="H28" si="29">H26-H27</f>
         <v>212</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="7">
         <f t="shared" ref="I28" si="30">I26-I27</f>
         <v>467</v>
       </c>
-      <c r="J28" s="8">
-        <f t="shared" ref="J28:L28" si="31">J26-J27</f>
+      <c r="J28" s="7">
+        <f t="shared" ref="J28:M28" si="31">J26-J27</f>
         <v>-26</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="7">
         <f t="shared" si="31"/>
         <v>435</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="7">
         <f t="shared" si="31"/>
         <v>375</v>
       </c>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8">
+      <c r="M28" s="7">
+        <f t="shared" si="31"/>
+        <v>481</v>
+      </c>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7">
         <f t="shared" ref="P28:T28" si="32">P26-P27</f>
         <v>1708</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="Q28" s="7">
         <f t="shared" si="32"/>
         <v>1918</v>
       </c>
-      <c r="R28" s="8">
+      <c r="R28" s="7">
         <f t="shared" si="32"/>
         <v>461</v>
       </c>
-      <c r="S28" s="8">
+      <c r="S28" s="7">
         <f t="shared" si="32"/>
         <v>1493</v>
       </c>
-      <c r="T28" s="8">
+      <c r="T28" s="7">
         <f t="shared" si="32"/>
         <v>254</v>
       </c>
-      <c r="U28" s="8">
+      <c r="U28" s="7">
         <f>U26-U27</f>
         <v>-60</v>
       </c>
-      <c r="V28" s="8">
+      <c r="V28" s="7">
         <f>V26-V27</f>
         <v>825</v>
       </c>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="8">
+      <c r="B29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="7">
         <v>-6</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>-1</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <v>10</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <v>42</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <v>-1</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="7">
         <v>-6</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <v>7</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="7">
         <v>7</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="7">
         <v>-7</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="7">
         <v>6</v>
       </c>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8">
+      <c r="M29" s="7">
+        <v>3</v>
+      </c>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7">
         <v>-5</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="Q29" s="7">
         <v>59</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R29" s="7">
         <v>-19</v>
       </c>
-      <c r="S29" s="8">
+      <c r="S29" s="7">
         <v>666</v>
       </c>
-      <c r="T29" s="8">
+      <c r="T29" s="7">
         <v>384</v>
       </c>
-      <c r="U29" s="8">
+      <c r="U29" s="7">
         <v>44</v>
       </c>
-      <c r="V29" s="8">
+      <c r="V29" s="7">
         <v>8</v>
       </c>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B30" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="8">
+      <c r="B30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="7">
         <f t="shared" ref="C30" si="33">C28+C29</f>
         <v>-29</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <f t="shared" ref="D30" si="34">D28+D29</f>
         <v>95</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <f t="shared" ref="E30" si="35">E28+E29</f>
         <v>281</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <f t="shared" ref="F30" si="36">F28+F29</f>
         <v>-358</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <f t="shared" ref="G30" si="37">G28+G29</f>
         <v>170</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="7">
         <f t="shared" ref="H30" si="38">H28+H29</f>
         <v>206</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="7">
         <f t="shared" ref="I30" si="39">I28+I29</f>
         <v>474</v>
       </c>
-      <c r="J30" s="8">
-        <f t="shared" ref="J30:L30" si="40">J28+J29</f>
+      <c r="J30" s="7">
+        <f t="shared" ref="J30:M30" si="40">J28+J29</f>
         <v>-19</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="7">
         <f t="shared" si="40"/>
         <v>428</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="7">
         <f t="shared" si="40"/>
         <v>381</v>
       </c>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8">
+      <c r="M30" s="7">
+        <f t="shared" si="40"/>
+        <v>484</v>
+      </c>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7">
         <f t="shared" ref="P30:T30" si="41">P28+P29</f>
         <v>1703</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="Q30" s="7">
         <f t="shared" si="41"/>
         <v>1977</v>
       </c>
-      <c r="R30" s="8">
+      <c r="R30" s="7">
         <f t="shared" si="41"/>
         <v>442</v>
       </c>
-      <c r="S30" s="8">
+      <c r="S30" s="7">
         <f t="shared" si="41"/>
         <v>2159</v>
       </c>
-      <c r="T30" s="8">
+      <c r="T30" s="7">
         <f t="shared" si="41"/>
         <v>638</v>
       </c>
-      <c r="U30" s="8">
+      <c r="U30" s="7">
         <f>U28+U29</f>
         <v>-16</v>
       </c>
-      <c r="V30" s="8">
+      <c r="V30" s="7">
         <f>V28+V29</f>
         <v>833</v>
       </c>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="7">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7">
+        <v>11</v>
+      </c>
+      <c r="E31" s="7">
+        <v>21</v>
+      </c>
+      <c r="F31" s="7">
+        <v>-379</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>16</v>
+      </c>
+      <c r="I31" s="7">
+        <v>33</v>
+      </c>
+      <c r="J31" s="7">
+        <v>-39</v>
+      </c>
+      <c r="K31" s="7">
+        <v>1</v>
+      </c>
+      <c r="L31" s="7">
+        <v>11</v>
+      </c>
+      <c r="M31" s="7">
+        <v>23</v>
+      </c>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>2</v>
+      </c>
+      <c r="R31" s="7">
+        <v>11</v>
+      </c>
+      <c r="S31" s="7">
+        <v>42</v>
+      </c>
+      <c r="T31" s="7">
+        <v>26</v>
+      </c>
+      <c r="U31" s="7">
+        <v>61</v>
+      </c>
+      <c r="V31" s="7">
+        <v>764</v>
+      </c>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="8">
-        <v>9</v>
-      </c>
-      <c r="D31" s="8">
-        <v>11</v>
-      </c>
-      <c r="E31" s="8">
-        <v>21</v>
-      </c>
-      <c r="F31" s="8">
-        <v>-379</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0</v>
-      </c>
-      <c r="H31" s="8">
-        <v>16</v>
-      </c>
-      <c r="I31" s="8">
-        <v>33</v>
-      </c>
-      <c r="J31" s="8">
-        <v>-39</v>
-      </c>
-      <c r="K31" s="8">
-        <v>1</v>
-      </c>
-      <c r="L31" s="8">
-        <v>11</v>
-      </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q31" s="8">
-        <v>2</v>
-      </c>
-      <c r="R31" s="8">
-        <v>11</v>
-      </c>
-      <c r="S31" s="8">
-        <v>42</v>
-      </c>
-      <c r="T31" s="8">
-        <v>26</v>
-      </c>
-      <c r="U31" s="8">
-        <v>61</v>
-      </c>
-      <c r="V31" s="8">
-        <v>764</v>
-      </c>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B32" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <f t="shared" ref="C32" si="42">C30-C31</f>
         <v>-38</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <f t="shared" ref="D32" si="43">D30-D31</f>
         <v>84</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <f t="shared" ref="E32" si="44">E30-E31</f>
         <v>260</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
         <f t="shared" ref="F32" si="45">F30-F31</f>
         <v>21</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <f t="shared" ref="G32" si="46">G30-G31</f>
         <v>170</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="7">
         <f>H30-H31</f>
         <v>190</v>
       </c>
-      <c r="I32" s="8">
-        <f t="shared" ref="I32:L32" si="47">I30-I31</f>
+      <c r="I32" s="7">
+        <f t="shared" ref="I32:M32" si="47">I30-I31</f>
         <v>441</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="7">
         <f t="shared" si="47"/>
         <v>20</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="7">
         <f t="shared" si="47"/>
         <v>427</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="7">
         <f t="shared" si="47"/>
         <v>370</v>
       </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8">
+      <c r="M32" s="7">
+        <f t="shared" si="47"/>
+        <v>461</v>
+      </c>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7">
         <f t="shared" ref="P32:T32" si="48">P30-P31</f>
         <v>1700</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="Q32" s="7">
         <f t="shared" si="48"/>
         <v>1975</v>
       </c>
-      <c r="R32" s="8">
+      <c r="R32" s="7">
         <f t="shared" si="48"/>
         <v>431</v>
       </c>
-      <c r="S32" s="8">
+      <c r="S32" s="7">
         <f t="shared" si="48"/>
         <v>2117</v>
       </c>
-      <c r="T32" s="8">
+      <c r="T32" s="7">
         <f t="shared" si="48"/>
         <v>612</v>
       </c>
-      <c r="U32" s="8">
+      <c r="U32" s="7">
         <f>U30-U31</f>
         <v>-77</v>
       </c>
-      <c r="V32" s="8">
+      <c r="V32" s="7">
         <f>V30-V31</f>
         <v>69</v>
       </c>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="4">
         <v>-0.22</v>
@@ -2918,43 +3430,46 @@
         <v>0.11201401626905014</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" ref="K34:L34" si="49">+K32/K35</f>
+        <f t="shared" ref="K34:M34" si="49">+K32/K35</f>
         <v>2.3914992473442207</v>
       </c>
       <c r="L34" s="4">
         <f t="shared" si="49"/>
         <v>2.0722209435125509</v>
       </c>
-      <c r="M34" s="4"/>
+      <c r="M34" s="4">
+        <f t="shared" si="49"/>
+        <v>2.581923075001606</v>
+      </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
-      <c r="P34" s="10">
+      <c r="P34" s="9">
         <v>8.44</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="Q34" s="9">
         <v>10</v>
       </c>
-      <c r="R34" s="10">
+      <c r="R34" s="9">
         <v>2.31</v>
       </c>
-      <c r="S34" s="10">
+      <c r="S34" s="9">
         <v>7.47</v>
       </c>
-      <c r="T34" s="10">
+      <c r="T34" s="9">
         <v>1.25</v>
       </c>
-      <c r="U34" s="10">
+      <c r="U34" s="9">
         <f>+U32/U35</f>
         <v>-0.43125396263584304</v>
       </c>
-      <c r="V34" s="10">
+      <c r="V34" s="9">
         <f>+V32/V35</f>
         <v>0.38644835612822298</v>
       </c>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" ref="C35:I35" si="50">C32/C34</f>
@@ -2993,7 +3508,9 @@
       <c r="L35" s="4">
         <v>178.55238900000001</v>
       </c>
-      <c r="M35" s="4"/>
+      <c r="M35" s="4">
+        <v>178.54908399999999</v>
+      </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4">
@@ -3047,998 +3564,998 @@
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="11">
+      <c r="G37" s="10">
         <f t="shared" ref="G37:I38" si="52">+G3/C3-1</f>
         <v>1.4833127317676054E-2</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="10">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="10">
         <f t="shared" si="52"/>
         <v>3.5220125786163514E-2</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="10">
         <f>+J3/F3-1</f>
         <v>7.2115384615385469E-3</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="10">
         <f t="shared" ref="K37:N38" si="53">+K3/G3-1</f>
         <v>1.8270401948842885E-2</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="10">
         <f t="shared" si="53"/>
         <v>4.7146401985111552E-2</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="10">
+        <f t="shared" si="53"/>
+        <v>5.2247873633049835E-2</v>
+      </c>
+      <c r="N37" s="10">
         <f t="shared" si="53"/>
         <v>-1</v>
       </c>
-      <c r="N37" s="11">
-        <f t="shared" si="53"/>
-        <v>-1</v>
-      </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
-      <c r="Q37" s="11" t="e">
+      <c r="Q37" s="10" t="e">
         <f t="shared" ref="Q37:U37" si="54">+Q3/P3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R37" s="11" t="e">
+      <c r="R37" s="10" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S37" s="11" t="e">
+      <c r="S37" s="10" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T37" s="11" t="e">
+      <c r="T37" s="10" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U37" s="11" t="e">
+      <c r="U37" s="10" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V37" s="11">
+      <c r="V37" s="10">
         <f>+V3/U3-1</f>
         <v>7.2115384615385469E-3</v>
       </c>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="11">
+      <c r="G38" s="10">
         <f t="shared" si="52"/>
         <v>4.9147442326980872E-2</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="10">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="10">
         <f t="shared" si="52"/>
         <v>-1.5525114155251152E-2</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="10">
         <f t="shared" ref="J38" si="55">+J4/F4-1</f>
         <v>6.2075654704170757E-2</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="10">
         <f t="shared" si="53"/>
         <v>4.8757170172084141E-2</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="10">
         <f t="shared" si="53"/>
         <v>3.3898305084745672E-2</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M38" s="10">
+        <f t="shared" si="53"/>
+        <v>3.4322820037105739E-2</v>
+      </c>
+      <c r="N38" s="10">
         <f t="shared" si="53"/>
         <v>-1</v>
       </c>
-      <c r="N38" s="11">
-        <f t="shared" si="53"/>
-        <v>-1</v>
-      </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="11" t="e">
+      <c r="Q38" s="10" t="e">
         <f t="shared" ref="Q38:U38" si="56">+Q4/P4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R38" s="11" t="e">
+      <c r="R38" s="10" t="e">
         <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S38" s="11" t="e">
+      <c r="S38" s="10" t="e">
         <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T38" s="11" t="e">
+      <c r="T38" s="10" t="e">
         <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U38" s="11" t="e">
+      <c r="U38" s="10" t="e">
         <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V38" s="11">
+      <c r="V38" s="10">
         <f>+V4/U4-1</f>
         <v>6.2075654704170757E-2</v>
       </c>
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="11">
+      <c r="G39" s="10">
         <f t="shared" ref="G39:I45" si="57">+G7/C7-1</f>
         <v>0.14844267726971494</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="10">
         <f t="shared" si="57"/>
         <v>0.20100502512562812</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="10">
         <f t="shared" si="57"/>
         <v>0.18763796909492281</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J39" s="10">
         <f>+J7/F7-1</f>
         <v>0.26277897768178549</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K39" s="10">
         <f t="shared" ref="K39:N45" si="58">+K7/G7-1</f>
         <v>0.14598961338718985</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39" s="10">
         <f t="shared" si="58"/>
         <v>4.4456066945606665E-2</v>
       </c>
-      <c r="M39" s="11">
+      <c r="M39" s="10">
+        <f t="shared" si="58"/>
+        <v>8.1784386617100413E-2</v>
+      </c>
+      <c r="N39" s="10">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
-      <c r="N39" s="11">
-        <f t="shared" si="58"/>
-        <v>-1</v>
-      </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
-      <c r="Q39" s="11" t="e">
+      <c r="Q39" s="10" t="e">
         <f t="shared" ref="Q39:U45" si="59">+Q7/P7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R39" s="11" t="e">
+      <c r="R39" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S39" s="11" t="e">
+      <c r="S39" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T39" s="11" t="e">
+      <c r="T39" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U39" s="11" t="e">
+      <c r="U39" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V39" s="11">
+      <c r="V39" s="10">
         <f>+V7/U7-1</f>
         <v>0.19819105046017138</v>
       </c>
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <f t="shared" si="57"/>
         <v>-4.6728971962616828E-2</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="10">
         <f t="shared" si="57"/>
         <v>-6.9335239456754794E-2</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="10">
         <f t="shared" si="57"/>
         <v>-8.2210242587601123E-2</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="10">
         <f t="shared" ref="J40:J45" si="60">+J8/F8-1</f>
         <v>0.15789473684210531</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="10">
         <f t="shared" si="58"/>
         <v>5.525846702317283E-2</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="10">
         <f t="shared" si="58"/>
         <v>2.8417818740399392E-2</v>
       </c>
-      <c r="M40" s="11">
+      <c r="M40" s="10">
+        <f t="shared" si="58"/>
+        <v>-4.6989720998531603E-2</v>
+      </c>
+      <c r="N40" s="10">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
-      <c r="N40" s="11">
-        <f t="shared" si="58"/>
-        <v>-1</v>
-      </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
-      <c r="Q40" s="11" t="e">
+      <c r="Q40" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R40" s="11" t="e">
+      <c r="R40" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S40" s="11" t="e">
+      <c r="S40" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T40" s="11" t="e">
+      <c r="T40" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U40" s="11" t="e">
+      <c r="U40" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V40" s="11">
+      <c r="V40" s="10">
         <f t="shared" ref="V40:V45" si="61">+V8/U8-1</f>
         <v>-1.7436290477102934E-2</v>
       </c>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="11">
+      <c r="G41" s="10">
         <f t="shared" si="57"/>
         <v>1.4705882352941124E-2</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="10">
         <f t="shared" si="57"/>
         <v>7.3107049608355013E-2</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="10">
         <f t="shared" si="57"/>
         <v>8.7356321839080486E-2</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="10">
         <f t="shared" si="60"/>
         <v>0.18507462686567155</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41" s="10">
         <f t="shared" si="58"/>
         <v>0.14715719063545141</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41" s="10">
         <f t="shared" si="58"/>
         <v>-2.9197080291970767E-2</v>
       </c>
-      <c r="M41" s="11">
+      <c r="M41" s="10">
+        <f t="shared" si="58"/>
+        <v>1.0570824524311906E-3</v>
+      </c>
+      <c r="N41" s="10">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
-      <c r="N41" s="11">
-        <f t="shared" si="58"/>
-        <v>-1</v>
-      </c>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="11" t="e">
+      <c r="Q41" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R41" s="11" t="e">
+      <c r="R41" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S41" s="11" t="e">
+      <c r="S41" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T41" s="11" t="e">
+      <c r="T41" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U41" s="11" t="e">
+      <c r="U41" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V41" s="11">
+      <c r="V41" s="10">
         <f t="shared" si="61"/>
         <v>8.4326018808777325E-2</v>
       </c>
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="11">
+      <c r="G42" s="10">
         <f t="shared" si="57"/>
         <v>5.9523809523809534E-2</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="10">
         <f t="shared" si="57"/>
         <v>0.24833333333333329</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="10">
         <f t="shared" si="57"/>
         <v>9.1127098321343025E-2</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="10">
         <f t="shared" si="60"/>
         <v>0.26344086021505375</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="10">
         <f t="shared" si="58"/>
         <v>1.74438202247191</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="10">
         <f t="shared" si="58"/>
         <v>1.4272363150867822</v>
       </c>
-      <c r="M42" s="11">
+      <c r="M42" s="10">
+        <f t="shared" si="58"/>
+        <v>1.2120879120879122</v>
+      </c>
+      <c r="N42" s="10">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
-      <c r="N42" s="11">
-        <f t="shared" si="58"/>
-        <v>-1</v>
-      </c>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
-      <c r="Q42" s="11" t="e">
+      <c r="Q42" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R42" s="11" t="e">
+      <c r="R42" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S42" s="11" t="e">
+      <c r="S42" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T42" s="11" t="e">
+      <c r="T42" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U42" s="11" t="e">
+      <c r="U42" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V42" s="11">
+      <c r="V42" s="10">
         <f t="shared" si="61"/>
         <v>0.16140350877192988</v>
       </c>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="11">
+      <c r="G43" s="10">
         <f t="shared" si="57"/>
         <v>7.1452199801521621E-2</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="10">
         <f t="shared" si="57"/>
         <v>0.15183752417794971</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="10">
         <f t="shared" si="57"/>
         <v>0.10289389067524124</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="10">
         <f t="shared" si="60"/>
         <v>0.3356973995271868</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K43" s="10">
         <f t="shared" si="58"/>
         <v>0.16085211485026241</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43" s="10">
         <f t="shared" si="58"/>
         <v>-0.30702490904002244</v>
       </c>
-      <c r="M43" s="11">
+      <c r="M43" s="10">
+        <f t="shared" si="58"/>
+        <v>-6.095944871455039E-3</v>
+      </c>
+      <c r="N43" s="10">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
-      <c r="N43" s="11">
-        <f t="shared" si="58"/>
-        <v>-1</v>
-      </c>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
-      <c r="Q43" s="11" t="e">
+      <c r="Q43" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R43" s="11" t="e">
+      <c r="R43" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S43" s="11" t="e">
+      <c r="S43" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T43" s="11" t="e">
+      <c r="T43" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U43" s="11" t="e">
+      <c r="U43" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V43" s="11">
+      <c r="V43" s="10">
         <f t="shared" si="61"/>
         <v>0.15658362989323837</v>
       </c>
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="11">
+      <c r="G44" s="10">
         <f t="shared" si="57"/>
         <v>-1.3605442176870763E-2</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="10">
         <f t="shared" si="57"/>
         <v>3.0501089324618702E-2</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="10">
         <f t="shared" si="57"/>
         <v>2.6051188299817118E-2</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="10">
         <f t="shared" si="60"/>
         <v>0.10140562248995977</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44" s="10">
         <f t="shared" si="58"/>
         <v>4.403183023872681E-2</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="10">
         <f t="shared" si="58"/>
         <v>7.2410147991543328E-2</v>
       </c>
-      <c r="M44" s="11">
+      <c r="M44" s="10">
+        <f t="shared" si="58"/>
+        <v>6.1469933184855163E-2</v>
+      </c>
+      <c r="N44" s="10">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
-      <c r="N44" s="11">
-        <f t="shared" si="58"/>
-        <v>-1</v>
-      </c>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
-      <c r="Q44" s="11" t="e">
+      <c r="Q44" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R44" s="11" t="e">
+      <c r="R44" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S44" s="11" t="e">
+      <c r="S44" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T44" s="11" t="e">
+      <c r="T44" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U44" s="11" t="e">
+      <c r="U44" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V44" s="11">
+      <c r="V44" s="10">
         <f t="shared" si="61"/>
         <v>4.5824847250509171E-2</v>
       </c>
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="11">
+      <c r="G45" s="10">
         <f t="shared" si="57"/>
         <v>-3.5294117647058809E-2</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="10">
         <f t="shared" si="57"/>
         <v>-8.6419753086419804E-2</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="10">
         <f t="shared" si="57"/>
         <v>7.9487179487179427E-2</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="10">
         <f t="shared" si="60"/>
         <v>7.9545454545454586E-2</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K45" s="10">
         <f t="shared" si="58"/>
         <v>0.29268292682926833</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L45" s="10">
         <f t="shared" si="58"/>
         <v>0.2081081081081082</v>
       </c>
-      <c r="M45" s="11">
+      <c r="M45" s="10">
+        <f t="shared" si="58"/>
+        <v>0.178147268408551</v>
+      </c>
+      <c r="N45" s="10">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
-      <c r="N45" s="11">
-        <f t="shared" si="58"/>
-        <v>-1</v>
-      </c>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
-      <c r="Q45" s="11" t="e">
+      <c r="Q45" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R45" s="11" t="e">
+      <c r="R45" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S45" s="11" t="e">
+      <c r="S45" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T45" s="11" t="e">
+      <c r="T45" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U45" s="11" t="e">
+      <c r="U45" s="10" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V45" s="11">
+      <c r="V45" s="10">
         <f t="shared" si="61"/>
         <v>7.3924731182795078E-3</v>
       </c>
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="13">
+        <v>41</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="12">
         <f>G14/C14-1</f>
         <v>3.4888130451270483E-2</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="12">
         <f t="shared" ref="H46:J46" si="62">H14/D14-1</f>
         <v>8.9650009358038574E-2</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="12">
         <f t="shared" si="62"/>
         <v>7.3178863143857242E-2</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J46" s="12">
         <f t="shared" si="62"/>
         <v>0.23960931005818797</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K46" s="12">
         <f t="shared" ref="K46" si="63">K14/G14-1</f>
         <v>0.1273360205203371</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L46" s="12">
         <f t="shared" ref="L46" si="64">L14/H14-1</f>
         <v>2.2329096530401937E-2</v>
       </c>
-      <c r="M46" s="13">
+      <c r="M46" s="12">
         <f t="shared" ref="M46" si="65">M14/I14-1</f>
-        <v>-1</v>
-      </c>
-      <c r="N46" s="13">
+        <v>2.982292637465056E-2</v>
+      </c>
+      <c r="N46" s="12">
         <f t="shared" ref="N46" si="66">N14/J14-1</f>
         <v>-1</v>
       </c>
       <c r="O46" s="4"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11">
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10">
         <f t="shared" ref="Q46:T46" si="67">Q14/P14-1</f>
         <v>7.8713210130047839E-2</v>
       </c>
-      <c r="R46" s="11">
+      <c r="R46" s="10">
         <f t="shared" si="67"/>
         <v>-0.22017766497461932</v>
       </c>
-      <c r="S46" s="11">
+      <c r="S46" s="10">
         <f t="shared" si="67"/>
         <v>0.15183075671277457</v>
       </c>
-      <c r="T46" s="11">
+      <c r="T46" s="10">
         <f t="shared" si="67"/>
         <v>6.0139399076952094E-2</v>
       </c>
-      <c r="U46" s="11">
+      <c r="U46" s="10">
         <f>U14/T14-1</f>
         <v>-4.8154235706987736E-2</v>
       </c>
-      <c r="V46" s="11">
+      <c r="V46" s="10">
         <f>V14/U14-1</f>
         <v>0.10528772109954732</v>
       </c>
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="11">
+        <v>42</v>
+      </c>
+      <c r="C47" s="10">
         <f t="shared" ref="C47:G47" si="68">C16/C14</f>
         <v>0.44804702313234734</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="10">
         <f t="shared" si="68"/>
         <v>0.50870297585626056</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="10">
         <f t="shared" si="68"/>
         <v>0.49258209701616934</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="10">
         <f t="shared" si="68"/>
         <v>0.44638403990024939</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="10">
         <f t="shared" si="68"/>
         <v>0.51227555881275189</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="10">
         <f>H16/H14</f>
         <v>0.50824458948814843</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="10">
         <f t="shared" ref="I47:J47" si="69">I16/I14</f>
         <v>0.51273687480584029</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="10">
         <f t="shared" si="69"/>
         <v>0.49790444258172672</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K47" s="10">
         <f t="shared" ref="K47:N47" si="70">K16/K14</f>
         <v>0.52088412156671537</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L47" s="10">
         <f t="shared" si="70"/>
         <v>0.51696908602150538</v>
       </c>
-      <c r="M47" s="11" t="e">
+      <c r="M47" s="10">
+        <f t="shared" si="70"/>
+        <v>0.51809954751131226</v>
+      </c>
+      <c r="N47" s="10" t="e">
         <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N47" s="11" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="O47" s="4"/>
-      <c r="P47" s="11">
+      <c r="P47" s="10">
         <f t="shared" ref="P47:T47" si="71">P16/P14</f>
         <v>0.51850330823636781</v>
       </c>
-      <c r="Q47" s="11">
+      <c r="Q47" s="10">
         <f t="shared" si="71"/>
         <v>0.52000846023688663</v>
       </c>
-      <c r="R47" s="11">
+      <c r="R47" s="10">
         <f t="shared" si="71"/>
         <v>0.50024410089503657</v>
       </c>
-      <c r="S47" s="11">
+      <c r="S47" s="10">
         <f t="shared" si="71"/>
         <v>0.50696995384760291</v>
       </c>
-      <c r="T47" s="11">
+      <c r="T47" s="10">
         <f t="shared" si="71"/>
         <v>0.47283550264315222</v>
       </c>
-      <c r="U47" s="11">
+      <c r="U47" s="10">
         <f>U16/U14</f>
         <v>0.47524151771129886</v>
       </c>
-      <c r="V47" s="11">
+      <c r="V47" s="10">
         <f>V16/V14</f>
         <v>0.5077481737955496</v>
       </c>
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="11">
+        <v>43</v>
+      </c>
+      <c r="C48" s="10">
         <f t="shared" ref="C48:G48" si="72">C23/C14</f>
         <v>1.1376564277588168E-2</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="10">
         <f t="shared" si="72"/>
         <v>3.2753134942915964E-2</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="10">
         <f t="shared" si="72"/>
         <v>6.8344724120686776E-2</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <f t="shared" si="72"/>
         <v>-7.813798836242726E-2</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="10">
         <f t="shared" si="72"/>
         <v>6.1561011359472333E-2</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="10">
         <f>H23/H14</f>
         <v>5.960151150807283E-2</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="10">
         <f t="shared" ref="I48:J48" si="73">I23/I14</f>
         <v>9.2575333954644304E-2</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="10">
         <f t="shared" si="73"/>
         <v>9.5557418273260683E-3</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K48" s="10">
         <f t="shared" ref="K48:N48" si="74">K23/K14</f>
         <v>9.8976109215017066E-2</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L48" s="10">
         <f t="shared" si="74"/>
         <v>9.1901881720430109E-2</v>
       </c>
-      <c r="M48" s="11" t="e">
+      <c r="M48" s="10">
+        <f t="shared" si="74"/>
+        <v>0.11101055806938159</v>
+      </c>
+      <c r="N48" s="10" t="e">
         <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N48" s="11" t="e">
-        <f t="shared" si="74"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="O48" s="4"/>
-      <c r="P48" s="11">
+      <c r="P48" s="10">
         <f t="shared" ref="P48:T48" si="75">P23/P14</f>
         <v>0.1080082135523614</v>
       </c>
-      <c r="Q48" s="11">
+      <c r="Q48" s="10">
         <f t="shared" si="75"/>
         <v>0.11252115059221658</v>
       </c>
-      <c r="R48" s="11">
+      <c r="R48" s="10">
         <f t="shared" si="75"/>
         <v>4.0412259289395173E-2</v>
       </c>
-      <c r="S48" s="11">
+      <c r="S48" s="10">
         <f t="shared" si="75"/>
         <v>9.3576339832344355E-2</v>
       </c>
-      <c r="T48" s="11">
+      <c r="T48" s="10">
         <f t="shared" si="75"/>
         <v>2.9718804140198125E-2</v>
       </c>
-      <c r="U48" s="11">
+      <c r="U48" s="10">
         <f>U23/U14</f>
         <v>1.2460913800345358E-2</v>
       </c>
-      <c r="V48" s="11">
+      <c r="V48" s="10">
         <f>V23/V14</f>
         <v>5.6327323396529155E-2</v>
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="11">
+        <v>45</v>
+      </c>
+      <c r="C49" s="10">
         <f t="shared" ref="C49:G49" si="76">C32/C14</f>
         <v>-7.2051573758058398E-3</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="10">
         <f t="shared" si="76"/>
         <v>1.5721504772599662E-2</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="10">
         <f t="shared" si="76"/>
         <v>4.3340556759459907E-2</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <f t="shared" si="76"/>
         <v>4.3640897755610969E-3</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="10">
         <f t="shared" si="76"/>
         <v>3.1146940271161598E-2</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49" s="10">
         <f>H32/H14</f>
         <v>3.2634833390587425E-2</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="10">
         <f t="shared" ref="I49:J49" si="77">I32/I14</f>
         <v>6.8499534016775401E-2</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="10">
         <f t="shared" si="77"/>
         <v>3.3528918692372171E-3</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K49" s="10">
         <f t="shared" ref="K49:N49" si="78">K32/K14</f>
         <v>6.9397042093287828E-2</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L49" s="10">
         <f t="shared" si="78"/>
         <v>6.2163978494623656E-2</v>
       </c>
-      <c r="M49" s="11" t="e">
+      <c r="M49" s="10">
+        <f t="shared" si="78"/>
+        <v>6.953242835595777E-2</v>
+      </c>
+      <c r="N49" s="10" t="e">
         <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N49" s="11" t="e">
-        <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="O49" s="4"/>
-      <c r="P49" s="11">
+      <c r="P49" s="10">
         <f t="shared" ref="P49:T49" si="79">P32/P14</f>
         <v>7.7572438968742871E-2</v>
       </c>
-      <c r="Q49" s="11">
+      <c r="Q49" s="10">
         <f t="shared" si="79"/>
         <v>8.3544839255499159E-2</v>
       </c>
-      <c r="R49" s="11">
+      <c r="R49" s="10">
         <f t="shared" si="79"/>
         <v>2.3379441280173583E-2</v>
       </c>
-      <c r="S49" s="11">
+      <c r="S49" s="10">
         <f t="shared" si="79"/>
         <v>9.9698596590373931E-2</v>
       </c>
-      <c r="T49" s="11">
+      <c r="T49" s="10">
         <f t="shared" si="79"/>
         <v>2.7186708720181245E-2</v>
       </c>
-      <c r="U49" s="11">
+      <c r="U49" s="10">
         <f>U32/U14</f>
         <v>-3.5935968637700096E-3</v>
       </c>
-      <c r="V49" s="11">
+      <c r="V49" s="10">
         <f>V32/V14</f>
         <v>2.9134822446480598E-3</v>
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="11">
+        <v>44</v>
+      </c>
+      <c r="C50" s="10">
         <f t="shared" ref="C50:G50" si="80">C27/C26</f>
         <v>1.71875</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="10">
         <f t="shared" si="80"/>
         <v>0.21951219512195122</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="10">
         <f t="shared" si="80"/>
         <v>0.16871165644171779</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="10">
         <f t="shared" si="80"/>
         <v>3.3816425120772944E-2</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="10">
         <f t="shared" si="80"/>
         <v>0.30204081632653063</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="10">
         <f>H27/H26</f>
         <v>0.30491803278688523</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="10">
         <f t="shared" ref="I50:J50" si="81">I27/I26</f>
         <v>0.22166666666666668</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="10">
         <f t="shared" si="81"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K50" s="10">
         <f t="shared" ref="K50:N50" si="82">K27/K26</f>
         <v>0.25513698630136988</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L50" s="10">
         <f t="shared" si="82"/>
         <v>0.23312883435582821</v>
       </c>
-      <c r="M50" s="11" t="e">
+      <c r="M50" s="10">
+        <f t="shared" si="82"/>
+        <v>0.26</v>
+      </c>
+      <c r="N50" s="10" t="e">
         <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N50" s="11" t="e">
-        <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="O50" s="4"/>
-      <c r="P50" s="11">
+      <c r="P50" s="10">
         <f t="shared" ref="P50:T50" si="83">P27/P26</f>
         <v>0.28144720235591081</v>
       </c>
-      <c r="Q50" s="11">
+      <c r="Q50" s="10">
         <f t="shared" si="83"/>
         <v>0.2501954652071931</v>
       </c>
-      <c r="R50" s="11">
+      <c r="R50" s="10">
         <f t="shared" si="83"/>
         <v>0.20242214532871972</v>
       </c>
-      <c r="S50" s="11">
+      <c r="S50" s="10">
         <f t="shared" si="83"/>
         <v>0.19427954668105774</v>
       </c>
-      <c r="T50" s="11">
+      <c r="T50" s="10">
         <f t="shared" si="83"/>
         <v>0.34536082474226804</v>
       </c>
-      <c r="U50" s="11">
+      <c r="U50" s="10">
         <f>U27/U26</f>
         <v>1.9375</v>
       </c>
-      <c r="V50" s="11">
+      <c r="V50" s="10">
         <f>V27/V26</f>
         <v>0.26470588235294118</v>
       </c>
